--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{01F2B10C-9D77-4A1A-8D5C-2F81C8C46C50}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F7D13A-9DAC-4F0C-AC91-DF3601B3EA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16920" windowWidth="30960" xWindow="30600" xr2:uid="{E8C53DAE-1554-4E2D-AB4B-2AFBF084D73A}" yWindow="-120"/>
+    <workbookView xWindow="795" yWindow="975" windowWidth="18105" windowHeight="10800" activeTab="2" xr2:uid="{E8C53DAE-1554-4E2D-AB4B-2AFBF084D73A}"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
+    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
+    <sheet name="PayNowPC" sheetId="3" r:id="rId2"/>
+    <sheet name="PayNowPS" sheetId="4" r:id="rId3"/>
+    <sheet name="PayNowCorp" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="96">
   <si>
     <t>Result</t>
   </si>
@@ -122,9 +125,6 @@
     <t>CCEmail</t>
   </si>
   <si>
-    <t>Pay Now Credit Card</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -140,29 +140,199 @@
     <t>2028</t>
   </si>
   <si>
-    <t>831</t>
-  </si>
-  <si>
     <t>2.5</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Thu Aug 08 14:18:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>ACNumber</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>EIN</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>UDF1</t>
+  </si>
+  <si>
+    <t>UDF2</t>
+  </si>
+  <si>
+    <t>UDF3</t>
+  </si>
+  <si>
+    <t>UDF4</t>
+  </si>
+  <si>
+    <t>UDF5</t>
+  </si>
+  <si>
+    <t>UDF6</t>
+  </si>
+  <si>
+    <t>UDF7</t>
+  </si>
+  <si>
+    <t>UDF8</t>
+  </si>
+  <si>
+    <t>UDF9</t>
+  </si>
+  <si>
+    <t>UDF10</t>
+  </si>
+  <si>
+    <t>AL1</t>
+  </si>
+  <si>
+    <t>AL2</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>RTN</t>
+  </si>
+  <si>
+    <t>My Company</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Pay Now Corporate No Emulator Data</t>
+  </si>
+  <si>
+    <t>Pay Now Corporate Yes Emulator Data</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>Pay Now Credit Card Yes Emulator Data</t>
+  </si>
+  <si>
+    <t>Pay Now Credit Card No Emulator Data</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>udf data 1</t>
+  </si>
+  <si>
+    <t>udf data 2</t>
+  </si>
+  <si>
+    <t>udf data 3</t>
+  </si>
+  <si>
+    <t>udf data 4</t>
+  </si>
+  <si>
+    <t>udf data 5</t>
+  </si>
+  <si>
+    <t>udf data 6</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>udf data 9</t>
+  </si>
+  <si>
+    <t>udf data 10</t>
+  </si>
+  <si>
+    <t>Kavita Ranawati</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>365 Main Avenue</t>
+  </si>
+  <si>
+    <t>22201</t>
+  </si>
+  <si>
+    <t>iahmed@govolution.com</t>
+  </si>
+  <si>
+    <t>Charu Suraji</t>
+  </si>
+  <si>
+    <t>374245002771003</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Pay Now Corporate No Emulator Data Required Fields Only</t>
+  </si>
+  <si>
+    <t>Pay Now Credit Card No Emulator Data Required Fields only</t>
+  </si>
+  <si>
+    <t>Shakuntla Devi</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>ConfirmACNumber</t>
+  </si>
+  <si>
+    <t>ACType</t>
+  </si>
+  <si>
+    <t>Pay Now PC No Emulator Data</t>
+  </si>
+  <si>
+    <t>Pay Now PC Yes Emulator Data</t>
+  </si>
+  <si>
+    <t>Pay Now PC No Emulator Data Required Fields Only</t>
+  </si>
+  <si>
+    <t>12342222</t>
+  </si>
+  <si>
+    <t>CACNumber</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,20 +375,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -235,10 +410,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -273,7 +448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="02110004020202020204" typeface="Aptos Display"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -325,7 +500,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="02110004020202020204" typeface="Aptos Narrow"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -436,21 +611,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -467,7 +642,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -539,44 +714,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" name="Office Theme" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6645B547-9B3F-42C0-A45B-8EF8C475631F}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6645B547-9B3F-42C0-A45B-8EF8C475631F}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="6.42578125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="27.5703125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="19.0" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="9.0" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="6.28515625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="8.7109375" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="2" width="13.42578125" collapsed="false"/>
-    <col min="9" max="17" bestFit="true" customWidth="true" style="2" width="7.85546875" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="8.85546875" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="8.5703125" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="6.5703125" collapsed="false"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="7.85546875" collapsed="false"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="7.28515625" collapsed="false"/>
-    <col min="25" max="26" bestFit="true" customWidth="true" style="2" width="6.28515625" collapsed="false"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="6.0" collapsed="false"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="8.28515625" collapsed="false"/>
-    <col min="29" max="16384" style="2" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
+    <col min="9" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" ht="30" r="1" s="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,46 +838,1111 @@
         <v>27</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
+    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="2"/>
+      <c r="H3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB7062-F3FE-4F59-AAD7-F881C9AC66C0}">
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1C1C0F-53C1-43E2-B9A2-9B1C832B80B6}">
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D5DBD-8D22-4B19-B9D2-FF1FC12487BE}">
+  <dimension ref="A1:AA4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F7D13A-9DAC-4F0C-AC91-DF3601B3EA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{65F7D13A-9DAC-4F0C-AC91-DF3601B3EA9C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="975" windowWidth="18105" windowHeight="10800" activeTab="2" xr2:uid="{E8C53DAE-1554-4E2D-AB4B-2AFBF084D73A}"/>
+    <workbookView activeTab="2" windowHeight="10800" windowWidth="18105" xWindow="795" xr2:uid="{E8C53DAE-1554-4E2D-AB4B-2AFBF084D73A}" yWindow="975"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
-    <sheet name="PayNowPC" sheetId="3" r:id="rId2"/>
-    <sheet name="PayNowPS" sheetId="4" r:id="rId3"/>
-    <sheet name="PayNowCorp" sheetId="2" r:id="rId4"/>
+    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
+    <sheet name="PayNowPC" r:id="rId2" sheetId="3"/>
+    <sheet name="PayNowPS" r:id="rId3" sheetId="4"/>
+    <sheet name="PayNowCorp" r:id="rId4" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="100">
   <si>
     <t>Result</t>
   </si>
@@ -327,12 +327,25 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Thu Aug 15 22:14:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Aug 15 22:16:21 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Aug 15 22:17:32 IST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,25 +388,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -410,10 +423,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -448,7 +461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin panose="02110004020202020204" typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -500,7 +513,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin panose="02110004020202020204" typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -611,21 +624,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -642,7 +655,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -714,15 +727,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" name="Office Theme" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6645B547-9B3F-42C0-A45B-8EF8C475631F}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6645B547-9B3F-42C0-A45B-8EF8C475631F}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1:AC1048576"/>
@@ -730,29 +743,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
-    <col min="9" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="13.42578125" collapsed="true"/>
+    <col min="9" max="17" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -873,7 +886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
@@ -947,7 +960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
@@ -1021,7 +1034,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>83</v>
       </c>
@@ -1084,7 +1097,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1092,8 +1105,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB7062-F3FE-4F59-AAD7-F881C9AC66C0}">
-  <dimension ref="A1:AB4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB7062-F3FE-4F59-AAD7-F881C9AC66C0}">
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="X4" sqref="X4"/>
@@ -1101,31 +1114,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="9" max="14" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="19" max="20" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="23" max="24" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1224,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>89</v>
       </c>
@@ -1282,7 +1295,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1311,7 +1324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1371,13 +1384,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1C1C0F-53C1-43E2-B9A2-9B1C832B80B6}">
-  <dimension ref="A1:AB4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1C1C0F-53C1-43E2-B9A2-9B1C832B80B6}">
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="X4" sqref="X4"/>
@@ -1385,31 +1398,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="9" max="14" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="19" max="20" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="23" max="24" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1508,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>89</v>
       </c>
@@ -1566,7 +1579,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1595,7 +1608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1655,13 +1668,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D5DBD-8D22-4B19-B9D2-FF1FC12487BE}">
-  <dimension ref="A1:AA4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D5DBD-8D22-4B19-B9D2-FF1FC12487BE}">
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
@@ -1669,29 +1682,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
+    <col min="9" max="14" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="28" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -1777,7 +1790,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
@@ -1851,7 +1870,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
@@ -1883,7 +1908,13 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
       </c>
@@ -1943,6 +1974,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{65F7D13A-9DAC-4F0C-AC91-DF3601B3EA9C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DCB584-C9CC-4EAB-B177-5CEB8B122B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="10800" windowWidth="18105" xWindow="795" xr2:uid="{E8C53DAE-1554-4E2D-AB4B-2AFBF084D73A}" yWindow="975"/>
+    <workbookView xWindow="35835" yWindow="5880" windowWidth="18105" windowHeight="10800" xr2:uid="{E8C53DAE-1554-4E2D-AB4B-2AFBF084D73A}"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
-    <sheet name="PayNowPC" r:id="rId2" sheetId="3"/>
-    <sheet name="PayNowPS" r:id="rId3" sheetId="4"/>
-    <sheet name="PayNowCorp" r:id="rId4" sheetId="2"/>
+    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
+    <sheet name="PayNowPC" sheetId="3" r:id="rId2"/>
+    <sheet name="PayNowPS" sheetId="4" r:id="rId3"/>
+    <sheet name="PayNowCorp" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="99">
   <si>
     <t>Result</t>
   </si>
@@ -327,9 +327,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Thu Aug 15 22:14:55 IST 2024</t>
@@ -345,7 +342,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,25 +384,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -423,10 +419,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -461,7 +457,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="02110004020202020204" typeface="Aptos Display"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -513,7 +509,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="02110004020202020204" typeface="Aptos Narrow"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -624,21 +620,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -655,7 +651,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -727,45 +723,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" name="Office Theme" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6645B547-9B3F-42C0-A45B-8EF8C475631F}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6645B547-9B3F-42C0-A45B-8EF8C475631F}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="13.42578125" collapsed="true"/>
-    <col min="9" max="17" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,7 +847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -886,7 +882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
@@ -960,7 +956,7 @@
         <v>78</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
@@ -1034,7 +1030,7 @@
         <v>78</v>
       </c>
     </row>
-    <row ht="45" r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>83</v>
       </c>
@@ -1097,7 +1093,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1105,8 +1101,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB7062-F3FE-4F59-AAD7-F881C9AC66C0}">
-  <dimension ref="A1:AC4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB7062-F3FE-4F59-AAD7-F881C9AC66C0}">
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="X4" sqref="X4"/>
@@ -1114,31 +1110,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="9" max="14" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="19" max="20" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="10.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="10.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>89</v>
       </c>
@@ -1295,7 +1291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1324,7 +1320,7 @@
         <v>94</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1384,45 +1380,45 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1C1C0F-53C1-43E2-B9A2-9B1C832B80B6}">
-  <dimension ref="A1:AC4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1C1C0F-53C1-43E2-B9A2-9B1C832B80B6}">
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="9" max="14" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="19" max="20" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="10.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="10.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>89</v>
       </c>
@@ -1579,7 +1575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
@@ -1608,7 +1604,7 @@
         <v>95</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>91</v>
       </c>
@@ -1668,43 +1664,43 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D5DBD-8D22-4B19-B9D2-FF1FC12487BE}">
-  <dimension ref="A1:AB4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D5DBD-8D22-4B19-B9D2-FF1FC12487BE}">
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="9" max="14" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="28" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="23.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -1790,12 +1786,12 @@
         <v>54</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>58</v>
@@ -1870,12 +1866,12 @@
         <v>78</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -1908,12 +1904,12 @@
         <v>123456789</v>
       </c>
     </row>
-    <row ht="45" r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -1974,6 +1970,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -1,45 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{65F7D13A-9DAC-4F0C-AC91-DF3601B3EA9C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AD7D4C-BAE7-4EF9-8E06-0A398BB22DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="10800" windowWidth="18105" xWindow="795" xr2:uid="{E8C53DAE-1554-4E2D-AB4B-2AFBF084D73A}" yWindow="975"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
-    <sheet name="PayNowPC" r:id="rId2" sheetId="3"/>
-    <sheet name="PayNowPS" r:id="rId3" sheetId="4"/>
-    <sheet name="PayNowCorp" r:id="rId4" sheetId="2"/>
+    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
+    <sheet name="PayNowPC" sheetId="2" r:id="rId2"/>
+    <sheet name="PayNowPS" sheetId="3" r:id="rId3"/>
+    <sheet name="PayNowCorp" sheetId="4" r:id="rId4"/>
+    <sheet name="MRFCorp" sheetId="5" r:id="rId5"/>
+    <sheet name="PayNowCorpSCF" sheetId="6" r:id="rId6"/>
+    <sheet name="PayNowCorpDCF" sheetId="7" r:id="rId7"/>
+    <sheet name="MaxAmountErrorCorp" sheetId="8" r:id="rId8"/>
+    <sheet name="MinAmountErrorCorp" sheetId="9" r:id="rId9"/>
+    <sheet name="OverAndUnderPayCorp" sheetId="10" r:id="rId10"/>
+    <sheet name="NoModifyAmountCorp" sheetId="13" r:id="rId11"/>
+    <sheet name="PayNowPersonalCheckSCF" sheetId="14" r:id="rId12"/>
+    <sheet name="PayNowPersonalCheckDCF" sheetId="15" r:id="rId13"/>
+    <sheet name="MaxAmountErrorPC" sheetId="16" r:id="rId14"/>
+    <sheet name="NoOverPayErrorPC" sheetId="19" r:id="rId15"/>
+    <sheet name="OverAndUnderPayPC" sheetId="20" r:id="rId16"/>
+    <sheet name="NoModifyAmountPC" sheetId="21" r:id="rId17"/>
+    <sheet name="MaxAmountErrorPS" sheetId="22" r:id="rId18"/>
+    <sheet name="MinAmountErrorPS" sheetId="23" r:id="rId19"/>
+    <sheet name="NoUnderPayErrorPS" sheetId="24" r:id="rId20"/>
+    <sheet name="NoOverPayErrorPS" sheetId="25" r:id="rId21"/>
+    <sheet name="NoUnderPayErrorPC" sheetId="18" r:id="rId22"/>
+    <sheet name="MinAmountErrorPC" sheetId="17" r:id="rId23"/>
+    <sheet name="NoUnderPayErrorCorp" sheetId="11" r:id="rId24"/>
+    <sheet name="NoOverPayErrorCorp" sheetId="12" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="144">
   <si>
     <t>Result</t>
   </si>
@@ -125,9 +135,21 @@
     <t>CCEmail</t>
   </si>
   <si>
+    <t>Pay Now Credit Card Yes Emulator Data</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
     <t>5146312200000035</t>
   </si>
   <si>
@@ -140,219 +162,338 @@
     <t>2028</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>Pay Now Credit Card No Emulator Data</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>udf data 1</t>
+  </si>
+  <si>
+    <t>udf data 2</t>
+  </si>
+  <si>
+    <t>udf data 3</t>
+  </si>
+  <si>
+    <t>udf data 4</t>
+  </si>
+  <si>
+    <t>udf data 5</t>
+  </si>
+  <si>
+    <t>udf data 6</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>udf data 9</t>
+  </si>
+  <si>
+    <t>udf data 10</t>
+  </si>
+  <si>
+    <t>Kavita Ranawati</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>365 Main Avenue</t>
+  </si>
+  <si>
+    <t>22201</t>
+  </si>
+  <si>
+    <t>iahmed@govolution.com</t>
+  </si>
+  <si>
+    <t>Charu Suraji</t>
+  </si>
+  <si>
+    <t>374245002771003</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Pay Now Credit Card No Emulator Data Required Fields only</t>
+  </si>
+  <si>
+    <t>Shakuntla Devi</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>UDF1</t>
+  </si>
+  <si>
+    <t>UDF2</t>
+  </si>
+  <si>
+    <t>UDF3</t>
+  </si>
+  <si>
+    <t>UDF4</t>
+  </si>
+  <si>
+    <t>UDF5</t>
+  </si>
+  <si>
+    <t>UDF6</t>
+  </si>
+  <si>
+    <t>UDF7</t>
+  </si>
+  <si>
+    <t>UDF8</t>
+  </si>
+  <si>
+    <t>UDF9</t>
+  </si>
+  <si>
+    <t>UDF10</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>RTN</t>
+  </si>
+  <si>
+    <t>ACNumber</t>
+  </si>
+  <si>
+    <t>ConfirmACNumber</t>
+  </si>
+  <si>
+    <t>ACType</t>
+  </si>
+  <si>
+    <t>AL1</t>
+  </si>
+  <si>
+    <t>AL2</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Pay Now PC No Emulator Data</t>
+  </si>
+  <si>
+    <t>12342222</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Pay Now PC Yes Emulator Data</t>
+  </si>
+  <si>
+    <t>Pay Now PC No Emulator Data Required Fields Only</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>CACNumber</t>
+  </si>
+  <si>
+    <t>EIN</t>
+  </si>
+  <si>
+    <t>Pay Now Corporate No Emulator Data</t>
+  </si>
+  <si>
+    <t>My Company</t>
+  </si>
+  <si>
+    <t>Pay Now Corporate Yes Emulator Data</t>
+  </si>
+  <si>
+    <t>Pay Now Corporate No Emulator Data Required Fields Only</t>
+  </si>
+  <si>
+    <t>639</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>200.50</t>
+  </si>
+  <si>
+    <t>1.50</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Thu Aug 08 14:18:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>ACNumber</t>
-  </si>
-  <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
-    <t>EIN</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>UDF1</t>
-  </si>
-  <si>
-    <t>UDF2</t>
-  </si>
-  <si>
-    <t>UDF3</t>
-  </si>
-  <si>
-    <t>UDF4</t>
-  </si>
-  <si>
-    <t>UDF5</t>
-  </si>
-  <si>
-    <t>UDF6</t>
-  </si>
-  <si>
-    <t>UDF7</t>
-  </si>
-  <si>
-    <t>UDF8</t>
-  </si>
-  <si>
-    <t>UDF9</t>
-  </si>
-  <si>
-    <t>UDF10</t>
-  </si>
-  <si>
-    <t>AL1</t>
-  </si>
-  <si>
-    <t>AL2</t>
-  </si>
-  <si>
-    <t>ZIP</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>RTN</t>
-  </si>
-  <si>
-    <t>My Company</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Pay Now Corporate No Emulator Data</t>
-  </si>
-  <si>
-    <t>Pay Now Corporate Yes Emulator Data</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>Pay Now Credit Card Yes Emulator Data</t>
-  </si>
-  <si>
-    <t>Pay Now Credit Card No Emulator Data</t>
-  </si>
-  <si>
-    <t>10.50</t>
-  </si>
-  <si>
-    <t>udf data 1</t>
-  </si>
-  <si>
-    <t>udf data 2</t>
-  </si>
-  <si>
-    <t>udf data 3</t>
-  </si>
-  <si>
-    <t>udf data 4</t>
-  </si>
-  <si>
-    <t>udf data 5</t>
-  </si>
-  <si>
-    <t>udf data 6</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Soccer</t>
-  </si>
-  <si>
-    <t>udf data 9</t>
-  </si>
-  <si>
-    <t>udf data 10</t>
-  </si>
-  <si>
-    <t>Kavita Ranawati</t>
-  </si>
-  <si>
-    <t>4111111111111111</t>
-  </si>
-  <si>
-    <t>365 Main Avenue</t>
-  </si>
-  <si>
-    <t>22201</t>
-  </si>
-  <si>
-    <t>iahmed@govolution.com</t>
-  </si>
-  <si>
-    <t>Charu Suraji</t>
-  </si>
-  <si>
-    <t>374245002771003</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>Pay Now Corporate No Emulator Data Required Fields Only</t>
-  </si>
-  <si>
-    <t>Pay Now Credit Card No Emulator Data Required Fields only</t>
-  </si>
-  <si>
-    <t>Shakuntla Devi</t>
-  </si>
-  <si>
-    <t>Fname</t>
-  </si>
-  <si>
-    <t>Lname</t>
-  </si>
-  <si>
-    <t>ConfirmACNumber</t>
-  </si>
-  <si>
-    <t>ACType</t>
-  </si>
-  <si>
-    <t>Pay Now PC No Emulator Data</t>
-  </si>
-  <si>
-    <t>Pay Now PC Yes Emulator Data</t>
-  </si>
-  <si>
-    <t>Pay Now PC No Emulator Data Required Fields Only</t>
-  </si>
-  <si>
-    <t>12342222</t>
-  </si>
-  <si>
-    <t>CACNumber</t>
+    <t>653</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pay Now Personal Check No Emulator Data</t>
+  </si>
+  <si>
+    <t>Pay Now Personal Check Yes Emulator Data</t>
+  </si>
+  <si>
+    <t>Elizath</t>
+  </si>
+  <si>
+    <t>Christine</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>Mon Aug 26 22:35:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 22:37:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 22:39:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 22:41:02 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:00:56 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:02:18 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:03:31 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:04:44 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:05:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:06:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:08:02 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:09:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:10:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:11:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:12:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:13:44 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:14:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:16:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:17:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:18:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:19:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:21:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:22:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:23:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:24:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:26:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:27:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:29:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:30:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Aug 26 23:32:29 IST 2024</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Thu Aug 15 22:14:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Aug 15 22:16:21 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Aug 15 22:17:32 IST 2024</t>
+    <t>Tue Aug 27 21:21:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Aug 27 21:24:13 IST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,7 +504,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -386,27 +527,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -423,10 +573,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -461,7 +611,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="02110004020202020204" typeface="Aptos Display"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -513,7 +663,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="02110004020202020204" typeface="Aptos Narrow"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -624,21 +774,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -655,7 +805,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -727,45 +877,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" name="Office Theme" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6645B547-9B3F-42C0-A45B-8EF8C475631F}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="13.42578125" collapsed="true"/>
-    <col min="9" max="17" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="8.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="17" width="7.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="7.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="6.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.08984375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,294 +1001,2349 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row ht="30" r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row ht="30" r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row ht="45" r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="U5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>78</v>
+        <v>53</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
-    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+    <oddFooter>&amp;C_x005F_x000D_&amp;1#&amp;"Calibri,Regular"&amp;10 Public</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CB7062-F3FE-4F59-AAD7-F881C9AC66C0}">
-  <dimension ref="A1:AC4"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AA3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD0BECA-198B-4690-8CF3-A2199F4B543B}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00763E-41D4-4301-BDED-25AE7808C112}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C03D0C9-5AB6-4662-AC40-046602184333}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="V3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4062C9F-5A44-415A-A7E8-078A7E971ECD}">
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection sqref="A1:AD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F043AE-8D22-4522-B277-A3F8143D1C61}">
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+      <selection sqref="A1:AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B9C217-1BF0-431A-9AA8-3A32A964B4CD}">
+  <dimension ref="A1:AD3"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0893653-4D6E-4E06-95C2-AA32E63A578A}">
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04751CF-732C-4149-ABDB-2383247CAD77}">
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFD3F70-9018-4826-9ABF-5AB54B85F996}">
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="9" max="14" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="19" max="20" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="14" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="20" width="10.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="24" width="10.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="4" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="23.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.08984375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,268 +3366,1285 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="30" r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1">
         <v>2.5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="U2" s="1">
         <v>256072691</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row ht="30" r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1">
         <v>256072691</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row ht="30" r="4" spans="1:28" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="U4" s="1">
         <v>256072691</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="Y4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32E7FC-2B9D-4ACF-971E-602A35B77002}">
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D69F64-0838-4A1D-A1AD-91EF5273BDCB}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F3F3AF-F561-446D-9C6A-79A3AF94AE18}">
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection sqref="A1:AD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19564025-DA14-4B1C-B957-0CD06F0D7994}">
+  <dimension ref="A1:AD2"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection sqref="A1:AD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1C1C0F-53C1-43E2-B9A2-9B1C832B80B6}">
-  <dimension ref="A1:AC4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="9" max="14" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="19" max="20" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="14" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="20" width="10.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="24" width="10.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="4" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="23.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.08984375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1445,269 +4667,270 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="30" r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1">
         <v>2.5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="U2" s="1">
         <v>256072691</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row ht="30" r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1">
         <v>256072691</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="4" spans="1:28" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="29" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="U4" s="1">
         <v>256072691</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D5DBD-8D22-4B19-B9D2-FF1FC12487BE}">
-  <dimension ref="A1:AB4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="9" max="14" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="6.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="15.140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="28" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="6.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="14" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.08984375" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="4" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="6" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="23.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="9.08984375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1730,123 +4953,123 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="30" r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1">
         <v>2.5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="T2" s="1">
         <v>256072691</v>
@@ -1861,39 +5084,39 @@
         <v>123456789</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row ht="30" r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="T3" s="1">
         <v>256072691</v>
@@ -1908,51 +5131,51 @@
         <v>123456789</v>
       </c>
     </row>
-    <row ht="45" r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="T4" s="1">
         <v>256072691</v>
@@ -1964,16 +5187,1015 @@
         <v>12344444</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="Z4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AA3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -1,43 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AD7D4C-BAE7-4EF9-8E06-0A398BB22DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FB2E4B07-BE57-40C9-BAB5-14515D87AB07}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="6" firstSheet="1" tabRatio="1000" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
-    <sheet name="PayNowPC" sheetId="2" r:id="rId2"/>
-    <sheet name="PayNowPS" sheetId="3" r:id="rId3"/>
-    <sheet name="PayNowCorp" sheetId="4" r:id="rId4"/>
-    <sheet name="MRFCorp" sheetId="5" r:id="rId5"/>
-    <sheet name="PayNowCorpSCF" sheetId="6" r:id="rId6"/>
-    <sheet name="PayNowCorpDCF" sheetId="7" r:id="rId7"/>
-    <sheet name="MaxAmountErrorCorp" sheetId="8" r:id="rId8"/>
-    <sheet name="MinAmountErrorCorp" sheetId="9" r:id="rId9"/>
-    <sheet name="OverAndUnderPayCorp" sheetId="10" r:id="rId10"/>
-    <sheet name="NoModifyAmountCorp" sheetId="13" r:id="rId11"/>
-    <sheet name="PayNowPersonalCheckSCF" sheetId="14" r:id="rId12"/>
-    <sheet name="PayNowPersonalCheckDCF" sheetId="15" r:id="rId13"/>
-    <sheet name="MaxAmountErrorPC" sheetId="16" r:id="rId14"/>
-    <sheet name="NoOverPayErrorPC" sheetId="19" r:id="rId15"/>
-    <sheet name="OverAndUnderPayPC" sheetId="20" r:id="rId16"/>
-    <sheet name="NoModifyAmountPC" sheetId="21" r:id="rId17"/>
-    <sheet name="MaxAmountErrorPS" sheetId="22" r:id="rId18"/>
-    <sheet name="MinAmountErrorPS" sheetId="23" r:id="rId19"/>
-    <sheet name="NoUnderPayErrorPS" sheetId="24" r:id="rId20"/>
-    <sheet name="NoOverPayErrorPS" sheetId="25" r:id="rId21"/>
-    <sheet name="NoUnderPayErrorPC" sheetId="18" r:id="rId22"/>
-    <sheet name="MinAmountErrorPC" sheetId="17" r:id="rId23"/>
-    <sheet name="NoUnderPayErrorCorp" sheetId="11" r:id="rId24"/>
-    <sheet name="NoOverPayErrorCorp" sheetId="12" r:id="rId25"/>
+    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
+    <sheet name="PayNowPC" r:id="rId2" sheetId="2"/>
+    <sheet name="PayNowPS" r:id="rId3" sheetId="3"/>
+    <sheet name="PayNowCorp" r:id="rId4" sheetId="4"/>
+    <sheet name="MRFCorp" r:id="rId5" sheetId="5"/>
+    <sheet name="VerifyConfirmPageLabelsCorp" r:id="rId6" sheetId="30"/>
+    <sheet name="VerifyConfirmPageLabelsPS" r:id="rId7" sheetId="34"/>
+    <sheet name="VerifyReceiptPageLabelsCorp" r:id="rId8" sheetId="31"/>
+    <sheet name="VerifyConfirmPageLabelsPC" r:id="rId9" sheetId="32"/>
+    <sheet name="VerifyReceiptPageLabelsPC" r:id="rId10" sheetId="33"/>
+    <sheet name="VerifyReceiptPageLabelsPS" r:id="rId11" sheetId="35"/>
+    <sheet name="PayNowCorpSCF" r:id="rId12" sheetId="6"/>
+    <sheet name="PayNowCorpDCF" r:id="rId13" sheetId="7"/>
+    <sheet name="MaxAmountErrorCorp" r:id="rId14" sheetId="8"/>
+    <sheet name="MinAmountErrorCorp" r:id="rId15" sheetId="9"/>
+    <sheet name="OverAndUnderPayCorp" r:id="rId16" sheetId="10"/>
+    <sheet name="NoModifyAmountCorp" r:id="rId17" sheetId="13"/>
+    <sheet name="PayNowPersonalCheckSCF" r:id="rId18" sheetId="14"/>
+    <sheet name="PayNowPersonalCheckDCF" r:id="rId19" sheetId="15"/>
+    <sheet name="MaxAmountErrorPC" r:id="rId20" sheetId="16"/>
+    <sheet name="NoOverPayErrorPC" r:id="rId21" sheetId="19"/>
+    <sheet name="OverAndUnderPayPC" r:id="rId22" sheetId="20"/>
+    <sheet name="NoModifyAmountPC" r:id="rId23" sheetId="21"/>
+    <sheet name="MaxAmountErrorPS" r:id="rId24" sheetId="22"/>
+    <sheet name="MinAmountErrorPS" r:id="rId25" sheetId="23"/>
+    <sheet name="NoUnderPayErrorPS" r:id="rId26" sheetId="24"/>
+    <sheet name="NoOverPayErrorPS" r:id="rId27" sheetId="25"/>
+    <sheet name="OverAndUnderPayPS" r:id="rId28" sheetId="26"/>
+    <sheet name="NoModifyAmountPS" r:id="rId29" sheetId="27"/>
+    <sheet name="PayNowPersonalSavingsSCF" r:id="rId30" sheetId="28"/>
+    <sheet name="PayNowPersonalSavingsDCF" r:id="rId31" sheetId="29"/>
+    <sheet name="NoUnderPayErrorPC" r:id="rId32" sheetId="18"/>
+    <sheet name="MinAmountErrorPC" r:id="rId33" sheetId="17"/>
+    <sheet name="NoUnderPayErrorCorp" r:id="rId34" sheetId="11"/>
+    <sheet name="NoOverPayErrorCorp" r:id="rId35" sheetId="12"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -49,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="160">
   <si>
     <t>Result</t>
   </si>
@@ -384,109 +394,158 @@
     <t>1</t>
   </si>
   <si>
-    <t>Mon Aug 26 22:35:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 22:37:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 22:39:08 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 22:41:02 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:00:56 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:02:18 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:03:31 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:04:44 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:05:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:06:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:08:02 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:09:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:10:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:11:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:12:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:13:44 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:14:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:16:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:17:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:18:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:19:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:21:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:22:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:23:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:24:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:26:28 IST 2024</t>
-  </si>
-  <si>
     <t>Mon Aug 26 23:27:57 IST 2024</t>
   </si>
   <si>
     <t>Mon Aug 26 23:29:28 IST 2024</t>
   </si>
   <si>
-    <t>Mon Aug 26 23:30:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Aug 26 23:32:29 IST 2024</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Tue Aug 27 21:21:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Aug 27 21:24:13 IST 2024</t>
+    <t>Wed Aug 28 19:49:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 19:51:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 19:52:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 19:54:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 19:56:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 19:57:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 19:59:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:00:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:01:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:03:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:04:44 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:06:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:07:42 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:09:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:10:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:11:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:13:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:14:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:16:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:19:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:32:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:33:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:35:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:37:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:39:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:40:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:42:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:43:44 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:45:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:51:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:53:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:55:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:57:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 20:58:56 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 21:00:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 21:02:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 21:04:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 21:07:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 21:09:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Aug 29 19:05:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Aug 29 20:03:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Curlonty</t>
+  </si>
+  <si>
+    <t>Lachuga</t>
+  </si>
+  <si>
+    <t>Thu Aug 29 22:12:40 IST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Thu Aug 29 22:42:14 IST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,25 +597,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -573,10 +632,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -611,7 +670,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin panose="02110004020202020204" typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -663,7 +722,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin panose="02110004020202020204" typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -774,21 +833,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -805,7 +864,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -877,45 +936,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" name="Office Theme" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="17" width="7.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="7.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9.08984375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.54296875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="13.453125" collapsed="true"/>
+    <col min="9" max="17" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="8.81640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.453125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="17.1796875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="6.54296875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="23" max="24" customWidth="true" style="1" width="7.1796875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="14.81640625" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.08984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,12 +1060,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -1036,12 +1095,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>37</v>
@@ -1116,12 +1175,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>37</v>
@@ -1196,12 +1255,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
@@ -1265,8 +1324,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;C_x005F_x000D_&amp;1#&amp;"Calibri,Regular"&amp;10 Public</oddFooter>
   </headerFooter>
@@ -1274,16 +1333,1228 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AA3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313069EA-AC8D-4820-8DAC-508C0AEC1D04}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection sqref="A1:AB2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="58" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6B170A-199C-481C-A301-EFB2F4847854}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="58" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AB3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="43.5" r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AB3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="43.5" r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0" zoomScaleNormal="100">
+      <selection sqref="A1:AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AB3"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0" zoomScaleNormal="100">
       <selection sqref="A1:AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,12 +2637,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -1423,12 +2694,12 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>92</v>
@@ -1481,8 +2752,8 @@
       <c r="AA3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1490,9 +2761,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD0BECA-198B-4690-8CF3-A2199F4B543B}">
-  <dimension ref="A1:AA2"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD0BECA-198B-4690-8CF3-A2199F4B543B}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection sqref="A1:AA2"/>
@@ -1500,7 +2771,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1583,12 +2854,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>92</v>
@@ -1635,21 +2906,21 @@
       <c r="AA2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00763E-41D4-4301-BDED-25AE7808C112}">
-  <dimension ref="A1:AC3"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00763E-41D4-4301-BDED-25AE7808C112}">
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:U3"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection sqref="A1:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1738,12 +3009,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>106</v>
@@ -1825,12 +3096,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>107</v>
@@ -1887,21 +3158,21 @@
       <c r="AC3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C03D0C9-5AB6-4662-AC40-046602184333}">
-  <dimension ref="A1:AC3"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C03D0C9-5AB6-4662-AC40-046602184333}">
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:U2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1990,12 +3261,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>106</v>
@@ -2077,12 +3348,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="87" x14ac:dyDescent="0.35">
+    <row ht="87" r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>107</v>
@@ -2139,13 +3410,308 @@
       <c r="AC3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4062C9F-5A44-415A-A7E8-078A7E971ECD}">
-  <dimension ref="A1:AD2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AC4"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="S4" sqref="S4:T4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
+    <col min="18" max="20" customWidth="true" style="1" width="10.81640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="22" max="24" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="23.54296875" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.08984375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row ht="29" r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.511811023622047" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4062C9F-5A44-415A-A7E8-078A7E971ECD}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
       <selection sqref="A1:AD2"/>
@@ -2153,7 +3719,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2245,12 +3811,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -2336,21 +3902,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F043AE-8D22-4522-B277-A3F8143D1C61}">
-  <dimension ref="A1:AD2"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F043AE-8D22-4522-B277-A3F8143D1C61}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection sqref="A1:AC2"/>
+      <selection activeCell="AD1" sqref="AD1:AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2442,12 +4008,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -2509,21 +4075,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B9C217-1BF0-431A-9AA8-3A32A964B4CD}">
-  <dimension ref="A1:AD3"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B9C217-1BF0-431A-9AA8-3A32A964B4CD}">
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection sqref="A1:AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2615,12 +4181,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -2681,12 +4247,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>92</v>
@@ -2748,21 +4314,21 @@
       <c r="AD3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0893653-4D6E-4E06-95C2-AA32E63A578A}">
-  <dimension ref="A1:AD2"/>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0893653-4D6E-4E06-95C2-AA32E63A578A}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:V2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection sqref="A1:AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2854,12 +4420,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>92</v>
@@ -2915,13 +4481,13 @@
       <c r="AD2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04751CF-732C-4149-ABDB-2383247CAD77}">
-  <dimension ref="A1:AD2"/>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04751CF-732C-4149-ABDB-2383247CAD77}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
@@ -2929,7 +4495,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3021,12 +4587,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -3086,7 +4652,7 @@
         <v>109</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="W2" s="1">
         <v>256072691</v>
@@ -3112,13 +4678,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFD3F70-9018-4826-9ABF-5AB54B85F996}">
-  <dimension ref="A1:AD2"/>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFD3F70-9018-4826-9ABF-5AB54B85F996}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
@@ -3126,7 +4692,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3218,12 +4784,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -3283,7 +4849,7 @@
         <v>109</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="W2" s="1">
         <v>256072691</v>
@@ -3309,294 +4875,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="14" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="20" width="10.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="24" width="10.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="4" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="23.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9.08984375" style="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32E7FC-2B9D-4ACF-971E-602A35B77002}">
-  <dimension ref="A1:AD2"/>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32E7FC-2B9D-4ACF-971E-602A35B77002}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
@@ -3604,7 +4889,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3696,7 +4981,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
       </c>
@@ -3735,7 +5026,7 @@
         <v>109</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="W2" s="1">
         <v>256072691</v>
@@ -3757,21 +5048,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D69F64-0838-4A1D-A1AD-91EF5273BDCB}">
-  <dimension ref="A1:AC2"/>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D69F64-0838-4A1D-A1AD-91EF5273BDCB}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3859,8 +5150,17 @@
       <c r="AC1" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
       </c>
@@ -3899,7 +5199,7 @@
         <v>109</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="W2" s="1">
         <v>256072691</v>
@@ -3916,15 +5216,1214 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F3F3AF-F561-446D-9C6A-79A3AF94AE18}">
-  <dimension ref="A1:AD2"/>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15C6E0B-3928-44AA-AEF4-FBE07F9F5942}">
+  <dimension ref="A1:AE3"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row ht="72.5" r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508EF0D1-65BE-4C3B-8DB2-F5B51668E3FA}">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AC4"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="S4" sqref="S4:T4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
+    <col min="18" max="20" customWidth="true" style="1" width="10.81640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="22" max="24" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="23.54296875" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.08984375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row ht="29" r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.511811023622047" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD743872-79BE-45C8-95F1-7462ADBFBB33}">
+  <dimension ref="A1:AD3"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="87" r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EA1570-2F70-4A5F-BF7E-DF89621604FD}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="87" r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F3F3AF-F561-446D-9C6A-79A3AF94AE18}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
       <selection sqref="A1:AD2"/>
@@ -3932,7 +6431,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4024,12 +6523,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -4091,13 +6590,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19564025-DA14-4B1C-B957-0CD06F0D7994}">
-  <dimension ref="A1:AD2"/>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19564025-DA14-4B1C-B957-0CD06F0D7994}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection sqref="A1:AD2"/>
@@ -4105,7 +6604,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4197,7 +6696,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="72.5" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -4288,21 +6787,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AA2"/>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0" zoomScaleNormal="100">
       <selection sqref="A1:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4385,12 +6884,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -4443,8 +6942,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -4452,17 +6951,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:AA2"/>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0" zoomScaleNormal="100">
       <selection sqref="A1:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4545,12 +7044,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -4603,8 +7102,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -4612,322 +7111,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView topLeftCell="P1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A4" sqref="A4:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="14" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="20" width="10.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="24" width="10.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="4" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="23.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9.08984375" style="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="29" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="14" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.08984375" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="4" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="23.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="16384" width="9.08984375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.453125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.1796875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.54296875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="7.81640625" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="7.453125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="6.81640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="9.81640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="10.81640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="14.81640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="10.453125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="15.08984375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="23.54296875" collapsed="true"/>
+    <col min="28" max="16384" style="1" width="9.08984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
@@ -5013,12 +7229,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -5093,12 +7309,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>92</v>
@@ -5131,12 +7347,12 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>93</v>
@@ -5197,22 +7413,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.511811023622047" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AA2"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5295,12 +7511,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>92</v>
@@ -5349,8 +7565,8 @@
       <c r="AA2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -5359,16 +7575,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AA3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5489C7-A3C1-4624-93CA-9485979F3AC1}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AA3"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5451,15 +7667,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="116" r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
@@ -5468,20 +7684,16 @@
         <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
         <v>42</v>
       </c>
@@ -5491,12 +7703,8 @@
       <c r="M2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
         <v>47</v>
       </c>
@@ -5518,9 +7726,7 @@
       <c r="V2" s="1">
         <v>12344444</v>
       </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
-      </c>
+      <c r="W2" s="1"/>
       <c r="X2" s="1" t="s">
         <v>52</v>
       </c>
@@ -5532,80 +7738,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AA3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9E142F-4A51-4D5A-B6C1-BDE7AA487EEE}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5661,42 +7809,41 @@
         <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
+    <row ht="58" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
@@ -5705,7 +7852,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1">
         <v>2.5</v>
@@ -5744,105 +7891,50 @@
         <v>49</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1">
+        <v>155</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="1">
         <v>256072691</v>
       </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
+      <c r="V2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B2D42D-4180-4EF8-8D50-E71E1F3080A1}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AA2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5925,15 +8017,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
+    <row ht="116" r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
@@ -5944,18 +8036,14 @@
       <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
         <v>42</v>
       </c>
@@ -5965,12 +8053,8 @@
       <c r="M2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
         <v>47</v>
       </c>
@@ -5992,9 +8076,7 @@
       <c r="V2" s="1">
         <v>12344444</v>
       </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
-      </c>
+      <c r="W2" s="1"/>
       <c r="X2" s="1" t="s">
         <v>52</v>
       </c>
@@ -6007,26 +8089,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AA2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AB254A-353D-44A3-9E69-985EFBB297E1}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AA2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6082,42 +8159,41 @@
         <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
+    <row ht="58" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
@@ -6132,7 +8208,7 @@
         <v>2.5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>40</v>
@@ -6165,37 +8241,35 @@
         <v>49</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1">
+        <v>155</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="1">
         <v>256072691</v>
       </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
+      <c r="V2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FB2E4B07-BE57-40C9-BAB5-14515D87AB07}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{739BECF2-6B41-4C3D-B4C5-D16FFA7AF9D7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="1" tabRatio="1000" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="46" firstSheet="40" tabRatio="980" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
@@ -19,35 +19,47 @@
     <sheet name="PayNowCorp" r:id="rId4" sheetId="4"/>
     <sheet name="MRFCorp" r:id="rId5" sheetId="5"/>
     <sheet name="VerifyConfirmPageLabelsCorp" r:id="rId6" sheetId="30"/>
-    <sheet name="VerifyConfirmPageLabelsPS" r:id="rId7" sheetId="34"/>
-    <sheet name="VerifyReceiptPageLabelsCorp" r:id="rId8" sheetId="31"/>
-    <sheet name="VerifyConfirmPageLabelsPC" r:id="rId9" sheetId="32"/>
-    <sheet name="VerifyReceiptPageLabelsPC" r:id="rId10" sheetId="33"/>
-    <sheet name="VerifyReceiptPageLabelsPS" r:id="rId11" sheetId="35"/>
-    <sheet name="PayNowCorpSCF" r:id="rId12" sheetId="6"/>
-    <sheet name="PayNowCorpDCF" r:id="rId13" sheetId="7"/>
-    <sheet name="MaxAmountErrorCorp" r:id="rId14" sheetId="8"/>
-    <sheet name="MinAmountErrorCorp" r:id="rId15" sheetId="9"/>
-    <sheet name="OverAndUnderPayCorp" r:id="rId16" sheetId="10"/>
-    <sheet name="NoModifyAmountCorp" r:id="rId17" sheetId="13"/>
+    <sheet name="VerifyReceiptPageLabelsCorp" r:id="rId7" sheetId="31"/>
+    <sheet name="VerifyConfirmPageLabelsPS" r:id="rId8" sheetId="34"/>
+    <sheet name="VerifyReceiptPageLabelsPS" r:id="rId9" sheetId="35"/>
+    <sheet name="VerifyConfirmPageLabelsCredit" r:id="rId10" sheetId="44"/>
+    <sheet name="VerifyReceiptPageLabelsCredit" r:id="rId11" sheetId="45"/>
+    <sheet name="VerifyConfirmPageLabelsPC" r:id="rId12" sheetId="32"/>
+    <sheet name="VerifyReceiptPageLabelsPC" r:id="rId13" sheetId="33"/>
+    <sheet name="PayNowCorpSCF" r:id="rId14" sheetId="6"/>
+    <sheet name="PayNowCreditSCF" r:id="rId15" sheetId="41"/>
+    <sheet name="PayNowCreditDCF" r:id="rId16" sheetId="42"/>
+    <sheet name="PayNowCorpDCF" r:id="rId17" sheetId="7"/>
     <sheet name="PayNowPersonalCheckSCF" r:id="rId18" sheetId="14"/>
     <sheet name="PayNowPersonalCheckDCF" r:id="rId19" sheetId="15"/>
-    <sheet name="MaxAmountErrorPC" r:id="rId20" sheetId="16"/>
-    <sheet name="NoOverPayErrorPC" r:id="rId21" sheetId="19"/>
-    <sheet name="OverAndUnderPayPC" r:id="rId22" sheetId="20"/>
-    <sheet name="NoModifyAmountPC" r:id="rId23" sheetId="21"/>
-    <sheet name="MaxAmountErrorPS" r:id="rId24" sheetId="22"/>
-    <sheet name="MinAmountErrorPS" r:id="rId25" sheetId="23"/>
-    <sheet name="NoUnderPayErrorPS" r:id="rId26" sheetId="24"/>
-    <sheet name="NoOverPayErrorPS" r:id="rId27" sheetId="25"/>
-    <sheet name="OverAndUnderPayPS" r:id="rId28" sheetId="26"/>
-    <sheet name="NoModifyAmountPS" r:id="rId29" sheetId="27"/>
-    <sheet name="PayNowPersonalSavingsSCF" r:id="rId30" sheetId="28"/>
-    <sheet name="PayNowPersonalSavingsDCF" r:id="rId31" sheetId="29"/>
-    <sheet name="NoUnderPayErrorPC" r:id="rId32" sheetId="18"/>
-    <sheet name="MinAmountErrorPC" r:id="rId33" sheetId="17"/>
-    <sheet name="NoUnderPayErrorCorp" r:id="rId34" sheetId="11"/>
-    <sheet name="NoOverPayErrorCorp" r:id="rId35" sheetId="12"/>
+    <sheet name="PayNowPersonalSavingsSCF" r:id="rId20" sheetId="28"/>
+    <sheet name="PayNowPersonalSavingsDCF" r:id="rId21" sheetId="29"/>
+    <sheet name="MaxAmountErrorCC" r:id="rId22" sheetId="36"/>
+    <sheet name="MaxAmountErrorCorp" r:id="rId23" sheetId="8"/>
+    <sheet name="MaxAmountErrorPC" r:id="rId24" sheetId="16"/>
+    <sheet name="MaxAmountErrorPS" r:id="rId25" sheetId="22"/>
+    <sheet name="MinAmountErrorPC" r:id="rId26" sheetId="17"/>
+    <sheet name="MinAmountErrorCC" r:id="rId27" sheetId="37"/>
+    <sheet name="MinAmountErrorCorp" r:id="rId28" sheetId="9"/>
+    <sheet name="MinAmountErrorPS" r:id="rId29" sheetId="23"/>
+    <sheet name="OverAndUnderPayCredit" r:id="rId30" sheetId="43"/>
+    <sheet name="OverAndUnderPayPC" r:id="rId31" sheetId="20"/>
+    <sheet name="OverAndUnderPayPS" r:id="rId32" sheetId="26"/>
+    <sheet name="OverAndUnderPayCorp" r:id="rId33" sheetId="10"/>
+    <sheet name="NoModifyAmountCorp" r:id="rId34" sheetId="13"/>
+    <sheet name="NoModifyAmountPC" r:id="rId35" sheetId="21"/>
+    <sheet name="NoModifyAmountPS" r:id="rId36" sheetId="27"/>
+    <sheet name="NoModifyAmountCC" r:id="rId37" sheetId="40"/>
+    <sheet name="NoOverPayErrorCC" r:id="rId38" sheetId="39"/>
+    <sheet name="NoOverPayErrorPC" r:id="rId39" sheetId="19"/>
+    <sheet name="NoOverPayErrorCorp" r:id="rId40" sheetId="12"/>
+    <sheet name="NoOverPayErrorPS" r:id="rId41" sheetId="25"/>
+    <sheet name="NoUnderPayErrorPS" r:id="rId42" sheetId="24"/>
+    <sheet name="NoUnderPayErrorPC" r:id="rId43" sheetId="18"/>
+    <sheet name="NoUnderPayErrorCC" r:id="rId44" sheetId="38"/>
+    <sheet name="NoUnderPayErrorCorp" r:id="rId45" sheetId="11"/>
+    <sheet name="CardExpiredErrorCC" r:id="rId46" sheetId="47"/>
+    <sheet name="CardNotAcceptedErrorCC" r:id="rId47" sheetId="48"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -59,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="178">
   <si>
     <t>Result</t>
   </si>
@@ -535,10 +547,64 @@
     <t>Thu Aug 29 22:12:40 IST 2024</t>
   </si>
   <si>
+    <t>Thu Aug 29 22:42:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Aug 30 20:49:31 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Aug 30 22:48:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Aug 30 22:56:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Aug 30 23:05:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Sep 02 19:24:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Sep 02 21:02:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Sep 02 21:04:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Sep 02 21:39:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Sep 02 21:41:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Sep 03 19:47:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Sep 03 19:57:21 IST 2024</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 04 18:42:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 04 18:53:08 IST 2024</t>
+  </si>
+  <si>
+    <t>6510000000000210</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Thu Aug 29 22:42:14 IST 2024</t>
+    <t>Wed Sep 04 18:59:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Sep 04 19:06:13 IST 2024</t>
   </si>
 </sst>
 </file>
@@ -546,13 +612,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -599,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
@@ -609,6 +681,10 @@
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0" zoomScaleNormal="100">
+      <selection sqref="A1:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1333,6 +1409,553 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A771A143-9840-4DFA-B0E0-D15CFA2A9A1E}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection sqref="A1:AB2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AA9D37-D04B-4587-A172-B9ADC89C694F}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AB254A-353D-44A3-9E69-985EFBB297E1}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:AB2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="58" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313069EA-AC8D-4820-8DAC-508C0AEC1D04}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
@@ -1517,197 +2140,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6B170A-199C-481C-A301-EFB2F4847854}">
-  <dimension ref="A1:AC2"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="58" r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection sqref="A1:I2"/>
+    <sheetView topLeftCell="W1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1939,7 +2377,469 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41878333-4EED-4FEF-A1C8-5BD85093D0BA}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:AB3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row ht="72.5" r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A88FA1-BB65-44BB-BC88-0BCE20A6C9BB}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row ht="72.5" r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
@@ -2173,740 +3073,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AB2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AB2"/>
-  <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0" zoomScaleNormal="100">
-      <selection sqref="A1:AA2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AB3"/>
-  <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0" zoomScaleNormal="100">
-      <selection sqref="A1:AA3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-    </row>
-    <row ht="43.5" r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD0BECA-198B-4690-8CF3-A2199F4B543B}">
-  <dimension ref="A1:AB2"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:AA2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="72.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -3710,6 +3876,868 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD743872-79BE-45C8-95F1-7462ADBFBB33}">
+  <dimension ref="A1:AD3"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="87" r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EA1570-2F70-4A5F-BF7E-DF89621604FD}">
+  <dimension ref="A1:AC3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row ht="87" r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A79848-7E61-44B5-97E7-0F536B72AE4E}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AB2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4062C9F-5A44-415A-A7E8-078A7E971ECD}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
@@ -3906,586 +4934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F043AE-8D22-4522-B277-A3F8143D1C61}">
-  <dimension ref="A1:AE2"/>
-  <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B9C217-1BF0-431A-9AA8-3A32A964B4CD}">
-  <dimension ref="A1:AE3"/>
-  <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection sqref="A1:AD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-    </row>
-    <row ht="72.5" r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" t="s">
-        <v>108</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0893653-4D6E-4E06-95C2-AA32E63A578A}">
-  <dimension ref="A1:AE2"/>
-  <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection sqref="A1:AD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04751CF-732C-4149-ABDB-2383247CAD77}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
@@ -4682,12 +5131,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFD3F70-9018-4826-9ABF-5AB54B85F996}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19564025-DA14-4B1C-B957-0CD06F0D7994}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection sqref="A1:AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4789,7 +5238,7 @@
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -4849,7 +5298,7 @@
         <v>109</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="W2" s="1">
         <v>256072691</v>
@@ -4879,12 +5328,379 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32E7FC-2B9D-4ACF-971E-602A35B77002}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD57A086-2829-4F5A-903D-49E7780DD68D}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFD3F70-9018-4826-9ABF-5AB54B85F996}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4986,7 +5802,7 @@
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -4995,27 +5811,47 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1">
         <v>2.5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="S2" s="1" t="s">
         <v>91</v>
       </c>
@@ -5040,591 +5876,16 @@
       <c r="Z2" s="1">
         <v>123456789</v>
       </c>
-      <c r="AA2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
+      <c r="AC2" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="AD2" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D69F64-0838-4A1D-A1AD-91EF5273BDCB}">
-  <dimension ref="A1:AE2"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1:AD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15C6E0B-3928-44AA-AEF4-FBE07F9F5942}">
-  <dimension ref="A1:AE3"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-    </row>
-    <row ht="72.5" r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" t="s">
-        <v>108</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508EF0D1-65BE-4C3B-8DB2-F5B51668E3FA}">
-  <dimension ref="A1:AE2"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5927,16 +6188,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD743872-79BE-45C8-95F1-7462ADBFBB33}">
-  <dimension ref="A1:AD3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A9304B-BE96-4389-93F5-881CE531B763}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5959,168 +6220,134 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="72.5" r="2" spans="1:29" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="V2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="W2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="87" r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AB2" s="1"/>
+    </row>
+    <row ht="72.5" r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>29</v>
@@ -6129,12 +6356,14 @@
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -6147,31 +6376,24 @@
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="V3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="W3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="X3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>123456789</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
+      <c r="AB3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6179,242 +6401,238 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EA1570-2F70-4A5F-BF7E-DF89621604FD}">
-  <dimension ref="A1:AC3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B9C217-1BF0-431A-9AA8-3A32A964B4CD}">
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection sqref="A1:AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
         <v>2.5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="1">
         <v>256072691</v>
       </c>
-      <c r="V2" s="1">
+      <c r="X2" s="1">
         <v>12344444</v>
       </c>
-      <c r="W2" s="1">
+      <c r="Y2" s="1">
         <v>12344444</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Z2" s="1">
         <v>123456789</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="87" r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row ht="72.5" r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" t="s">
         <v>108</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="U3" s="1">
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
         <v>256072691</v>
       </c>
-      <c r="V3" s="1">
+      <c r="X3" s="1">
         <v>12344444</v>
       </c>
-      <c r="W3" s="1">
+      <c r="Y3" s="1">
         <v>12344444</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Z3" s="1">
         <v>123456789</v>
       </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6422,10 +6640,615 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F3F3AF-F561-446D-9C6A-79A3AF94AE18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15C6E0B-3928-44AA-AEF4-FBE07F9F5942}">
+  <dimension ref="A1:AE3"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row ht="72.5" r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AB3"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row ht="43.5" r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD0BECA-198B-4690-8CF3-A2199F4B543B}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:AA2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0893653-4D6E-4E06-95C2-AA32E63A578A}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection sqref="A1:AD2"/>
     </sheetView>
   </sheetViews>
@@ -6528,7 +7351,653 @@
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508EF0D1-65BE-4C3B-8DB2-F5B51668E3FA}">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B1E44C-ACC0-46A9-ADFB-04E3A56B3216}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD3CF7C-C466-4C10-9D8E-94B88363961A}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection sqref="A1:AB1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F043AE-8D22-4522-B277-A3F8143D1C61}">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>90</v>
@@ -6540,13 +8009,13 @@
         <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
         <v>2.5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -6591,523 +8060,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19564025-DA14-4B1C-B957-0CD06F0D7994}">
-  <dimension ref="A1:AE2"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection sqref="A1:AD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AB2"/>
-  <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0" zoomScaleNormal="100">
-      <selection sqref="A1:AA2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:AB2"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0" zoomScaleNormal="100">
-      <selection sqref="A1:AA2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -7418,6 +8370,1376 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="X12" sqref="X12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D69F64-0838-4A1D-A1AD-91EF5273BDCB}">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32E7FC-2B9D-4ACF-971E-602A35B77002}">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F3F3AF-F561-446D-9C6A-79A3AF94AE18}">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection sqref="A1:AD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00FDC39-BDF2-4377-92A2-1FC9690FDA62}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="43.5" r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C292913-F503-43A9-973A-22B728942B3F}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3FD29C-0D01-442A-B539-C7DB6D779E85}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="20" max="20" customWidth="true" width="54.81640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="29" r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB2"/>
@@ -7744,11 +10066,180 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B2D42D-4180-4EF8-8D50-E71E1F3080A1}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row ht="116" r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9E142F-4A51-4D5A-B6C1-BDE7AA487EEE}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7924,181 +10415,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B2D42D-4180-4EF8-8D50-E71E1F3080A1}">
-  <dimension ref="A1:AB2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row ht="29" r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row ht="116" r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="U2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AB254A-353D-44A3-9E69-985EFBB297E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6B170A-199C-481C-A301-EFB2F4847854}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:AB2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8190,8 +10512,12 @@
       </c>
     </row>
     <row ht="58" r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>81</v>
       </c>
@@ -8256,7 +10582,7 @@
         <v>82</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>52</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{739BECF2-6B41-4C3D-B4C5-D16FFA7AF9D7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{326DFA64-8044-41A2-9680-AEFC9ADA4858}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="46" firstSheet="40" tabRatio="980" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView activeTab="43" firstSheet="40" tabRatio="980" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="177">
   <si>
     <t>Result</t>
   </si>
@@ -592,19 +592,16 @@
     <t>Wed Sep 04 18:42:07 IST 2024</t>
   </si>
   <si>
-    <t>Wed Sep 04 18:53:08 IST 2024</t>
-  </si>
-  <si>
     <t>6510000000000210</t>
   </si>
   <si>
+    <t>Wed Sep 04 19:06:13 IST 2024</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Wed Sep 04 18:59:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 04 19:06:13 IST 2024</t>
+    <t>Thu Sep 05 18:53:14 IST 2024</t>
   </si>
 </sst>
 </file>
@@ -7676,10 +7673,10 @@
     </row>
     <row ht="72.5" r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -9053,8 +9050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00FDC39-BDF2-4377-92A2-1FC9690FDA62}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9557,8 +9554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3FD29C-0D01-442A-B539-C7DB6D779E85}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection sqref="A1:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9657,7 +9654,7 @@
         <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>37</v>
@@ -9711,7 +9708,7 @@
         <v>50</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>34</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="256">
   <si>
     <t>Result</t>
   </si>
@@ -581,6 +581,264 @@
   </si>
   <si>
     <t>Thu Sep 26 19:47:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 03 17:44:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 03 17:45:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 22:58:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 22:59:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:00:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:02:03 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:03:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:04:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:05:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:06:30 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:07:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:08:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:09:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:10:56 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:12:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:13:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:14:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:16:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:17:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:18:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:19:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:21:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:22:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:24:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:25:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:26:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:28:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:29:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:31:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:32:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:34:18 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:35:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:37:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:38:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:45:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 04 23:46:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:00:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:01:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:02:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:03:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:25:44 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:26:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:27:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:29:02 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:30:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:31:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:32:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:33:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:34:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:35:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:36:51 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:37:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:39:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:40:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:41:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:43:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:44:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:45:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:47:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:48:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:49:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:51:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:52:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:54:02 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:55:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:56:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:57:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 00:58:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:00:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:01:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:03:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:04:44 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:06:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:07:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:09:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:10:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:11:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:12:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:24:18 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:25:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:48:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:50:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:51:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 05 01:52:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Oct 07 19:02:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Oct 07 19:40:04 IST 2024</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1376,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1489,7 +1747,7 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -1672,7 +1930,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -2042,7 +2300,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -2227,7 +2485,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -2308,7 +2566,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -2467,7 +2725,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2521,7 +2779,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -2704,7 +2962,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2758,7 +3016,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -2941,7 +3199,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -3022,7 +3280,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -3187,7 +3445,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -3274,7 +3532,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -3442,7 +3700,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -3529,7 +3787,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -3716,7 +3974,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -3799,7 +4057,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -3837,7 +4095,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -4016,7 +4274,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -4103,7 +4361,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -6076,7 +6334,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -6159,7 +6417,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -6197,7 +6455,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -6370,7 +6628,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6426,7 +6684,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -6592,7 +6850,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -6658,7 +6916,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -6834,7 +7092,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -6900,7 +7158,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -7067,7 +7325,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -7124,7 +7382,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -7287,7 +7545,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -7448,7 +7706,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -7618,7 +7876,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -7779,7 +8037,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8292,7 +8550,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8372,7 +8630,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -8410,7 +8668,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>69</v>
@@ -10121,7 +10379,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -10293,7 +10551,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -10652,7 +10910,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -1,67 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{325B0989-26A3-49F6-90E2-5C6B47F948C0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E084618-1C34-4D55-A0A6-9106088AC319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="980" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="980" firstSheet="39" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
-    <sheet name="PayNowPC" r:id="rId2" sheetId="2"/>
-    <sheet name="PayNowPS" r:id="rId3" sheetId="3"/>
-    <sheet name="PayNowCorp" r:id="rId4" sheetId="4"/>
-    <sheet name="MRFCorp" r:id="rId5" sheetId="5"/>
-    <sheet name="VerifyConfirmPageLabelsCorp" r:id="rId6" sheetId="30"/>
-    <sheet name="VerifyReceiptPageLabelsCorp" r:id="rId7" sheetId="31"/>
-    <sheet name="VerifyConfirmPageLabelsPS" r:id="rId8" sheetId="34"/>
-    <sheet name="VerifyReceiptPageLabelsPS" r:id="rId9" sheetId="35"/>
-    <sheet name="VerifyConfirmPageLabelsCredit" r:id="rId10" sheetId="44"/>
-    <sheet name="VerifyReceiptPageLabelsCredit" r:id="rId11" sheetId="45"/>
-    <sheet name="VerifyConfirmPageLabelsPC" r:id="rId12" sheetId="32"/>
-    <sheet name="VerifyReceiptPageLabelsPC" r:id="rId13" sheetId="33"/>
-    <sheet name="PayNowCorpSCF" r:id="rId14" sheetId="6"/>
-    <sheet name="PayNowCreditSCF" r:id="rId15" sheetId="41"/>
-    <sheet name="PayNowCreditDCF" r:id="rId16" sheetId="42"/>
-    <sheet name="PayNowCorpDCF" r:id="rId17" sheetId="7"/>
-    <sheet name="PayNowPersonalCheckSCF" r:id="rId18" sheetId="14"/>
-    <sheet name="PayNowPersonalCheckDCF" r:id="rId19" sheetId="15"/>
-    <sheet name="PayNowPersonalSavingsSCF" r:id="rId20" sheetId="28"/>
-    <sheet name="PayNowPersonalSavingsDCF" r:id="rId21" sheetId="29"/>
-    <sheet name="MaxAmountErrorCC" r:id="rId22" sheetId="36"/>
-    <sheet name="MaxAmountErrorCorp" r:id="rId23" sheetId="8"/>
-    <sheet name="MaxAmountErrorPC" r:id="rId24" sheetId="16"/>
-    <sheet name="MaxAmountErrorPS" r:id="rId25" sheetId="22"/>
-    <sheet name="MinAmountErrorPC" r:id="rId26" sheetId="17"/>
-    <sheet name="MinAmountErrorCC" r:id="rId27" sheetId="37"/>
-    <sheet name="MinAmountErrorCorp" r:id="rId28" sheetId="9"/>
-    <sheet name="MinAmountErrorPS" r:id="rId29" sheetId="23"/>
-    <sheet name="OverAndUnderPayCredit" r:id="rId30" sheetId="43"/>
-    <sheet name="OverAndUnderPayPC" r:id="rId31" sheetId="20"/>
-    <sheet name="OverAndUnderPayPS" r:id="rId32" sheetId="26"/>
-    <sheet name="OverAndUnderPayCorp" r:id="rId33" sheetId="10"/>
-    <sheet name="NoModifyAmountCorp" r:id="rId34" sheetId="13"/>
-    <sheet name="NoModifyAmountPC" r:id="rId35" sheetId="21"/>
-    <sheet name="NoModifyAmountPS" r:id="rId36" sheetId="27"/>
-    <sheet name="NoModifyAmountCC" r:id="rId37" sheetId="40"/>
-    <sheet name="NoOverPayErrorCC" r:id="rId38" sheetId="39"/>
-    <sheet name="NoOverPayErrorPC" r:id="rId39" sheetId="19"/>
-    <sheet name="NoOverPayErrorCorp" r:id="rId40" sheetId="12"/>
-    <sheet name="NoOverPayErrorPS" r:id="rId41" sheetId="25"/>
-    <sheet name="NoUnderPayErrorPS" r:id="rId42" sheetId="24"/>
-    <sheet name="NoUnderPayErrorPC" r:id="rId43" sheetId="18"/>
-    <sheet name="NoUnderPayErrorCC" r:id="rId44" sheetId="38"/>
-    <sheet name="NoUnderPayErrorCorp" r:id="rId45" sheetId="11"/>
-    <sheet name="CardExpiredErrorCC" r:id="rId46" sheetId="47"/>
-    <sheet name="CardNotAcceptedErrorCC" r:id="rId47" sheetId="48"/>
+    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
+    <sheet name="PayNowPC" sheetId="2" r:id="rId2"/>
+    <sheet name="PayNowPS" sheetId="3" r:id="rId3"/>
+    <sheet name="PayNowCorp" sheetId="4" r:id="rId4"/>
+    <sheet name="MRFCorp" sheetId="5" r:id="rId5"/>
+    <sheet name="VerifyConfirmPageLabelsCorp" sheetId="30" r:id="rId6"/>
+    <sheet name="VerifyReceiptPageLabelsCorp" sheetId="31" r:id="rId7"/>
+    <sheet name="VerifyConfirmPageLabelsPS" sheetId="34" r:id="rId8"/>
+    <sheet name="VerifyReceiptPageLabelsPS" sheetId="35" r:id="rId9"/>
+    <sheet name="VerifyConfirmPageLabelsCredit" sheetId="44" r:id="rId10"/>
+    <sheet name="VerifyReceiptPageLabelsCredit" sheetId="45" r:id="rId11"/>
+    <sheet name="VerifyConfirmPageLabelsPC" sheetId="32" r:id="rId12"/>
+    <sheet name="VerifyReceiptPageLabelsPC" sheetId="33" r:id="rId13"/>
+    <sheet name="PayNowCorpSCF" sheetId="6" r:id="rId14"/>
+    <sheet name="PayNowCreditSCF" sheetId="41" r:id="rId15"/>
+    <sheet name="PayNowPersonalCheckSCF" sheetId="14" r:id="rId16"/>
+    <sheet name="PayNowPersonalSavingsSCF" sheetId="28" r:id="rId17"/>
+    <sheet name="PayNowCreditDCF" sheetId="42" r:id="rId18"/>
+    <sheet name="PayNowCorpDCF" sheetId="7" r:id="rId19"/>
+    <sheet name="PayNowPersonalCheckDCF" sheetId="15" r:id="rId20"/>
+    <sheet name="PayNowPersonalSavingsDCF" sheetId="29" r:id="rId21"/>
+    <sheet name="MaxAmountErrorCC" sheetId="36" r:id="rId22"/>
+    <sheet name="MaxAmountErrorCorp" sheetId="8" r:id="rId23"/>
+    <sheet name="MaxAmountErrorPC" sheetId="16" r:id="rId24"/>
+    <sheet name="MaxAmountErrorPS" sheetId="22" r:id="rId25"/>
+    <sheet name="MinAmountErrorPC" sheetId="17" r:id="rId26"/>
+    <sheet name="MinAmountErrorCC" sheetId="37" r:id="rId27"/>
+    <sheet name="MinAmountErrorCorp" sheetId="9" r:id="rId28"/>
+    <sheet name="MinAmountErrorPS" sheetId="23" r:id="rId29"/>
+    <sheet name="OverAndUnderPayCredit" sheetId="43" r:id="rId30"/>
+    <sheet name="OverAndUnderPayPC" sheetId="20" r:id="rId31"/>
+    <sheet name="OverAndUnderPayPS" sheetId="26" r:id="rId32"/>
+    <sheet name="OverAndUnderPayCorp" sheetId="10" r:id="rId33"/>
+    <sheet name="NoModifyAmountCorp" sheetId="13" r:id="rId34"/>
+    <sheet name="NoModifyAmountPC" sheetId="21" r:id="rId35"/>
+    <sheet name="NoModifyAmountPS" sheetId="27" r:id="rId36"/>
+    <sheet name="NoModifyAmountCC" sheetId="40" r:id="rId37"/>
+    <sheet name="NoOverPayErrorCC" sheetId="39" r:id="rId38"/>
+    <sheet name="NoOverPayErrorPC" sheetId="19" r:id="rId39"/>
+    <sheet name="NoOverPayErrorCorp" sheetId="12" r:id="rId40"/>
+    <sheet name="NoOverPayErrorPS" sheetId="25" r:id="rId41"/>
+    <sheet name="NoUnderPayErrorPS" sheetId="24" r:id="rId42"/>
+    <sheet name="NoUnderPayErrorPC" sheetId="18" r:id="rId43"/>
+    <sheet name="NoUnderPayErrorCC" sheetId="38" r:id="rId44"/>
+    <sheet name="NoUnderPayErrorCorp" sheetId="11" r:id="rId45"/>
+    <sheet name="CardExpiredErrorCC" sheetId="47" r:id="rId46"/>
+    <sheet name="CardNotAcceptedErrorCC" sheetId="48" r:id="rId47"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="180">
   <si>
     <t>Result</t>
   </si>
@@ -376,102 +376,6 @@
     <t>CCDate</t>
   </si>
   <si>
-    <t>Wed Sep 25 13:10:34 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:11:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:12:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:13:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:15:03 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:16:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:17:18 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:18:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:19:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:20:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:21:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:22:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:24:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:25:31 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:26:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:28:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:29:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:30:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:31:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:36:42 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:38:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:42:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:44:03 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:45:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:46:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:48:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:49:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 13:58:30 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:12:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:14:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:15:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 14:16:44 IST 2024</t>
-  </si>
-  <si>
     <t>Wed Sep 25 17:54:42 IST 2024</t>
   </si>
   <si>
@@ -532,15 +436,6 @@
     <t>4761730000000011</t>
   </si>
   <si>
-    <t>Thu Sep 26 17:39:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 17:41:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 17:45:00 IST 2024</t>
-  </si>
-  <si>
     <t>Thu Sep 26 17:53:41 IST 2024</t>
   </si>
   <si>
@@ -550,159 +445,6 @@
     <t>Thu Sep 26 17:56:31 IST 2024</t>
   </si>
   <si>
-    <t>Thu Sep 26 18:39:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 18:56:21 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 19:27:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 19:29:20 IST 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Thu Sep 26 19:32:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 19:33:56 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 19:35:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 19:45:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 19:46:42 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 19:47:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 03 17:44:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 03 17:45:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 22:58:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 22:59:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:00:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:02:03 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:03:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:04:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:05:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:06:30 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:07:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:08:41 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:09:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:10:56 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:12:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:13:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:14:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:16:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:17:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:18:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:19:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:21:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:22:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:24:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:25:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:26:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:28:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:29:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:31:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:32:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:34:18 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:35:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:37:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:38:41 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:45:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 04 23:46:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:00:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:01:16 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:02:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:03:52 IST 2024</t>
-  </si>
-  <si>
     <t>Sat Oct 05 00:25:44 IST 2024</t>
   </si>
   <si>
@@ -781,12 +523,6 @@
     <t>Sat Oct 05 00:56:17 IST 2024</t>
   </si>
   <si>
-    <t>Sat Oct 05 00:57:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:58:55 IST 2024</t>
-  </si>
-  <si>
     <t>Sat Oct 05 01:00:20 IST 2024</t>
   </si>
   <si>
@@ -817,9 +553,6 @@
     <t>Sat Oct 05 01:12:23 IST 2024</t>
   </si>
   <si>
-    <t>Sat Oct 05 01:24:18 IST 2024</t>
-  </si>
-  <si>
     <t>Sat Oct 05 01:25:15 IST 2024</t>
   </si>
   <si>
@@ -835,17 +568,55 @@
     <t>Sat Oct 05 01:52:36 IST 2024</t>
   </si>
   <si>
-    <t>Mon Oct 07 19:02:11 IST 2024</t>
-  </si>
-  <si>
     <t>Mon Oct 07 19:40:04 IST 2024</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 19:25:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 19:29:11 IST 2024</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 20:00:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 20:02:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 10 20:03:54 IST 2024</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>651</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>825</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -903,30 +674,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -943,10 +713,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -981,7 +751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="02110004020202020204" typeface="Aptos Display"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1033,7 +803,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="02110004020202020204" typeface="Aptos Narrow"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1144,21 +914,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1175,7 +945,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1247,45 +1017,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" name="Office Theme" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="6.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="8.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="13.44140625" collapsed="true"/>
-    <col min="9" max="17" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="1" width="8.77734375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.44140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="17.21875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="6.5546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" style="1" width="7.21875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="6.21875" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="14.77734375" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="17" width="7.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="6.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="7.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="7.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="6.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1371,12 +1141,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="28.8" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1409,12 +1179,12 @@
         <v>15</v>
       </c>
     </row>
-    <row ht="28.8" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1489,12 +1259,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="28.8" r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -1569,12 +1339,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -1637,9 +1407,267 @@
         <v>33</v>
       </c>
     </row>
+    <row r="6" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;C_x005F_x000D_&amp;1#&amp;"Calibri,Regular"&amp;10 Public</oddFooter>
   </headerFooter>
@@ -1647,8 +1675,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A771A143-9840-4DFA-B0E0-D15CFA2A9A1E}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A771A143-9840-4DFA-B0E0-D15CFA2A9A1E}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
@@ -1656,7 +1684,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,12 +1770,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -1825,13 +1853,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AA9D37-D04B-4587-A172-B9ADC89C694F}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AA9D37-D04B-4587-A172-B9ADC89C694F}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
@@ -1839,7 +1867,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,12 +1953,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -2008,13 +2036,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AB254A-353D-44A3-9E69-985EFBB297E1}">
-  <dimension ref="A1:AD2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AB254A-353D-44A3-9E69-985EFBB297E1}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1"/>
@@ -2022,7 +2050,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -2192,13 +2220,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313069EA-AC8D-4820-8DAC-508C0AEC1D04}">
-  <dimension ref="A1:AD2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313069EA-AC8D-4820-8DAC-508C0AEC1D04}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1"/>
@@ -2206,7 +2234,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2295,12 +2323,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -2380,21 +2408,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AC3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2480,12 +2508,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -2561,12 +2589,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -2614,9 +2642,131 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
+    <row r="4" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W4" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W5" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -2625,16 +2775,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41878333-4EED-4FEF-A1C8-5BD85093D0BA}">
-  <dimension ref="A1:AC3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41878333-4EED-4FEF-A1C8-5BD85093D0BA}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2720,12 +2870,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2774,12 +2924,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -2856,22 +3006,146 @@
         <v>33</v>
       </c>
     </row>
+    <row r="4" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A88FA1-BB65-44BB-BC88-0BCE20A6C9BB}">
-  <dimension ref="A1:AC3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00763E-41D4-4301-BDED-25AE7808C112}">
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="E4" sqref="E4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2927,6 +3201,800 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V5" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD743872-79BE-45C8-95F1-7462ADBFBB33}">
+  <dimension ref="A1:AD5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X2" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V5" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A88FA1-BB65-44BB-BC88-0BCE20A6C9BB}">
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>95</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -2957,12 +4025,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2994,7 +4062,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>13</v>
@@ -3011,12 +4079,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -3093,22 +4161,146 @@
         <v>33</v>
       </c>
     </row>
+    <row r="4" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AC3"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3194,12 +4386,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -3275,12 +4467,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -3328,9 +4520,131 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
+    <row r="4" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W4" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W5" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -3338,17 +4652,528 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00763E-41D4-4301-BDED-25AE7808C112}">
-  <dimension ref="A1:AE3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="14" width="9.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="20" width="10.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="24" width="10.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="4" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="23.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.109375" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C03D0C9-5AB6-4662-AC40-046602184333}">
+  <dimension ref="A1:AD5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3440,12 +5265,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -3457,7 +5282,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1">
         <v>2.5</v>
@@ -3527,12 +5352,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -3544,7 +5369,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -3588,358 +5413,229 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
+    <row r="4" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V5" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="W5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C03D0C9-5AB6-4662-AC40-046602184333}">
-  <dimension ref="A1:AE3"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EA1570-2F70-4A5F-BF7E-DF89621604FD}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="W2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="V3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="W3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="X3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="6.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
-    <col min="9" max="14" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="7.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="6.77734375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
-    <col min="18" max="20" customWidth="true" style="1" width="10.77734375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="22" max="24" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="15.77734375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="23.5546875" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>52</v>
@@ -3951,7 +5647,7 @@
         <v>64</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -3969,559 +5665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row ht="28.8" r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U4" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.511811023622047" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD743872-79BE-45C8-95F1-7462ADBFBB33}">
-  <dimension ref="A1:AE3"/>
-  <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V2" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="W2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="X2" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="V3" s="1">
-        <v>256072691</v>
-      </c>
-      <c r="W3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="X3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>123456789</v>
-      </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EA1570-2F70-4A5F-BF7E-DF89621604FD}">
-  <dimension ref="A1:AD3"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -4605,7 +5749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="86.4" r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -4663,22 +5807,154 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X4" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X5" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A79848-7E61-44B5-97E7-0F536B72AE4E}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A79848-7E61-44B5-97E7-0F536B72AE4E}">
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4764,12 +6040,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -4846,22 +6122,98 @@
         <v>33</v>
       </c>
     </row>
+    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4947,12 +6299,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -5029,8 +6381,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -5039,8 +6391,8 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4062C9F-5A44-415A-A7E8-078A7E971ECD}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4062C9F-5A44-415A-A7E8-078A7E971ECD}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1"/>
@@ -5048,7 +6400,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5143,12 +6495,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -5234,13 +6586,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04751CF-732C-4149-ABDB-2383247CAD77}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04751CF-732C-4149-ABDB-2383247CAD77}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1"/>
@@ -5248,7 +6600,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5343,12 +6695,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -5434,13 +6786,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19564025-DA14-4B1C-B957-0CD06F0D7994}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19564025-DA14-4B1C-B957-0CD06F0D7994}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1"/>
@@ -5448,7 +6800,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5543,12 +6895,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -5634,13 +6986,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD57A086-2829-4F5A-903D-49E7780DD68D}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD57A086-2829-4F5A-903D-49E7780DD68D}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
@@ -5648,7 +7000,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5734,12 +7086,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -5817,21 +7169,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5917,12 +7269,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -5999,8 +7351,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -6009,8 +7361,8 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFD3F70-9018-4826-9ABF-5AB54B85F996}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFD3F70-9018-4826-9ABF-5AB54B85F996}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1"/>
@@ -6018,7 +7370,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6113,12 +7465,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -6204,43 +7556,43 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="6.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
-    <col min="9" max="14" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="7.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="6.77734375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
-    <col min="18" max="20" customWidth="true" style="1" width="10.77734375" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="22" max="24" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="15.77734375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="23.5546875" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="14" width="9.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="20" width="10.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="24" width="10.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="4" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="6" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="23.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6334,7 +7686,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -6417,7 +7769,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -6450,12 +7802,12 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="28.8" r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -6521,23 +7873,215 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511811023622047" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A9304B-BE96-4389-93F5-881CE531B763}">
-  <dimension ref="A1:AC3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A9304B-BE96-4389-93F5-881CE531B763}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6623,12 +8167,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6679,12 +8223,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -6735,22 +8279,122 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="2"/>
     </row>
+    <row r="4" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="2"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B9C217-1BF0-431A-9AA8-3A32A964B4CD}">
-  <dimension ref="A1:AF3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B9C217-1BF0-431A-9AA8-3A32A964B4CD}">
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6845,12 +8489,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -6911,12 +8555,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -6977,22 +8621,142 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
+    <row r="4" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15C6E0B-3928-44AA-AEF4-FBE07F9F5942}">
-  <dimension ref="A1:AF3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15C6E0B-3928-44AA-AEF4-FBE07F9F5942}">
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7087,12 +8851,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7153,12 +8917,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -7219,22 +8983,142 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
+    <row r="4" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AC3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7320,12 +9204,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -7377,12 +9261,12 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -7434,9 +9318,111 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
+    <row r="4" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V4" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W4" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W5" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -7445,16 +9431,16 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD0BECA-198B-4690-8CF3-A2199F4B543B}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD0BECA-198B-4690-8CF3-A2199F4B543B}">
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7540,12 +9526,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -7591,22 +9577,73 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
+    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0893653-4D6E-4E06-95C2-AA32E63A578A}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0893653-4D6E-4E06-95C2-AA32E63A578A}">
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7701,12 +9738,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -7761,22 +9798,76 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
+    <row r="3" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508EF0D1-65BE-4C3B-8DB2-F5B51668E3FA}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508EF0D1-65BE-4C3B-8DB2-F5B51668E3FA}">
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7871,12 +9962,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -7931,22 +10022,82 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
+    <row r="3" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B1E44C-ACC0-46A9-ADFB-04E3A56B3216}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B1E44C-ACC0-46A9-ADFB-04E3A56B3216}">
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8032,12 +10183,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8082,22 +10233,66 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
+    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD3CF7C-C466-4C10-9D8E-94B88363961A}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD3CF7C-C466-4C10-9D8E-94B88363961A}">
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8183,12 +10378,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -8243,22 +10438,76 @@
         <v>33</v>
       </c>
     </row>
+    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F043AE-8D22-4522-B277-A3F8143D1C61}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F043AE-8D22-4522-B277-A3F8143D1C61}">
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8353,12 +10602,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8419,44 +10668,104 @@
         <v>33</v>
       </c>
     </row>
+    <row r="3" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="6.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
-    <col min="9" max="14" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="7.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="6.77734375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="1" width="10.77734375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="14.77734375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="15.109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="15.77734375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="23.5546875" collapsed="true"/>
-    <col min="28" max="16384" style="1" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="14" width="9.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="10" style="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="4" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="6" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="23.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="9.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -8545,12 +10854,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="28.8" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8625,12 +10934,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="28.8" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -8663,12 +10972,12 @@
         <v>123456789</v>
       </c>
     </row>
-    <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>69</v>
@@ -8728,23 +11037,194 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V5" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W5" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U6" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V6" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W6" s="1">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T7" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U7" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V7" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.511811023622047" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8830,12 +11310,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8887,9 +11367,60 @@
         <v>33</v>
       </c>
     </row>
+    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -8898,16 +11429,16 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D69F64-0838-4A1D-A1AD-91EF5273BDCB}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D69F64-0838-4A1D-A1AD-91EF5273BDCB}">
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9002,12 +11533,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9068,22 +11599,88 @@
         <v>33</v>
       </c>
     </row>
+    <row r="3" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="X3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32E7FC-2B9D-4ACF-971E-602A35B77002}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32E7FC-2B9D-4ACF-971E-602A35B77002}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9178,12 +11775,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9245,13 +11842,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F3F3AF-F561-446D-9C6A-79A3AF94AE18}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F3F3AF-F561-446D-9C6A-79A3AF94AE18}">
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1"/>
@@ -9259,7 +11856,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9354,12 +11951,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9421,13 +12018,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00FDC39-BDF2-4377-92A2-1FC9690FDA62}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00FDC39-BDF2-4377-92A2-1FC9690FDA62}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
@@ -9435,7 +12032,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9521,12 +12118,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9582,21 +12179,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9682,12 +12279,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9740,8 +12337,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -9750,8 +12347,8 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C292913-F503-43A9-973A-22B728942B3F}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C292913-F503-43A9-973A-22B728942B3F}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
@@ -9759,7 +12356,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9845,12 +12442,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9928,13 +12525,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3FD29C-0D01-442A-B539-C7DB6D779E85}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3FD29C-0D01-442A-B539-C7DB6D779E85}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AC14" sqref="AC14"/>
@@ -9942,10 +12539,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" customWidth="true" width="54.77734375" collapsed="true"/>
+    <col min="20" max="20" width="54.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10031,12 +12628,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -10114,22 +12711,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10215,12 +12812,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -10268,9 +12865,56 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
+    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -10279,16 +12923,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5489C7-A3C1-4624-93CA-9485979F3AC1}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5489C7-A3C1-4624-93CA-9485979F3AC1}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10374,12 +13018,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="115.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -10446,13 +13090,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B2D42D-4180-4EF8-8D50-E71E1F3080A1}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B2D42D-4180-4EF8-8D50-E71E1F3080A1}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AB1" sqref="AB1"/>
@@ -10460,7 +13104,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10546,12 +13190,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="115.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -10618,13 +13262,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9E142F-4A51-4D5A-B6C1-BDE7AA487EEE}">
-  <dimension ref="A1:AD2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9E142F-4A51-4D5A-B6C1-BDE7AA487EEE}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1"/>
@@ -10632,7 +13276,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10721,7 +13365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -10802,13 +13446,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6B170A-199C-481C-A301-EFB2F4847854}">
-  <dimension ref="A1:AD2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6B170A-199C-481C-A301-EFB2F4847854}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1"/>
@@ -10816,7 +13460,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10905,12 +13549,12 @@
         <v>100</v>
       </c>
     </row>
-    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -10990,6 +13634,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -1,65 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E084618-1C34-4D55-A0A6-9106088AC319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8FE73D97-94D6-41E0-9BFD-5E6E20F129FC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="980" firstSheet="39" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="7" firstSheet="3" tabRatio="980" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
-    <sheet name="PayNowPC" sheetId="2" r:id="rId2"/>
-    <sheet name="PayNowPS" sheetId="3" r:id="rId3"/>
-    <sheet name="PayNowCorp" sheetId="4" r:id="rId4"/>
-    <sheet name="MRFCorp" sheetId="5" r:id="rId5"/>
-    <sheet name="VerifyConfirmPageLabelsCorp" sheetId="30" r:id="rId6"/>
-    <sheet name="VerifyReceiptPageLabelsCorp" sheetId="31" r:id="rId7"/>
-    <sheet name="VerifyConfirmPageLabelsPS" sheetId="34" r:id="rId8"/>
-    <sheet name="VerifyReceiptPageLabelsPS" sheetId="35" r:id="rId9"/>
-    <sheet name="VerifyConfirmPageLabelsCredit" sheetId="44" r:id="rId10"/>
-    <sheet name="VerifyReceiptPageLabelsCredit" sheetId="45" r:id="rId11"/>
-    <sheet name="VerifyConfirmPageLabelsPC" sheetId="32" r:id="rId12"/>
-    <sheet name="VerifyReceiptPageLabelsPC" sheetId="33" r:id="rId13"/>
-    <sheet name="PayNowCorpSCF" sheetId="6" r:id="rId14"/>
-    <sheet name="PayNowCreditSCF" sheetId="41" r:id="rId15"/>
-    <sheet name="PayNowPersonalCheckSCF" sheetId="14" r:id="rId16"/>
-    <sheet name="PayNowPersonalSavingsSCF" sheetId="28" r:id="rId17"/>
-    <sheet name="PayNowCreditDCF" sheetId="42" r:id="rId18"/>
-    <sheet name="PayNowCorpDCF" sheetId="7" r:id="rId19"/>
-    <sheet name="PayNowPersonalCheckDCF" sheetId="15" r:id="rId20"/>
-    <sheet name="PayNowPersonalSavingsDCF" sheetId="29" r:id="rId21"/>
-    <sheet name="MaxAmountErrorCC" sheetId="36" r:id="rId22"/>
-    <sheet name="MaxAmountErrorCorp" sheetId="8" r:id="rId23"/>
-    <sheet name="MaxAmountErrorPC" sheetId="16" r:id="rId24"/>
-    <sheet name="MaxAmountErrorPS" sheetId="22" r:id="rId25"/>
-    <sheet name="MinAmountErrorPC" sheetId="17" r:id="rId26"/>
-    <sheet name="MinAmountErrorCC" sheetId="37" r:id="rId27"/>
-    <sheet name="MinAmountErrorCorp" sheetId="9" r:id="rId28"/>
-    <sheet name="MinAmountErrorPS" sheetId="23" r:id="rId29"/>
-    <sheet name="OverAndUnderPayCredit" sheetId="43" r:id="rId30"/>
-    <sheet name="OverAndUnderPayPC" sheetId="20" r:id="rId31"/>
-    <sheet name="OverAndUnderPayPS" sheetId="26" r:id="rId32"/>
-    <sheet name="OverAndUnderPayCorp" sheetId="10" r:id="rId33"/>
-    <sheet name="NoModifyAmountCorp" sheetId="13" r:id="rId34"/>
-    <sheet name="NoModifyAmountPC" sheetId="21" r:id="rId35"/>
-    <sheet name="NoModifyAmountPS" sheetId="27" r:id="rId36"/>
-    <sheet name="NoModifyAmountCC" sheetId="40" r:id="rId37"/>
-    <sheet name="NoOverPayErrorCC" sheetId="39" r:id="rId38"/>
-    <sheet name="NoOverPayErrorPC" sheetId="19" r:id="rId39"/>
-    <sheet name="NoOverPayErrorCorp" sheetId="12" r:id="rId40"/>
-    <sheet name="NoOverPayErrorPS" sheetId="25" r:id="rId41"/>
-    <sheet name="NoUnderPayErrorPS" sheetId="24" r:id="rId42"/>
-    <sheet name="NoUnderPayErrorPC" sheetId="18" r:id="rId43"/>
-    <sheet name="NoUnderPayErrorCC" sheetId="38" r:id="rId44"/>
-    <sheet name="NoUnderPayErrorCorp" sheetId="11" r:id="rId45"/>
-    <sheet name="CardExpiredErrorCC" sheetId="47" r:id="rId46"/>
-    <sheet name="CardNotAcceptedErrorCC" sheetId="48" r:id="rId47"/>
+    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
+    <sheet name="PayNowPC" r:id="rId2" sheetId="2"/>
+    <sheet name="PayNowPS" r:id="rId3" sheetId="3"/>
+    <sheet name="PayNowCorp" r:id="rId4" sheetId="4"/>
+    <sheet name="MRFCorp" r:id="rId5" sheetId="5"/>
+    <sheet name="VerifyConfirmPageLabelsCorp" r:id="rId6" sheetId="30"/>
+    <sheet name="VerifyReceiptPageLabelsCorp" r:id="rId7" sheetId="31"/>
+    <sheet name="VerifyConfirmPageLabelsPS" r:id="rId8" sheetId="34"/>
+    <sheet name="VerifyReceiptPageLabelsPS" r:id="rId9" sheetId="35"/>
+    <sheet name="VerifyConfirmPageLabelsCredit" r:id="rId10" sheetId="44"/>
+    <sheet name="VerifyReceiptPageLabelsCredit" r:id="rId11" sheetId="45"/>
+    <sheet name="VerifyConfirmPageLabelsPC" r:id="rId12" sheetId="32"/>
+    <sheet name="VerifyReceiptPageLabelsPC" r:id="rId13" sheetId="33"/>
+    <sheet name="PayNowCorpSCF" r:id="rId14" sheetId="6"/>
+    <sheet name="PayNowCreditSCF" r:id="rId15" sheetId="41"/>
+    <sheet name="PayNowPersonalCheckSCF" r:id="rId16" sheetId="14"/>
+    <sheet name="PayNowPersonalSavingsSCF" r:id="rId17" sheetId="28"/>
+    <sheet name="PayNowCreditDCF" r:id="rId18" sheetId="42"/>
+    <sheet name="PayNowCorpDCF" r:id="rId19" sheetId="7"/>
+    <sheet name="PayNowPersonalCheckDCF" r:id="rId20" sheetId="15"/>
+    <sheet name="PayNowPersonalSavingsDCF" r:id="rId21" sheetId="29"/>
+    <sheet name="MaxAmountErrorCC" r:id="rId22" sheetId="36"/>
+    <sheet name="MaxAmountErrorCorp" r:id="rId23" sheetId="8"/>
+    <sheet name="MaxAmountErrorPC" r:id="rId24" sheetId="16"/>
+    <sheet name="MaxAmountErrorPS" r:id="rId25" sheetId="22"/>
+    <sheet name="MinAmountErrorPC" r:id="rId26" sheetId="17"/>
+    <sheet name="MinAmountErrorCC" r:id="rId27" sheetId="37"/>
+    <sheet name="MinAmountErrorCorp" r:id="rId28" sheetId="9"/>
+    <sheet name="MinAmountErrorPS" r:id="rId29" sheetId="23"/>
+    <sheet name="OverAndUnderPayCredit" r:id="rId30" sheetId="43"/>
+    <sheet name="OverAndUnderPayPC" r:id="rId31" sheetId="20"/>
+    <sheet name="OverAndUnderPayPS" r:id="rId32" sheetId="26"/>
+    <sheet name="OverAndUnderPayCorp" r:id="rId33" sheetId="10"/>
+    <sheet name="NoModifyAmountCorp" r:id="rId34" sheetId="13"/>
+    <sheet name="NoModifyAmountPC" r:id="rId35" sheetId="21"/>
+    <sheet name="NoModifyAmountPS" r:id="rId36" sheetId="27"/>
+    <sheet name="NoModifyAmountCC" r:id="rId37" sheetId="40"/>
+    <sheet name="NoOverPayErrorCC" r:id="rId38" sheetId="39"/>
+    <sheet name="NoOverPayErrorPC" r:id="rId39" sheetId="19"/>
+    <sheet name="NoOverPayErrorCorp" r:id="rId40" sheetId="12"/>
+    <sheet name="NoOverPayErrorPS" r:id="rId41" sheetId="25"/>
+    <sheet name="NoUnderPayErrorPS" r:id="rId42" sheetId="24"/>
+    <sheet name="NoUnderPayErrorPC" r:id="rId43" sheetId="18"/>
+    <sheet name="NoUnderPayErrorCC" r:id="rId44" sheetId="38"/>
+    <sheet name="NoUnderPayErrorCorp" r:id="rId45" sheetId="11"/>
+    <sheet name="CardExpiredErrorCC" r:id="rId46" sheetId="47"/>
+    <sheet name="CardNotAcceptedErrorCC" r:id="rId47" sheetId="48"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3222" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4384" uniqueCount="401">
   <si>
     <t>Result</t>
   </si>
@@ -436,168 +436,18 @@
     <t>4761730000000011</t>
   </si>
   <si>
-    <t>Thu Sep 26 17:53:41 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 17:55:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Sep 26 17:56:31 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:25:44 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:26:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:27:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:29:02 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:30:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:31:16 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:32:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:33:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:34:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:35:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:36:51 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:37:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:39:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:40:34 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:41:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:43:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:44:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:45:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:47:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:48:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:49:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:51:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:52:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:54:02 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:55:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 00:56:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:00:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:01:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:03:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:04:44 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:06:08 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:07:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:09:00 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:10:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:11:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:12:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:25:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:48:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:50:00 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:51:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 05 01:52:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Oct 07 19:40:04 IST 2024</t>
-  </si>
-  <si>
     <t>649</t>
   </si>
   <si>
     <t>3.0</t>
   </si>
   <si>
-    <t>Thu Oct 10 19:25:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 19:29:11 IST 2024</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>Thu Oct 10 20:00:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 20:02:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 10 20:03:54 IST 2024</t>
-  </si>
-  <si>
     <t>650</t>
   </si>
   <si>
@@ -611,12 +461,826 @@
   </si>
   <si>
     <t>825</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 01:45:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 01:46:37 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 01:47:42 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 01:49:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 01:50:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 01:52:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 01:53:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 01:54:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 01:56:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 01:57:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 01:58:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:00:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:01:40 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:02:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:03:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:04:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:06:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:07:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:08:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:10:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:11:47 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:12:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:14:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:16:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:17:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:19:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:21:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:23:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:24:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:25:26 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:26:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:28:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:29:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:31:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:33:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:34:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:36:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:38:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:40:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:41:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:43:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:44:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:46:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:47:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:49:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:50:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:51:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:53:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:54:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:56:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 02:57:37 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:06:18 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:07:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:09:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:11:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:13:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:14:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:16:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:18:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:20:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:21:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:23:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:25:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:27:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:28:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:29:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:30:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:32:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:33:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:35:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:36:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:37:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:38:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:40:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:41:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:42:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 03:43:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 04:07:17 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 04:08:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 05:11:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 05:14:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 05:15:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 05:17:21 IST 2024</t>
+  </si>
+  <si>
+    <t>Sat Oct 12 05:20:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Oct 14 19:50:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Oct 14 20:05:49 IST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mon Oct 14 20:22:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:27:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:29:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:30:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:31:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:33:21 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:34:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:36:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:37:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:38:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:40:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:41:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:42:56 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:44:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:45:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:46:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:47:56 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:49:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:50:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:51:21 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:53:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:54:40 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:55:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:56:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 01:58:37 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:00:18 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:01:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:03:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:05:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:07:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:08:21 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:09:26 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:10:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:12:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:13:56 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:15:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:17:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:18:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:20:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:22:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:24:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:25:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:26:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:28:26 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:29:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:31:18 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:32:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:34:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:35:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:37:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:39:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:41:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:42:47 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:44:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:46:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:48:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:50:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:52:02 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:54:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:56:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:57:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 02:59:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 03:01:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 03:03:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 03:04:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 03:05:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 03:06:40 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 03:07:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 03:08:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 03:09:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 03:11:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 03:25:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 03:26:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 03:27:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:02:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:03:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:04:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:05:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:07:40 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:09:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:11:02 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 04:12:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:06:26 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:07:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:09:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:10:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:11:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:13:03 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:14:44 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:15:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:17:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:18:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:19:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:21:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:23:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:24:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:25:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:26:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:27:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:28:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:30:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:31:51 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:33:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:34:42 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:35:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:37:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:39:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:40:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:42:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:44:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:46:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:47:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:48:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:49:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:51:30 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:53:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:54:51 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:56:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:57:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 05:59:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:01:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:03:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:04:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:06:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:07:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:09:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:10:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:12:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:13:37 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:14:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:16:02 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:17:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:18:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:20:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:22:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:23:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:25:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:27:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:29:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:31:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:32:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:34:30 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:36:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:38:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:39:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:41:30 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:43:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:45:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:46:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:48:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:50:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:51:47 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:52:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:54:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:55:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:57:37 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:59:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:00:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:01:42 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:02:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:04:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:05:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:06:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:07:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:37:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:38:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 07:39:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:34:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:36:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:37:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:38:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:40:32 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:41:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:43:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 08:45:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 19:48:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 19:50:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 19:51:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 19:52:44 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 19:53:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 19:55:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 19:56:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 19:57:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 21:03:50 IST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,29 +1338,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -713,10 +1377,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -751,7 +1415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin panose="02110004020202020204" typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -803,7 +1467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin panose="02110004020202020204" typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -914,21 +1578,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -945,7 +1609,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1017,45 +1681,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" name="Office Theme" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="17" width="7.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="8.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="7.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="7.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="8.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="13.44140625" collapsed="true"/>
+    <col min="9" max="17" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="8.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.44140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="17.21875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="6.5546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
+    <col min="23" max="24" customWidth="true" style="1" width="7.21875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="13.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="6.21875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="14.77734375" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,12 +1805,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>392</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1179,12 +1843,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>393</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1259,12 +1923,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>394</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -1339,12 +2003,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>395</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -1407,12 +2071,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>396</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -1421,13 +2085,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
@@ -1445,12 +2109,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>397</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -1459,13 +2123,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -1525,9 +2189,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8"/>
-      <c r="B8"/>
+    <row ht="28.8" r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>398</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1535,13 +2203,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -1601,9 +2269,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9"/>
-      <c r="B9"/>
+    <row ht="43.2" r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>400</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1611,13 +2283,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>18</v>
@@ -1666,8 +2338,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddFooter>&amp;C_x005F_x000D_&amp;1#&amp;"Calibri,Regular"&amp;10 Public</oddFooter>
   </headerFooter>
@@ -1675,16 +2347,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A771A143-9840-4DFA-B0E0-D15CFA2A9A1E}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A771A143-9840-4DFA-B0E0-D15CFA2A9A1E}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1770,12 +2442,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -1852,22 +2524,104 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AA9D37-D04B-4587-A172-B9ADC89C694F}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AA9D37-D04B-4587-A172-B9ADC89C694F}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1953,12 +2707,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>384</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -2035,22 +2789,104 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AB254A-353D-44A3-9E69-985EFBB297E1}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9AB254A-353D-44A3-9E69-985EFBB297E1}">
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -2219,22 +3055,102 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313069EA-AC8D-4820-8DAC-508C0AEC1D04}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313069EA-AC8D-4820-8DAC-508C0AEC1D04}">
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2323,12 +3239,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>388</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -2407,22 +3323,106 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2508,12 +3508,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -2589,12 +3589,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>334</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -2642,7 +3642,13 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>335</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
@@ -2650,13 +3656,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -2717,7 +3723,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>336</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
@@ -2725,13 +3737,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2765,8 +3777,8 @@
       <c r="AA5" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -2775,8 +3787,8 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41878333-4EED-4FEF-A1C8-5BD85093D0BA}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41878333-4EED-4FEF-A1C8-5BD85093D0BA}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
@@ -2784,7 +3796,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2870,12 +3882,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>341</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2924,12 +3936,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -3006,7 +4018,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>343</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3014,13 +4032,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3054,7 +4072,13 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3062,13 +4086,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -3131,13 +4155,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00763E-41D4-4301-BDED-25AE7808C112}">
-  <dimension ref="A1:AD5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00763E-41D4-4301-BDED-25AE7808C112}">
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:G5"/>
@@ -3145,7 +4169,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3237,12 +4261,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>355</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -3324,12 +4348,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="86.4" x14ac:dyDescent="0.3">
+    <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>356</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -3385,7 +4409,13 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>357</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,13 +4423,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -3466,7 +4496,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="86.4" x14ac:dyDescent="0.3">
+    <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>358</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
       </c>
@@ -3474,13 +4510,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3522,13 +4558,13 @@
       <c r="AC5" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD743872-79BE-45C8-95F1-7462ADBFBB33}">
-  <dimension ref="A1:AD5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD743872-79BE-45C8-95F1-7462ADBFBB33}">
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
@@ -3536,7 +4572,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3628,12 +4664,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>363</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -3715,12 +4751,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="86.4" x14ac:dyDescent="0.3">
+    <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -3776,12 +4812,12 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>365</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -3790,13 +4826,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -3863,12 +4899,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="86.4" x14ac:dyDescent="0.3">
+    <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>366</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -3877,13 +4913,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3925,13 +4961,13 @@
       <c r="AC5" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A88FA1-BB65-44BB-BC88-0BCE20A6C9BB}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A88FA1-BB65-44BB-BC88-0BCE20A6C9BB}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -3939,7 +4975,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4025,12 +5061,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>337</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4079,12 +5115,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>338</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -4161,7 +5197,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>339</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -4169,13 +5211,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4209,7 +5251,13 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>340</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4217,13 +5265,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -4286,21 +5334,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E4" sqref="E4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4386,12 +5434,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>323</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -4467,12 +5515,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -4520,7 +5568,13 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>325</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
@@ -4528,13 +5582,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -4595,7 +5649,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>326</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
@@ -4603,13 +5663,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4643,8 +5703,8 @@
       <c r="AA5" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -4653,38 +5713,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="14" width="9.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="20" width="10.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="24" width="10.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="4" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="23.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="7.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
+    <col min="18" max="20" customWidth="true" style="1" width="10.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="22" max="24" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="15.77734375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="23.5546875" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +5838,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -4861,7 +5921,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -4894,12 +5954,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -4970,7 +6030,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>348</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -4979,13 +6039,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -5053,7 +6113,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>349</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -5062,13 +6122,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
@@ -5086,12 +6146,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>350</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -5100,13 +6160,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -5158,14 +6218,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.511811023622047" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C03D0C9-5AB6-4662-AC40-046602184333}">
-  <dimension ref="A1:AD5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C03D0C9-5AB6-4662-AC40-046602184333}">
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:G5"/>
@@ -5173,7 +6233,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5265,12 +6325,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>359</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -5352,12 +6412,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="86.4" x14ac:dyDescent="0.3">
+    <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>360</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -5413,12 +6473,12 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>361</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -5427,13 +6487,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -5500,12 +6560,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="86.4" x14ac:dyDescent="0.3">
+    <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -5514,13 +6574,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -5562,13 +6622,13 @@
       <c r="AC5" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EA1570-2F70-4A5F-BF7E-DF89621604FD}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EA1570-2F70-4A5F-BF7E-DF89621604FD}">
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
@@ -5576,7 +6636,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5665,7 +6725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -5749,7 +6809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="86.4" x14ac:dyDescent="0.3">
+    <row ht="86.4" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -5807,19 +6867,19 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
@@ -5892,13 +6952,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -5940,21 +7000,21 @@
       <c r="AB5" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A79848-7E61-44B5-97E7-0F536B72AE4E}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A79848-7E61-44B5-97E7-0F536B72AE4E}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6040,7 +7100,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6122,7 +7182,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
@@ -6130,13 +7190,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>72</v>
@@ -6199,21 +7259,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6299,7 +7359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6380,9 +7440,84 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -6391,16 +7526,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4062C9F-5A44-415A-A7E8-078A7E971ECD}">
-  <dimension ref="A1:AE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4062C9F-5A44-415A-A7E8-078A7E971ECD}">
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6495,7 +7630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6585,22 +7720,97 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04751CF-732C-4149-ABDB-2383247CAD77}">
-  <dimension ref="A1:AE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04751CF-732C-4149-ABDB-2383247CAD77}">
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6695,7 +7905,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6785,22 +7995,97 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19564025-DA14-4B1C-B957-0CD06F0D7994}">
-  <dimension ref="A1:AE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19564025-DA14-4B1C-B957-0CD06F0D7994}">
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6895,7 +8180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -6985,22 +8270,97 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD57A086-2829-4F5A-903D-49E7780DD68D}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD57A086-2829-4F5A-903D-49E7780DD68D}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7086,7 +8446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -7168,22 +8528,97 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A3" sqref="A3:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7269,7 +8704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -7350,9 +8785,84 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -7361,16 +8871,16 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFD3F70-9018-4826-9ABF-5AB54B85F996}">
-  <dimension ref="A1:AE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFD3F70-9018-4826-9ABF-5AB54B85F996}">
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7465,7 +8975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -7555,44 +9065,119 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E5" sqref="E5:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="14" width="9.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="20" width="10.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="24" width="10.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="4" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="23.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="7.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
+    <col min="18" max="20" customWidth="true" style="1" width="10.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="22" max="24" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="15.77734375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="23.5546875" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7686,7 +9271,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>367</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -7769,7 +9354,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>368</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -7802,12 +9387,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>369</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -7878,7 +9463,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>370</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -7887,13 +9472,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -7961,7 +9546,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>371</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -7970,13 +9555,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
@@ -7994,12 +9579,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>372</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -8008,13 +9593,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -8066,14 +9651,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.511811023622047" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A9304B-BE96-4389-93F5-881CE531B763}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A9304B-BE96-4389-93F5-881CE531B763}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -8081,7 +9666,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8167,12 +9752,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8223,12 +9808,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -8279,7 +9864,13 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>313</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -8287,13 +9878,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
@@ -8329,7 +9920,13 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -8337,13 +9934,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -8380,13 +9977,13 @@
       <c r="AB5" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B9C217-1BF0-431A-9AA8-3A32A964B4CD}">
-  <dimension ref="A1:AE5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B9C217-1BF0-431A-9AA8-3A32A964B4CD}">
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B5"/>
@@ -8394,7 +9991,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8489,12 +10086,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8555,12 +10152,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>316</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -8621,7 +10218,13 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
@@ -8629,13 +10232,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
@@ -8681,7 +10284,13 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>318</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
@@ -8689,13 +10298,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -8742,13 +10351,13 @@
       <c r="AD5" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15C6E0B-3928-44AA-AEF4-FBE07F9F5942}">
-  <dimension ref="A1:AE5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15C6E0B-3928-44AA-AEF4-FBE07F9F5942}">
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -8756,7 +10365,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8851,12 +10460,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8917,12 +10526,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -8983,7 +10592,13 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>321</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
@@ -8991,13 +10606,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
@@ -9043,7 +10658,13 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>322</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
@@ -9051,13 +10672,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -9104,21 +10725,21 @@
       <c r="AD5" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9204,12 +10825,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -9261,12 +10882,12 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -9318,7 +10939,13 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>309</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
       </c>
@@ -9326,13 +10953,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
@@ -9369,7 +10996,13 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>310</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
@@ -9377,13 +11010,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -9421,8 +11054,8 @@
       <c r="AA5" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -9431,8 +11064,8 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD0BECA-198B-4690-8CF3-A2199F4B543B}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD0BECA-198B-4690-8CF3-A2199F4B543B}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:G3"/>
@@ -9440,7 +11073,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9526,12 +11159,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -9577,12 +11210,12 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>302</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -9591,13 +11224,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -9629,13 +11262,13 @@
       <c r="AA3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0893653-4D6E-4E06-95C2-AA32E63A578A}">
-  <dimension ref="A1:AE3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0893653-4D6E-4E06-95C2-AA32E63A578A}">
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:G3"/>
@@ -9643,7 +11276,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9738,12 +11371,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -9798,7 +11431,13 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
@@ -9806,13 +11445,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -9853,13 +11492,13 @@
       <c r="AD3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508EF0D1-65BE-4C3B-8DB2-F5B51668E3FA}">
-  <dimension ref="A1:AE3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508EF0D1-65BE-4C3B-8DB2-F5B51668E3FA}">
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:G3"/>
@@ -9867,7 +11506,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9962,12 +11601,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -10022,12 +11661,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10036,13 +11675,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -10083,13 +11722,13 @@
       <c r="AD3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B1E44C-ACC0-46A9-ADFB-04E3A56B3216}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B1E44C-ACC0-46A9-ADFB-04E3A56B3216}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:G3"/>
@@ -10097,7 +11736,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10183,12 +11822,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10233,7 +11872,13 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -10241,13 +11886,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -10278,13 +11923,13 @@
       <c r="AB3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD3CF7C-C466-4C10-9D8E-94B88363961A}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD3CF7C-C466-4C10-9D8E-94B88363961A}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -10292,7 +11937,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10378,7 +12023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -10438,7 +12083,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
@@ -10446,13 +12091,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
@@ -10493,13 +12138,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F043AE-8D22-4522-B277-A3F8143D1C61}">
-  <dimension ref="A1:AE3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F043AE-8D22-4522-B277-A3F8143D1C61}">
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -10507,7 +12152,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10602,7 +12247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -10668,7 +12313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
@@ -10676,13 +12321,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
@@ -10729,43 +12374,43 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AB7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E5" sqref="E5:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="6.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="14" width="9.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="6.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10" style="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="4" style="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="23.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="7.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="10.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="14.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="15.109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="15.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="23.5546875" collapsed="true"/>
+    <col min="28" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
@@ -10854,12 +12499,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>327</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10934,12 +12579,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>328</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10972,12 +12617,12 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>329</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>69</v>
@@ -11037,9 +12682,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5"/>
-      <c r="B5"/>
+    <row ht="28.8" r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>330</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
       </c>
@@ -11047,13 +12696,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -11113,9 +12762,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6"/>
-      <c r="B6"/>
+    <row ht="28.8" r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>331</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
       </c>
@@ -11123,13 +12776,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
@@ -11147,9 +12800,13 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7"/>
-      <c r="B7"/>
+    <row ht="43.2" r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>332</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>69</v>
       </c>
@@ -11157,13 +12814,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -11209,22 +12866,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.511811023622047" header="0.511811023622047" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11310,7 +12967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -11367,7 +13024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
@@ -11375,13 +13032,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
@@ -11419,8 +13076,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -11429,8 +13086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D69F64-0838-4A1D-A1AD-91EF5273BDCB}">
-  <dimension ref="A1:AE3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D69F64-0838-4A1D-A1AD-91EF5273BDCB}">
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -11438,7 +13095,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11533,7 +13190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -11599,7 +13256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -11616,10 +13273,10 @@
         <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
@@ -11666,21 +13323,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32E7FC-2B9D-4ACF-971E-602A35B77002}">
-  <dimension ref="A1:AE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A32E7FC-2B9D-4ACF-971E-602A35B77002}">
+  <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11775,7 +13432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -11842,13 +13499,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F3F3AF-F561-446D-9C6A-79A3AF94AE18}">
-  <dimension ref="A1:AE2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F3F3AF-F561-446D-9C6A-79A3AF94AE18}">
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AE1" sqref="AE1"/>
@@ -11856,7 +13513,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11951,7 +13608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -12018,13 +13675,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00FDC39-BDF2-4377-92A2-1FC9690FDA62}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00FDC39-BDF2-4377-92A2-1FC9690FDA62}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
@@ -12032,7 +13689,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12118,7 +13775,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -12179,21 +13836,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12279,7 +13936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -12337,8 +13994,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -12347,16 +14004,16 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C292913-F503-43A9-973A-22B728942B3F}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C292913-F503-43A9-973A-22B728942B3F}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12442,7 +14099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -12524,25 +14181,101 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3FD29C-0D01-442A-B539-C7DB6D779E85}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3FD29C-0D01-442A-B539-C7DB6D779E85}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" width="54.77734375" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" customWidth="true" width="54.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12628,7 +14361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -12710,23 +14443,99 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12812,7 +14621,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -12865,7 +14674,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
@@ -12873,13 +14682,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -12913,8 +14722,8 @@
       <c r="AA3" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -12923,16 +14732,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5489C7-A3C1-4624-93CA-9485979F3AC1}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5489C7-A3C1-4624-93CA-9485979F3AC1}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13018,12 +14827,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="115.2" x14ac:dyDescent="0.3">
+    <row ht="115.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>382</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -13089,22 +14898,93 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="115.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B2D42D-4180-4EF8-8D50-E71E1F3080A1}">
-  <dimension ref="A1:AB2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B2D42D-4180-4EF8-8D50-E71E1F3080A1}">
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13190,12 +15070,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="115.2" x14ac:dyDescent="0.3">
+    <row ht="115.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>386</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -13261,22 +15141,93 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="115.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="U3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>12344444</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9E142F-4A51-4D5A-B6C1-BDE7AA487EEE}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9E142F-4A51-4D5A-B6C1-BDE7AA487EEE}">
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13365,7 +15316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -13445,22 +15396,102 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6B170A-199C-481C-A301-EFB2F4847854}">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6B170A-199C-481C-A301-EFB2F4847854}">
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13549,12 +15580,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>390</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -13633,7 +15664,91 @@
         <v>33</v>
       </c>
     </row>
+    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3" s="1">
+        <v>256072691</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{8FE73D97-94D6-41E0-9BFD-5E6E20F129FC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D920EF28-2E9D-422F-9A2B-5D239D5EC53D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="3" tabRatio="980" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="21" firstSheet="19" tabRatio="980" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4384" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="238">
   <si>
     <t>Result</t>
   </si>
@@ -376,63 +376,6 @@
     <t>CCDate</t>
   </si>
   <si>
-    <t>Wed Sep 25 17:54:42 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 17:56:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 17:57:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 17:58:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 17:59:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:00:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:02:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:03:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:04:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:05:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:07:03 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:08:00 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:09:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:10:16 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:11:30 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:12:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:13:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:14:56 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Sep 25 18:16:32 IST 2024</t>
-  </si>
-  <si>
     <t>4761730000000011</t>
   </si>
   <si>
@@ -463,817 +406,385 @@
     <t>825</t>
   </si>
   <si>
-    <t>Sat Oct 12 01:45:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 01:46:37 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 01:47:42 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 01:49:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 01:50:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 01:52:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 01:53:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 01:54:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 01:56:04 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 01:57:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 01:58:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:00:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:01:40 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:02:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:03:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:04:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:06:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:07:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:08:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:10:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:11:47 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:12:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:14:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:16:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:17:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:19:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:21:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:23:08 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:24:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:25:26 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:26:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:28:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:29:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:31:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:33:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:34:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:36:34 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:38:34 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:40:00 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:41:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:43:00 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:44:34 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:46:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:47:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:49:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:50:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:51:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:53:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:54:16 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:56:00 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 02:57:37 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:06:18 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:07:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:09:16 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:11:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:13:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:14:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:16:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:18:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:20:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:21:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:23:04 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:25:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:27:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:28:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:29:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:30:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:32:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:33:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:35:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:36:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:37:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:38:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:40:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:41:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:42:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 03:43:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 04:07:17 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 04:08:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 05:11:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 05:14:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 05:15:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 05:17:21 IST 2024</t>
-  </si>
-  <si>
-    <t>Sat Oct 12 05:20:34 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Oct 14 19:50:22 IST 2024</t>
-  </si>
-  <si>
     <t>Mon Oct 14 20:05:49 IST 2024</t>
   </si>
   <si>
+    <t>Tue Oct 15 06:50:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:51:47 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:52:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:54:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:55:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Oct 15 06:57:37 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 19:09:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 19:11:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 19:13:28 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 19:15:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 19:24:44 IST 2024</t>
+  </si>
+  <si>
+    <t>Wed Oct 23 19:42:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:54:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:56:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:58:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:00:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:02:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:03:51 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:06:02 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:07:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:09:55 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:11:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:13:18 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:15:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:17:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:19:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:21:02 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:22:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:24:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:26:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:27:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:29:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:32:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:33:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:35:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:37:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:40:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:42:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:44:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:46:47 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:49:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:51:01 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:52:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:54:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:56:40 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:58:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:01:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:03:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:05:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:07:44 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:10:13 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:12:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:14:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:16:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:18:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:20:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:22:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:24:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:35:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:37:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:39:30 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:42:03 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:44:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:46:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:48:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:51:11 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:53:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:55:48 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 23:57:47 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:00:21 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:02:51 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:04:31 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:06:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:08:03 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:09:47 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:11:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:13:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:14:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:33:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:34:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 00:36:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:18:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:20:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:21:56 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:23:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:26:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:27:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:30:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 01:32:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:36:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:37:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:39:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:41:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:46:33 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:48:18 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:50:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:51:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:53:43 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:55:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:57:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 02:58:52 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:00:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:02:18 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:03:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:05:44 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:07:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:09:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:10:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:12:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:13:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:15:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:17:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:18:47 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:20:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:22:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:23:42 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:25:21 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:26:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:28:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:30:18 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 03:31:57 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Oct 28 19:52:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Oct 28 19:54:48 IST 2024</t>
+  </si>
+  <si>
+    <t>2000.50</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Mon Oct 14 20:22:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:27:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:29:00 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:30:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:31:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:33:21 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:34:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:36:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:37:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:38:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:40:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:41:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:42:56 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:44:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:45:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:46:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:47:56 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:49:04 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:50:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:51:21 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:53:00 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:54:40 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:55:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:56:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 01:58:37 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:00:18 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:01:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:03:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:05:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:07:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:08:21 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:09:26 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:10:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:12:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:13:56 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:15:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:17:08 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:18:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:20:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:22:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:24:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:25:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:26:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:28:26 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:29:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:31:18 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:32:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:34:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:35:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:37:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:39:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:41:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:42:47 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:44:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:46:41 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:48:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:50:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:52:02 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:54:04 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:56:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:57:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 02:59:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 03:01:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 03:03:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 03:04:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 03:05:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 03:06:40 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 03:07:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 03:08:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 03:09:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 03:11:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 03:25:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 03:26:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 03:27:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:02:04 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:03:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:04:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:05:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:07:40 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:09:06 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:11:02 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 04:12:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:06:26 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:07:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:09:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:10:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:11:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:13:03 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:14:44 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:15:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:17:34 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:18:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:19:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:21:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:23:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:24:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:25:34 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:26:41 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:27:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:28:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:30:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:31:51 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:33:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:34:42 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:35:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:37:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:39:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:40:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:42:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:44:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:46:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:47:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:48:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:49:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:51:30 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:53:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:54:51 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:56:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:57:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 05:59:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:01:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:03:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:04:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:06:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:07:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:09:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:10:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:12:08 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:13:37 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:14:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:16:02 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:17:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:18:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:20:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:22:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:23:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:25:25 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:27:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:29:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:31:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:32:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:34:30 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:36:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:38:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:39:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:41:30 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:43:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:45:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:46:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:48:34 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:50:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:51:47 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:52:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:54:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:55:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:57:37 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:59:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:00:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:01:42 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:02:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:04:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:05:16 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:06:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:07:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:37:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:38:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 07:39:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:34:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:36:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:37:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:38:45 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:40:32 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:41:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:43:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 08:45:34 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 19:48:46 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 19:50:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 19:51:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 19:52:44 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 19:53:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 19:55:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 19:56:19 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 19:57:34 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 21:03:50 IST 2024</t>
+    <t>Mon Nov 04 22:07:50 IST 2024</t>
   </si>
 </sst>
 </file>
@@ -1810,7 +1321,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1848,7 +1359,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1928,7 +1439,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -2008,7 +1519,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -2076,7 +1587,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>396</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -2085,13 +1596,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
@@ -2114,7 +1625,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -2123,13 +1634,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -2194,7 +1705,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>188</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -2203,13 +1714,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -2274,7 +1785,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>400</v>
+        <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -2283,13 +1794,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>18</v>
@@ -2447,7 +1958,7 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -2529,7 +2040,7 @@
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -2538,13 +2049,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -2712,7 +2223,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -2794,7 +2305,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -2803,13 +2314,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -3065,13 +2576,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -3244,7 +2755,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -3328,7 +2839,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -3337,13 +2848,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -3513,7 +3024,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -3594,7 +3105,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -3647,7 +3158,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -3656,13 +3167,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -3728,7 +3239,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -3737,13 +3248,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3887,7 +3398,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3941,7 +3452,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -4023,7 +3534,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -4032,13 +3543,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4077,7 +3588,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -4086,13 +3597,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -4266,7 +3777,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -4353,7 +3864,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>171</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -4414,7 +3925,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -4423,13 +3934,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -4501,7 +4012,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -4510,13 +4021,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4669,7 +4180,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -4756,7 +4267,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>179</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -4817,7 +4328,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -4826,13 +4337,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -4904,7 +4415,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -4913,13 +4424,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -5066,7 +4577,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5098,7 +4609,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>13</v>
@@ -5120,7 +4631,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -5202,7 +4713,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -5211,13 +4722,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -5234,7 +4745,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>13</v>
@@ -5256,7 +4767,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -5265,13 +4776,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -5439,7 +4950,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -5520,7 +5031,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -5573,7 +5084,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -5582,13 +5093,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -5654,7 +5165,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -5663,13 +5174,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -5717,13 +5228,13 @@
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="21.21875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="1" width="26.77734375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="13.21875" collapsed="true"/>
@@ -5838,7 +5349,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -5921,7 +5432,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -5959,7 +5470,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -6030,7 +5541,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -6039,13 +5550,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -6113,7 +5624,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -6122,13 +5633,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
@@ -6151,7 +5662,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -6160,13 +5671,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -6330,7 +5841,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -6417,7 +5928,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -6478,7 +5989,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -6487,13 +5998,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -6565,7 +6076,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -6574,13 +6085,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -6873,13 +6384,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
@@ -6952,13 +6463,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7008,8 +6519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A79848-7E61-44B5-97E7-0F536B72AE4E}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7105,7 +6616,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -7183,6 +6694,12 @@
       </c>
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
@@ -7190,16 +6707,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -7268,7 +6785,7 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7364,7 +6881,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7441,6 +6958,12 @@
       </c>
     </row>
     <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
@@ -7448,16 +6971,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -7530,7 +7053,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AB3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7635,7 +7158,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7721,6 +7244,12 @@
       </c>
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
@@ -7728,16 +7257,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -7805,7 +7334,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AB3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7910,7 +7439,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7996,6 +7525,12 @@
       </c>
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
@@ -8003,16 +7538,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -8080,7 +7615,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AB3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8185,7 +7720,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8271,6 +7806,12 @@
       </c>
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
@@ -8278,16 +7819,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -8355,7 +7896,7 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AB3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8451,7 +7992,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -8529,6 +8070,12 @@
       </c>
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
@@ -8536,16 +8083,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -8613,7 +8160,7 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A3" sqref="A3:AB3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8709,7 +8256,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8786,6 +8333,12 @@
       </c>
     </row>
     <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
@@ -8793,16 +8346,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -8875,7 +8428,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AB3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8980,7 +8533,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9066,6 +8619,12 @@
       </c>
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
@@ -9073,16 +8632,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -9271,7 +8830,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -9354,7 +8913,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -9392,7 +8951,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -9463,7 +9022,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -9472,13 +9031,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -9546,7 +9105,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -9555,13 +9114,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
@@ -9584,7 +9143,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -9593,13 +9152,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -9757,7 +9316,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9813,7 +9372,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9869,7 +9428,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -9878,13 +9437,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
@@ -9925,7 +9484,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -9934,13 +9493,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -10091,7 +9650,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10157,7 +9716,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10223,7 +9782,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -10232,13 +9791,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
@@ -10289,7 +9848,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>318</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10298,13 +9857,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -10465,7 +10024,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10531,7 +10090,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10597,7 +10156,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -10606,13 +10165,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
@@ -10663,7 +10222,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10672,13 +10231,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -10830,7 +10389,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -10887,7 +10446,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10944,7 +10503,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -10953,13 +10512,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
@@ -11001,7 +10560,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -11010,13 +10569,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -11164,7 +10723,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -11215,7 +10774,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11224,13 +10783,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -11376,7 +10935,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -11436,7 +10995,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11445,13 +11004,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -11606,7 +11165,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -11666,7 +11225,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11675,13 +11234,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -11827,7 +11386,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11877,7 +11436,7 @@
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11886,13 +11445,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -12028,7 +11587,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -12084,6 +11643,12 @@
       </c>
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
@@ -12091,13 +11656,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
@@ -12252,7 +11817,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12314,6 +11879,12 @@
       </c>
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
@@ -12321,13 +11892,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
@@ -12504,7 +12075,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12584,7 +12155,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12622,7 +12193,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>69</v>
@@ -12687,7 +12258,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
@@ -12696,13 +12267,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -12767,7 +12338,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -12776,13 +12347,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
@@ -12805,7 +12376,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>69</v>
@@ -12814,13 +12385,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -12972,7 +12543,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13025,6 +12596,12 @@
       </c>
     </row>
     <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
@@ -13032,13 +12609,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
@@ -13195,7 +12772,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13261,7 +12838,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13273,10 +12850,10 @@
         <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
@@ -13437,7 +13014,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13613,7 +13190,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13780,7 +13357,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -13941,7 +13518,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -14104,7 +13681,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -14182,6 +13759,12 @@
       </c>
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
@@ -14189,13 +13772,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -14366,7 +13949,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -14444,6 +14027,12 @@
       </c>
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
@@ -14451,13 +14040,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -14623,10 +14212,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -14675,6 +14264,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>220</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
@@ -14682,13 +14277,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -14832,7 +14427,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -14903,7 +14498,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>192</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -14912,13 +14507,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -15075,7 +14670,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -15146,7 +14741,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -15155,13 +14750,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -15221,7 +14816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9E142F-4A51-4D5A-B6C1-BDE7AA487EEE}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -15406,13 +15001,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -15585,7 +15180,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -15669,7 +15264,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -15678,13 +15273,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="314">
   <si>
     <t>Result</t>
   </si>
@@ -785,6 +785,234 @@
   </si>
   <si>
     <t>Mon Nov 04 22:07:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:17:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:18:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:19:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:21:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:22:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:23:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:24:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:26:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:27:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:28:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:29:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:30:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:32:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:33:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:34:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:36:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:37:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:39:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:40:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:43:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:45:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:46:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:47:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:48:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:50:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:51:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:53:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:54:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:56:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 19:58:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:01:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:02:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:03:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:05:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:06:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:07:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:09:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:10:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:11:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:13:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:14:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:15:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:16:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:18:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:20:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:21:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:22:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:25:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:27:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:29:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:30:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:32:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:35:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:36:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:38:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:40:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:42:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:44:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:45:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:48:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:50:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:51:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:52:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:53:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:55:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:57:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:58:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 20:59:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 21:00:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 21:01:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 21:03:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 21:04:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 21:05:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 21:06:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 21:07:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 21:08:29 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1549,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1359,7 +1587,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1439,7 +1667,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>306</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -1519,7 +1747,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>307</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -1587,7 +1815,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>308</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -1625,7 +1853,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>309</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -1705,7 +1933,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>310</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1785,7 +2013,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -3024,7 +3252,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -3105,7 +3333,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -3155,10 +3383,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>266</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -3236,10 +3464,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>267</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -3398,7 +3626,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3452,7 +3680,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -3534,7 +3762,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -3588,7 +3816,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>275</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -3777,7 +4005,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -3864,7 +4092,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -3922,10 +4150,10 @@
     </row>
     <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -4009,10 +4237,10 @@
     </row>
     <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -4180,7 +4408,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -4267,7 +4495,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -4325,10 +4553,10 @@
     </row>
     <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -4412,10 +4640,10 @@
     </row>
     <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -4577,7 +4805,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4631,7 +4859,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>269</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -4713,7 +4941,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -4767,7 +4995,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>271</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -4950,7 +5178,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -5031,7 +5259,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -5081,10 +5309,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -5162,10 +5390,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>257</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -5349,7 +5577,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -5432,7 +5660,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -5470,7 +5698,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -5538,10 +5766,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -5621,10 +5849,10 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -5659,10 +5887,10 @@
     </row>
     <row ht="28.8" r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -5841,7 +6069,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>290</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -5928,7 +6156,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -5986,10 +6214,10 @@
     </row>
     <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>292</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -6073,10 +6301,10 @@
     </row>
     <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -8830,7 +9058,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -8913,7 +9141,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>299</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -8951,7 +9179,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -9019,10 +9247,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -9102,10 +9330,10 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>302</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -9140,10 +9368,10 @@
     </row>
     <row ht="28.8" r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>303</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -9316,7 +9544,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9372,7 +9600,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9428,7 +9656,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -9484,7 +9712,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -9650,7 +9878,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>246</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9716,7 +9944,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -9779,10 +10007,10 @@
     </row>
     <row ht="72" r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -9845,10 +10073,10 @@
     </row>
     <row ht="72" r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10024,7 +10252,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10090,7 +10318,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10153,10 +10381,10 @@
     </row>
     <row ht="72" r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -10219,10 +10447,10 @@
     </row>
     <row ht="72" r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10389,7 +10617,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -10446,7 +10674,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10500,10 +10728,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -10557,10 +10785,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -12075,7 +12303,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12155,7 +12383,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12193,7 +12421,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>69</v>
@@ -12255,10 +12483,10 @@
     </row>
     <row ht="28.8" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
@@ -12335,10 +12563,10 @@
     </row>
     <row ht="28.8" r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>262</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -12373,10 +12601,10 @@
     </row>
     <row ht="43.2" r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>69</v>
@@ -13949,7 +14177,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -14031,7 +14259,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="307">
   <si>
     <t>Result</t>
   </si>
@@ -785,6 +785,213 @@
   </si>
   <si>
     <t>Mon Nov 04 22:07:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 28 23:18:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 28 23:36:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 28 23:53:07 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 00:11:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 00:28:23 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 00:46:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 01:03:30 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 01:21:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 01:38:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 01:57:27 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 02:15:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 02:33:03 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 02:50:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 03:09:19 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 03:27:31 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 03:44:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 04:01:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 04:20:29 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 04:38:49 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 04:56:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 05:14:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 05:32:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 05:51:36 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 06:09:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 06:27:41 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 06:47:46 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 07:06:59 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 07:25:16 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 07:44:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 08:02:15 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 08:21:24 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 08:39:42 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 08:57:12 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 09:15:25 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 09:33:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 09:54:09 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 10:13:44 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 10:32:22 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 10:50:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 11:10:26 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 11:30:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 11:47:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 12:04:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 12:24:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 12:44:00 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 13:01:20 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 13:18:40 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 13:36:35 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 13:54:05 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 14:12:58 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 14:32:03 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 14:49:14 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 15:07:02 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 15:25:51 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 15:44:26 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 16:01:51 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 16:18:54 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 16:37:45 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 16:56:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 17:14:06 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 17:32:08 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 17:50:39 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 18:09:38 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 18:27:04 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 18:44:34 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 19:02:10 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 19:19:18 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 21:01:53 IST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 21:35:12 IST 2024</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1528,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1359,7 +1566,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1439,7 +1646,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -1519,7 +1726,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -1587,7 +1794,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>304</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -3021,10 +3228,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -3102,10 +3309,10 @@
     </row>
     <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -3155,10 +3362,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -3236,10 +3443,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>275</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -3395,10 +3602,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3449,10 +3656,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -3534,7 +3741,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -3588,7 +3795,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -3777,7 +3984,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -3864,7 +4071,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -3922,10 +4129,10 @@
     </row>
     <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -4009,10 +4216,10 @@
     </row>
     <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>291</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -4180,7 +4387,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -4267,7 +4474,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -4325,10 +4532,10 @@
     </row>
     <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>298</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -4412,10 +4619,10 @@
     </row>
     <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>299</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -4574,10 +4781,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4628,10 +4835,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -4713,7 +4920,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -4767,7 +4974,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -4947,10 +5154,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -5028,10 +5235,10 @@
     </row>
     <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -5081,10 +5288,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -5162,10 +5369,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -5841,7 +6048,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -5928,7 +6135,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -5986,10 +6193,10 @@
     </row>
     <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -6073,10 +6280,10 @@
     </row>
     <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>295</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -9313,10 +9520,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9369,10 +9576,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9428,7 +9635,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -9484,7 +9691,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -9647,10 +9854,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9713,10 +9920,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -9779,10 +9986,10 @@
     </row>
     <row ht="72" r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -9845,10 +10052,10 @@
     </row>
     <row ht="72" r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10021,10 +10228,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10087,10 +10294,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10153,10 +10360,10 @@
     </row>
     <row ht="72" r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -10219,10 +10426,10 @@
     </row>
     <row ht="72" r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10386,10 +10593,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -10443,10 +10650,10 @@
     </row>
     <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10500,10 +10707,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -10557,10 +10764,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10720,10 +10927,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -10771,10 +10978,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10932,10 +11139,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -10992,10 +11199,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11162,10 +11369,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -11222,10 +11429,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11383,10 +11590,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11436,7 +11643,7 @@
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12072,10 +12279,10 @@
     </row>
     <row ht="28.8" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12152,10 +12359,10 @@
     </row>
     <row ht="28.8" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12190,10 +12397,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>69</v>
@@ -12255,10 +12462,10 @@
     </row>
     <row ht="28.8" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
@@ -12335,10 +12542,10 @@
     </row>
     <row ht="28.8" r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -12373,10 +12580,10 @@
     </row>
     <row ht="43.2" r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>69</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D920EF28-2E9D-422F-9A2B-5D239D5EC53D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C640D132-C425-4273-B4D7-D815E04CB573}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="21" firstSheet="19" tabRatio="980" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="9" firstSheet="7" tabRatio="980" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3723" uniqueCount="249">
   <si>
     <t>Result</t>
   </si>
@@ -352,9 +352,6 @@
     <t>01</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>6510000000000210</t>
   </si>
   <si>
@@ -406,288 +403,12 @@
     <t>825</t>
   </si>
   <si>
-    <t>Mon Oct 14 20:05:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:50:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:51:47 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:52:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:54:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:55:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Oct 15 06:57:37 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 23 19:09:25 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 23 19:11:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 23 19:13:28 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 23 19:15:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 23 19:24:44 IST 2024</t>
-  </si>
-  <si>
-    <t>Wed Oct 23 19:42:35 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:54:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:56:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:58:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:00:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:02:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:03:51 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:06:02 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:07:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:09:55 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:11:36 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:13:18 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:15:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:17:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:19:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:21:02 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:22:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:24:23 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:26:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:27:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:29:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:32:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:33:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:35:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:37:53 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:40:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:42:15 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:44:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:46:47 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:49:16 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:51:01 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:52:41 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:54:25 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:56:40 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:58:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:01:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:03:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:05:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:07:44 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:10:13 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:12:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:14:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:16:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:18:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:20:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:22:14 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:24:12 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:35:25 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:37:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:39:30 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:42:03 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:44:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:46:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:48:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:51:11 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:53:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:55:48 IST 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 23:57:47 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:00:21 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:02:51 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:04:31 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:06:16 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:08:03 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:09:47 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:11:25 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:13:08 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:14:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:33:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:34:58 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 00:36:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:18:22 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:20:10 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:21:56 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:23:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:26:00 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:27:57 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:30:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 01:32:24 IST 2024</t>
-  </si>
-  <si>
     <t>Fri Oct 25 02:36:05 IST 2024</t>
   </si>
   <si>
     <t>Fri Oct 25 02:37:54 IST 2024</t>
   </si>
   <si>
-    <t>Fri Oct 25 02:39:38 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:41:22 IST 2024</t>
-  </si>
-  <si>
     <t>Fri Oct 25 02:46:33 IST 2024</t>
   </si>
   <si>
@@ -775,244 +496,328 @@
     <t>Mon Oct 28 19:52:54 IST 2024</t>
   </si>
   <si>
-    <t>Mon Oct 28 19:54:48 IST 2024</t>
-  </si>
-  <si>
     <t>2000.50</t>
   </si>
   <si>
+    <t>Mon Nov 04 22:07:50 IST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:04:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:05:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:06:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:08:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:09:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:10:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:33:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:34:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:35:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:36:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:37:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:38:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:48:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Jan 20 21:49:49 EST 2025</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 16:29:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 16:30:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 16:31:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 16:33:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 16:34:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 16:35:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 16:36:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 16:44:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 19:48:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 19:50:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 19:51:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 19:52:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 19:54:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 19:55:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 19:57:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 19:58:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 19:59:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:00:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:01:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:02:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:04:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:05:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:06:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:07:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:08:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:10:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:11:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:12:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:14:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:15:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:22:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:24:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:25:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:26:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:28:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:29:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:31:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:32:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:33:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:35:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:36:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:38:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:39:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:40:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:41:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:42:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:43:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:44:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:45:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 21 20:47:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:30:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:31:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:33:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:34:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:35:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:36:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:37:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:38:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:39:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:40:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:41:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:42:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:43:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:44:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:45:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 12:46:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:27:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:28:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:54:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:56:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:57:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:58:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 14:59:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 15:01:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 15:03:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Jan 22 15:04:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 13:25:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 13:26:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Suite 500</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Mon Nov 04 22:07:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:17:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:18:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:19:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:21:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:22:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:23:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:24:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:26:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:27:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:28:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:29:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:30:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:32:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:33:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:34:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:36:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:37:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:39:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:40:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:43:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:45:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:46:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:47:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:48:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:50:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:51:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:53:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:54:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:56:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 19:58:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:01:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:02:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:03:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:05:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:06:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:07:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:09:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:10:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:11:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:13:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:14:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:15:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:16:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:18:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:20:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:21:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:22:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:25:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:27:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:29:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:30:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:32:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:35:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:36:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:38:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:40:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:42:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:44:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:45:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:48:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:50:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:51:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:52:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:53:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:55:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:57:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:58:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 20:59:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 21:00:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 21:01:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 21:03:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 21:04:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 21:05:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 21:06:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 21:07:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Dec 03 21:08:29 EST 2024</t>
+    <t>Fri Jan 24 13:45:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 13:47:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:20:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:21:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:36:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:37:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:38:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:40:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:41:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 24 14:43:03 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1431,34 +1236,34 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="1" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="6.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="8.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="13.44140625" collapsed="true"/>
-    <col min="9" max="17" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="1" width="8.77734375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.44140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="17.21875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="6.5546875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" style="1" width="7.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="13.42578125" collapsed="true"/>
+    <col min="9" max="17" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
+    <col min="23" max="24" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
     <col min="25" max="25" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="6.21875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
     <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="14.77734375" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,22 +1319,22 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -1544,12 +1349,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="28.8" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1582,12 +1387,12 @@
         <v>15</v>
       </c>
     </row>
-    <row ht="28.8" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1662,12 +1467,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="28.8" r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -1742,12 +1547,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="45" r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -1810,12 +1615,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="28.8" r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -1824,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
@@ -1848,12 +1653,12 @@
         <v>15</v>
       </c>
     </row>
-    <row ht="28.8" r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -1862,13 +1667,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -1928,12 +1733,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="28.8" r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>207</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1942,13 +1747,13 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>18</v>
@@ -2008,12 +1813,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="43.2" r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="45" r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>311</v>
+        <v>208</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -2022,13 +1827,13 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>18</v>
@@ -2089,13 +1894,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A771A143-9840-4DFA-B0E0-D15CFA2A9A1E}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AB3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2151,22 +1956,22 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -2181,12 +1986,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -2255,7 +2060,9 @@
       <c r="Y2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="AA2" s="1" t="s">
         <v>32</v>
       </c>
@@ -2263,12 +2070,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -2277,13 +2084,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -2337,7 +2144,9 @@
       <c r="Y3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="AA3" s="1" t="s">
         <v>32</v>
       </c>
@@ -2358,9 +2167,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2416,22 +2225,22 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -2446,12 +2255,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -2528,12 +2337,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -2542,13 +2351,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -2623,9 +2432,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2711,10 +2520,10 @@
         <v>58</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="60" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -2794,7 +2603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -2804,13 +2613,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -2887,9 +2696,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2975,15 +2784,15 @@
         <v>58</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="60" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -3062,12 +2871,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -3076,13 +2885,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -3159,9 +2968,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3244,15 +3053,15 @@
         <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -3328,12 +3137,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -3381,12 +3190,12 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -3395,13 +3204,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -3462,12 +3271,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -3476,13 +3285,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3533,9 +3342,9 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3591,22 +3400,22 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -3621,12 +3430,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3675,12 +3484,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -3757,12 +3566,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -3771,13 +3580,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3811,12 +3620,12 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row ht="72" r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -3825,13 +3634,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -3906,9 +3715,9 @@
       <selection activeCell="E4" sqref="E4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3997,15 +3806,15 @@
         <v>58</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="90" r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -4087,12 +3896,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="90" r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -4148,12 +3957,12 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="90" r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -4162,13 +3971,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -4235,12 +4044,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="90" r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -4249,13 +4058,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4309,9 +4118,9 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4400,15 +4209,15 @@
         <v>58</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="90" r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -4490,12 +4299,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="90" r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -4551,12 +4360,12 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="90" r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>195</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -4565,13 +4374,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -4638,12 +4447,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="90" r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -4652,13 +4461,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4712,9 +4521,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4770,22 +4579,22 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -4800,12 +4609,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4837,7 +4646,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>13</v>
@@ -4854,12 +4663,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -4936,12 +4745,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -4950,13 +4759,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4973,7 +4782,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>13</v>
@@ -4990,12 +4799,12 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row ht="72" r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -5004,13 +4813,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -5085,9 +4894,9 @@
       <selection activeCell="E4" sqref="E4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5170,15 +4979,15 @@
         <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -5254,12 +5063,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -5307,12 +5116,12 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -5321,13 +5130,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -5388,12 +5197,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -5402,13 +5211,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -5459,31 +5268,31 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="21.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="6.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
-    <col min="9" max="14" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="7.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="6.77734375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
-    <col min="18" max="20" customWidth="true" style="1" width="10.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="18" max="20" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
     <col min="21" max="21" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="22" max="24" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="15.77734375" collapsed="true"/>
+    <col min="22" max="24" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
     <col min="26" max="26" customWidth="true" style="1" width="4.0" collapsed="true"/>
     <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="23.5546875" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5569,15 +5378,15 @@
         <v>58</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="30" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -5655,12 +5464,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -5693,12 +5502,12 @@
         <v>86</v>
       </c>
     </row>
-    <row ht="28.8" r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -5764,12 +5573,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -5778,13 +5587,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -5847,12 +5656,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -5861,13 +5670,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
@@ -5885,12 +5694,12 @@
         <v>86</v>
       </c>
     </row>
-    <row ht="28.8" r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -5899,13 +5708,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -5970,9 +5779,9 @@
       <selection activeCell="E4" sqref="E4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6061,15 +5870,15 @@
         <v>58</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="90" r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -6151,12 +5960,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="90" r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -6212,12 +6021,12 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="90" r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -6226,13 +6035,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -6299,12 +6108,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row ht="90" r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -6313,13 +6122,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -6373,9 +6182,9 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6461,10 +6270,10 @@
         <v>58</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="90" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -6548,7 +6357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="86.4" r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="90" r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -6606,19 +6415,19 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row ht="43.2" r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="45" r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
@@ -6685,19 +6494,19 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6747,13 +6556,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A79848-7E61-44B5-97E7-0F536B72AE4E}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6809,22 +6618,22 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -6839,12 +6648,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -6921,12 +6730,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -6935,16 +6744,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -7016,9 +6825,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7101,15 +6910,15 @@
         <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7185,12 +6994,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -7199,16 +7008,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -7284,9 +7093,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7378,15 +7187,15 @@
         <v>58</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7471,12 +7280,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -7485,16 +7294,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -7565,9 +7374,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7659,15 +7468,15 @@
         <v>58</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7752,12 +7561,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -7766,16 +7575,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -7846,9 +7655,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7940,15 +7749,15 @@
         <v>58</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8033,12 +7842,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -8047,13 +7856,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>73</v>
@@ -8124,12 +7933,16 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="18.28515625" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8185,22 +7998,22 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -8215,12 +8028,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -8297,12 +8110,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -8311,13 +8124,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>73</v>
@@ -8358,14 +8171,14 @@
       <c r="T3" s="1">
         <v>256072691</v>
       </c>
-      <c r="U3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="V3" s="1">
-        <v>12344444</v>
-      </c>
-      <c r="W3" s="1">
-        <v>123456789</v>
+      <c r="U3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>31</v>
@@ -8391,9 +8204,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8476,15 +8289,15 @@
         <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8560,12 +8373,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -8574,13 +8387,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>73</v>
@@ -8659,9 +8472,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8753,15 +8566,15 @@
         <v>58</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8846,12 +8659,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -8860,13 +8673,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>73</v>
@@ -8940,31 +8753,31 @@
       <selection activeCell="E5" sqref="E5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="6.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
-    <col min="9" max="14" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="7.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="6.77734375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
-    <col min="18" max="20" customWidth="true" style="1" width="10.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="18" max="20" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
     <col min="21" max="21" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="22" max="24" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="15.77734375" collapsed="true"/>
+    <col min="22" max="24" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
     <col min="26" max="26" customWidth="true" style="1" width="4.0" collapsed="true"/>
     <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="23.5546875" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9050,15 +8863,15 @@
         <v>58</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="30" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -9136,12 +8949,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -9174,12 +8987,12 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="28.8" r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -9245,12 +9058,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -9259,13 +9072,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -9328,12 +9141,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -9342,13 +9155,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
@@ -9366,12 +9179,12 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="28.8" r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -9380,13 +9193,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -9451,9 +9264,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9509,22 +9322,22 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -9539,12 +9352,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9595,12 +9408,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9651,12 +9464,12 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="2"/>
     </row>
-    <row ht="72" r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -9665,13 +9478,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
@@ -9707,12 +9520,12 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row ht="72" r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -9721,13 +9534,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -9776,9 +9589,9 @@
       <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9870,15 +9683,15 @@
         <v>58</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9939,12 +9752,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10005,12 +9818,12 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row ht="72" r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -10019,13 +9832,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
@@ -10071,12 +9884,12 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row ht="72" r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10085,13 +9898,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -10150,9 +9963,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10244,15 +10057,15 @@
         <v>58</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10313,12 +10126,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10379,12 +10192,12 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row ht="72" r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -10393,13 +10206,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
@@ -10445,12 +10258,12 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row ht="72" r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10459,13 +10272,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -10524,9 +10337,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10609,15 +10422,15 @@
         <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -10669,12 +10482,12 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10726,12 +10539,12 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -10740,13 +10553,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>79</v>
@@ -10783,12 +10596,12 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10797,13 +10610,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>78</v>
@@ -10855,12 +10668,12 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10943,15 +10756,15 @@
         <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -10997,12 +10810,12 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11011,13 +10824,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -11061,9 +10874,9 @@
       <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11155,15 +10968,15 @@
         <v>58</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -11218,12 +11031,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11232,13 +11045,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -11291,9 +11104,9 @@
       <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11385,15 +11198,15 @@
         <v>58</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -11448,12 +11261,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11462,13 +11275,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -11518,12 +11331,12 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G3"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11579,22 +11392,22 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -11609,12 +11422,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11659,12 +11472,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11673,13 +11486,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -11696,7 +11509,9 @@
       <c r="T3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="1"/>
+      <c r="U3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="V3" s="1" t="s">
         <v>14</v>
       </c>
@@ -11719,12 +11534,12 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11780,22 +11595,22 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -11810,12 +11625,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -11870,12 +11685,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -11884,13 +11699,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
@@ -11911,7 +11726,9 @@
       <c r="T3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="1"/>
+      <c r="U3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="V3" s="1" t="s">
         <v>14</v>
       </c>
@@ -11943,9 +11760,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12037,15 +11854,15 @@
         <v>58</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12106,12 +11923,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -12120,13 +11937,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
@@ -12185,34 +12002,34 @@
       <selection activeCell="E5" sqref="E5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="6.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="15.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="7.77734375" collapsed="true"/>
-    <col min="9" max="14" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="7.44140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="6.77734375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="9.77734375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="1" width="10.77734375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="14.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
     <col min="20" max="20" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="15.109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="15.140625" collapsed="true"/>
     <col min="23" max="23" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="15.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
     <col min="25" max="25" customWidth="true" style="1" width="4.0" collapsed="true"/>
     <col min="26" max="26" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="23.5546875" collapsed="true"/>
-    <col min="28" max="16384" style="1" width="9.109375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="28" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12295,15 +12112,15 @@
         <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="28.8" r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="30" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12378,12 +12195,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="28.8" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12416,12 +12233,12 @@
         <v>123456789</v>
       </c>
     </row>
-    <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="45" r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>69</v>
@@ -12481,12 +12298,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="28.8" r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
@@ -12495,13 +12312,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
@@ -12561,12 +12378,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="28.8" r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -12575,13 +12392,13 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>26</v>
@@ -12599,12 +12416,12 @@
         <v>123456789</v>
       </c>
     </row>
-    <row ht="43.2" r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="45" r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>69</v>
@@ -12613,13 +12430,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -12678,9 +12495,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12763,15 +12580,15 @@
         <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12823,12 +12640,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -12837,13 +12654,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
@@ -12898,9 +12715,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12992,15 +12809,15 @@
         <v>58</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13061,12 +12878,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13078,10 +12895,10 @@
         <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>79</v>
@@ -13140,9 +12957,9 @@
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13234,15 +13051,15 @@
         <v>58</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13316,9 +13133,9 @@
       <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13410,15 +13227,15 @@
         <v>58</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13488,13 +13305,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00FDC39-BDF2-4377-92A2-1FC9690FDA62}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13550,22 +13367,22 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -13580,12 +13397,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -13653,9 +13470,9 @@
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13738,15 +13555,15 @@
         <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13813,12 +13630,12 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13874,22 +13691,22 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -13904,12 +13721,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -13972,7 +13789,7 @@
         <v>92</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
@@ -13986,12 +13803,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -14000,13 +13817,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -14054,7 +13871,7 @@
         <v>92</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
@@ -14081,12 +13898,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="20" customWidth="true" width="54.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="54.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14142,22 +13959,22 @@
         <v>49</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>55</v>
@@ -14172,12 +13989,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -14231,7 +14048,7 @@
         <v>29</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>13</v>
@@ -14254,12 +14071,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -14268,13 +14085,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -14313,7 +14130,7 @@
         <v>29</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>13</v>
@@ -14350,9 +14167,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14435,15 +14252,15 @@
         <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -14491,12 +14308,12 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -14505,13 +14322,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -14562,9 +14379,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14647,15 +14464,15 @@
         <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="115.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="120" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -14721,12 +14538,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="115.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="120" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -14735,13 +14552,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -14805,9 +14622,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14890,15 +14707,15 @@
         <v>58</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="115.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="120" r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -14964,12 +14781,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="115.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row ht="120" r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -14978,13 +14795,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -15048,9 +14865,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15136,10 +14953,10 @@
         <v>58</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="60" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
@@ -15219,7 +15036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -15229,13 +15046,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -15312,9 +15129,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15400,15 +15217,15 @@
         <v>58</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row ht="60" r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -15487,12 +15304,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -15501,13 +15318,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3723" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="250">
   <si>
     <t>Result</t>
   </si>
@@ -818,6 +818,9 @@
   </si>
   <si>
     <t>Fri Jan 24 14:43:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Jan 31 21:41:27 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -11427,7 +11430,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t476046\Documents\katalon\VPS-Katalon\KatalonData\IWPTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C640D132-C425-4273-B4D7-D815E04CB573}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{92B66FCC-5133-4673-9341-94F7DB6C9342}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="7" tabRatio="980" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="1" tabRatio="980" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="374">
   <si>
     <t>Result</t>
   </si>
@@ -403,424 +403,796 @@
     <t>825</t>
   </si>
   <si>
-    <t>Fri Oct 25 02:36:05 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:37:54 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:46:33 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:48:18 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:50:04 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:51:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:53:43 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:55:27 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:57:08 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 02:58:52 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:00:34 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:02:18 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:03:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:05:44 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:07:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:09:09 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:10:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:12:20 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:13:49 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:15:29 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:17:07 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:18:47 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:20:24 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:22:04 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:23:42 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:25:21 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:26:59 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:28:39 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:30:18 IST 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 03:31:57 IST 2024</t>
-  </si>
-  <si>
     <t>Mon Oct 28 19:52:54 IST 2024</t>
   </si>
   <si>
     <t>2000.50</t>
   </si>
   <si>
-    <t>Mon Nov 04 22:07:50 IST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:04:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:05:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:06:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:08:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:09:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:10:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:33:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:34:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:35:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:36:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:37:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:38:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:48:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Jan 20 21:49:49 EST 2025</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>Tue Jan 21 16:29:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 16:30:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 16:31:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 16:33:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 16:34:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 16:35:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 16:36:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 16:44:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 19:48:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 19:50:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 19:51:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 19:52:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 19:54:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 19:55:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 19:57:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 19:58:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 19:59:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:00:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:01:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:02:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:04:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:05:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:06:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:07:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:08:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:10:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:11:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:12:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:14:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:15:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:22:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:24:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:25:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:26:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:28:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:29:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:31:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:32:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:33:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:35:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:36:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:38:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:39:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:40:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:41:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:42:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:43:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:44:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:45:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 21 20:47:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:30:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:31:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:33:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:34:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:35:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:36:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:37:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:38:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:39:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:40:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:41:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:42:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:43:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:44:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:45:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 12:46:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:27:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:28:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:54:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:56:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:57:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:58:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 14:59:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 15:01:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 15:03:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Jan 22 15:04:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 13:25:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 13:26:04 EST 2025</t>
-  </si>
-  <si>
     <t>Suite 500</t>
   </si>
   <si>
+    <t>Wed Feb 26 01:47:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 01:48:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 01:49:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 01:50:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 01:51:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 01:53:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 01:54:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 01:56:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 01:57:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 01:59:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:00:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:08:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:09:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:11:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:12:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:13:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:15:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:16:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:18:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:19:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:21:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:23:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:24:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:26:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:27:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:28:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:29:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:31:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:32:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:33:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:34:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:35:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:36:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:37:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:39:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:40:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:41:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:42:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:43:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:44:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:45:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:47:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:48:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:49:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:50:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:51:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 02:52:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:34:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:35:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:36:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:38:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:39:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:40:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:42:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 03:43:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:24:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:25:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:27:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:28:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:29:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:30:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:31:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:32:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:34:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:35:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:36:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:37:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:38:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:39:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:41:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:42:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:43:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:44:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:45:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:47:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:48:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:48:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:50:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:51:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:52:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:53:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:54:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:55:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:56:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:57:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 04:59:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:00:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:01:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:02:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:03:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:04:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:05:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:06:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:08:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:09:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 05:10:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 22:23:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 22:25:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 22:42:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 22:43:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 22:47:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 22:49:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 23:06:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 26 23:08:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:28:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:29:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:31:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:32:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:34:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:35:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:37:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:39:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:40:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:41:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:43:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:44:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:46:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:57:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 21:59:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:00:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:02:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:07:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:09:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:11:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:12:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:13:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:14:42 IST 2025</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Fri Jan 24 13:45:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 13:47:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:20:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:21:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:36:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:37:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:38:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:40:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:41:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 24 14:43:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Jan 31 21:41:27 EST 2025</t>
+    <t>Thu Mar 20 22:19:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:20:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:22:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:23:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:24:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:25:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:26:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:28:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:29:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:31:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:32:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:33:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:34:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:36:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:37:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:39:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:40:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:42:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:43:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:45:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:46:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:48:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:49:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:50:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:51:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:52:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:54:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:55:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:57:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 22:58:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:00:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:02:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:04:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:05:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:07:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:08:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:10:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:11:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:13:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:14:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:16:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:17:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:19:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:21:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:23:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:25:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:26:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:28:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:29:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:31:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:32:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:33:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:35:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:36:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:37:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:38:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:40:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:41:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:42:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:43:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:45:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:46:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:47:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:48:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:49:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:50:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:52:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:53:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:54:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:55:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:56:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:58:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 20 23:59:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:00:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:13:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:14:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:15:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:16:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:17:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:19:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:20:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:21:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:44:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:45:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:46:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:48:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:49:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:50:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:52:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 00:53:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:42:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:43:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:44:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:45:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:46:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:47:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:49:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:50:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:51:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:52:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:54:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:55:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:56:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:57:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:58:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 01:59:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:01:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:02:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:03:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:04:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:05:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:06:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:08:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:09:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:10:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:11:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:12:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:13:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:15:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:16:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:17:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:18:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:19:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:21:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:22:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:23:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:24:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:25:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:27:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:28:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 21 02:29:32 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1242,31 +1614,31 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.5703125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.5546875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="1" width="19.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="13.42578125" collapsed="true"/>
-    <col min="9" max="17" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="1" width="8.7109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" style="1" width="7.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="8.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="13.44140625" collapsed="true"/>
+    <col min="9" max="17" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="8.6640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="17.44140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="1" width="17.33203125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="6.5546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="23" max="24" customWidth="true" style="1" width="7.33203125" collapsed="true"/>
     <col min="25" max="25" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="1" width="6.33203125" collapsed="true"/>
     <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,12 +1724,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>293</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1390,12 +1762,12 @@
         <v>15</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1470,12 +1842,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -1550,12 +1922,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="45" r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>296</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -1618,12 +1990,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -1656,12 +2028,12 @@
         <v>15</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -1736,12 +2108,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="30" r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1816,12 +2188,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="45" r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -1897,13 +2269,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A771A143-9840-4DFA-B0E0-D15CFA2A9A1E}">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1989,12 +2361,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -2064,7 +2436,7 @@
         <v>31</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>237</v>
+        <v>114</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>32</v>
@@ -2073,12 +2445,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>318</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -2148,7 +2520,7 @@
         <v>31</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>237</v>
+        <v>114</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>32</v>
@@ -2170,9 +2542,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2258,12 +2630,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>325</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -2340,12 +2712,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>326</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -2435,9 +2807,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2526,9 +2898,13 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>321</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
       </c>
@@ -2606,9 +2982,13 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="60" r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>322</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
@@ -2699,9 +3079,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2790,12 +3170,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -2874,12 +3254,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="60" r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -2971,9 +3351,9 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3059,12 +3439,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -3140,12 +3520,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -3193,12 +3573,12 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row ht="60" r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -3274,12 +3654,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="60" r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -3345,9 +3725,9 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3433,12 +3813,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3487,12 +3867,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -3569,12 +3949,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -3623,12 +4003,12 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row ht="75" r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -3718,9 +4098,9 @@
       <selection activeCell="E4" sqref="E4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3812,12 +4192,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="90" r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -3899,12 +4279,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="90" r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -3960,12 +4340,12 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row ht="90" r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -4047,12 +4427,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="90" r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -4121,9 +4501,9 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4215,12 +4595,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="90" r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -4302,12 +4682,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="90" r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -4363,12 +4743,12 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row ht="90" r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -4450,12 +4830,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="90" r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -4524,9 +4904,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4612,12 +4992,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4666,12 +5046,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -4748,12 +5128,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -4802,12 +5182,12 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row ht="75" r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -4897,9 +5277,9 @@
       <selection activeCell="E4" sqref="E4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4985,12 +5365,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -5066,12 +5446,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -5119,12 +5499,12 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row ht="60" r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -5200,12 +5580,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="60" r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -5267,35 +5647,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="21.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
-    <col min="9" max="14" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="18" max="20" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="21.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" style="1" width="9.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="7.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="6.6640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="9.6640625" collapsed="true"/>
+    <col min="18" max="20" customWidth="true" style="1" width="10.6640625" collapsed="true"/>
     <col min="21" max="21" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="22" max="24" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="22" max="24" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="15.6640625" collapsed="true"/>
     <col min="26" max="26" customWidth="true" style="1" width="4.0" collapsed="true"/>
     <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="23.5546875" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5384,12 +5764,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -5467,12 +5847,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -5505,12 +5885,12 @@
         <v>86</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -5576,12 +5956,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>246</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -5659,12 +6039,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -5697,12 +6077,12 @@
         <v>86</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -5782,9 +6162,9 @@
       <selection activeCell="E4" sqref="E4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5876,12 +6256,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="90" r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -5963,12 +6343,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="90" r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -6024,12 +6404,12 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row ht="90" r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -6111,12 +6491,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="90" r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -6185,9 +6565,9 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6276,7 +6656,7 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="90" r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -6360,7 +6740,7 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="90" r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="86.4" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -6418,7 +6798,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row ht="45" r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -6497,7 +6877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -6563,9 +6943,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6651,12 +7031,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -6733,12 +7113,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>337</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -6756,7 +7136,7 @@
         <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -6828,9 +7208,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6916,12 +7296,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>338</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -6997,12 +7377,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -7020,7 +7400,7 @@
         <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -7096,9 +7476,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7193,12 +7573,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>340</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7283,12 +7663,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -7306,7 +7686,7 @@
         <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -7377,9 +7757,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7474,12 +7854,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>342</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7564,12 +7944,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -7587,7 +7967,7 @@
         <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>19</v>
@@ -7658,9 +8038,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7755,12 +8135,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7845,12 +8225,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>349</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -7939,13 +8319,13 @@
       <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="18.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8031,12 +8411,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>344</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -8113,12 +8493,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -8178,7 +8558,7 @@
         <v>13</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>15</v>
@@ -8207,9 +8587,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8295,12 +8675,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8376,12 +8756,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -8475,9 +8855,9 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8572,12 +8952,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>350</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8662,12 +9042,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -8756,31 +9136,31 @@
       <selection activeCell="E5" sqref="E5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
-    <col min="9" max="14" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="18" max="20" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" style="1" width="9.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="7.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="6.6640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="9.6640625" collapsed="true"/>
+    <col min="18" max="20" customWidth="true" style="1" width="10.6640625" collapsed="true"/>
     <col min="21" max="21" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="22" max="24" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="22" max="24" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="1" width="15.6640625" collapsed="true"/>
     <col min="26" max="26" customWidth="true" style="1" width="4.0" collapsed="true"/>
     <col min="27" max="27" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="29" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="23.5546875" collapsed="true"/>
+    <col min="29" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8869,12 +9249,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -8952,12 +9332,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -8990,12 +9370,12 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -9061,12 +9441,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -9144,12 +9524,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -9182,12 +9562,12 @@
         <v>89</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -9267,9 +9647,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9355,12 +9735,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9411,12 +9791,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9467,12 +9847,12 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="2"/>
     </row>
-    <row ht="75" r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>307</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -9523,12 +9903,12 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row ht="75" r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -9592,9 +9972,9 @@
       <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9689,12 +10069,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>309</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9755,12 +10135,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>310</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -9821,12 +10201,12 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row ht="75" r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -9887,12 +10267,12 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row ht="75" r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -9966,9 +10346,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10063,12 +10443,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10129,12 +10509,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10195,12 +10575,12 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row ht="75" r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -10261,12 +10641,12 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row ht="75" r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10340,9 +10720,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10428,12 +10808,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -10485,12 +10865,12 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10542,12 +10922,12 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row ht="60" r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -10599,12 +10979,12 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row ht="60" r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10674,9 +11054,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10762,12 +11142,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>368</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -10813,12 +11193,12 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>369</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10877,9 +11257,9 @@
       <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10974,12 +11354,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>370</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -11034,12 +11414,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>371</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11107,9 +11487,9 @@
       <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11204,12 +11584,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>372</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -11264,12 +11644,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>373</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11337,9 +11717,9 @@
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11425,12 +11805,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>366</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11475,12 +11855,12 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>367</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11540,9 +11920,9 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11628,12 +12008,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>354</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -11688,12 +12068,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -11763,9 +12143,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11860,12 +12240,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11926,12 +12306,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -12005,34 +12385,34 @@
       <selection activeCell="E5" sqref="E5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.44140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="5.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="7.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="6.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="7.7109375" collapsed="true"/>
-    <col min="9" max="14" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="1" width="7.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="26.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="7.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="6.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" style="1" width="9.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="7.44140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="6.6640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="1" width="9.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="10.6640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
     <col min="20" max="20" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="1" width="15.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="1" width="10.44140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="1" width="15.109375" collapsed="true"/>
     <col min="23" max="23" customWidth="true" style="1" width="10.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="15.6640625" collapsed="true"/>
     <col min="25" max="25" customWidth="true" style="1" width="4.0" collapsed="true"/>
     <col min="26" max="26" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
-    <col min="28" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="23.5546875" collapsed="true"/>
+    <col min="28" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12118,12 +12498,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12198,12 +12578,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12236,12 +12616,12 @@
         <v>123456789</v>
       </c>
     </row>
-    <row ht="45" r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>69</v>
@@ -12301,12 +12681,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
@@ -12381,12 +12761,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -12419,12 +12799,12 @@
         <v>123456789</v>
       </c>
     </row>
-    <row ht="45" r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>69</v>
@@ -12498,9 +12878,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12586,12 +12966,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>356</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12643,12 +13023,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -12718,9 +13098,9 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12815,12 +13195,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>360</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12881,12 +13261,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>361</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -12960,9 +13340,9 @@
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13057,12 +13437,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13136,9 +13516,9 @@
       <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13233,12 +13613,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13312,9 +13692,9 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13400,12 +13780,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -13473,9 +13853,9 @@
       <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13561,12 +13941,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>363</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13636,9 +14016,9 @@
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13724,12 +14104,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -13792,7 +14172,7 @@
         <v>92</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
@@ -13806,12 +14186,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>334</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -13874,7 +14254,7 @@
         <v>92</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
@@ -13901,12 +14281,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="54.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13992,12 +14372,12 @@
         <v>58</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>335</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -14074,12 +14454,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="75" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>336</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -14170,9 +14550,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14258,12 +14638,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>352</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -14311,12 +14691,12 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row ht="60" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>353</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -14382,9 +14762,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14470,12 +14850,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="120" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="115.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>319</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -14541,12 +14921,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="120" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="115.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>320</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -14625,9 +15005,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14713,12 +15093,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="120" r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="115.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -14784,12 +15164,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="120" r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row ht="115.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -14868,9 +15248,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14959,9 +15339,13 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>323</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
       </c>
@@ -15039,9 +15423,13 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="60" r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
@@ -15132,9 +15520,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row ht="30" r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="28.8" r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15223,12 +15611,12 @@
         <v>99</v>
       </c>
     </row>
-    <row ht="60" r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -15307,12 +15695,12 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="60" r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row ht="57.6" r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4215" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5375" uniqueCount="664">
   <si>
     <t>Result</t>
   </si>
@@ -1193,6 +1193,876 @@
   </si>
   <si>
     <t>Fri Mar 21 02:29:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 22:37:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 22:39:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 22:43:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Mar 27 22:45:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 18:53:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 18:55:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 19:03:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 19:04:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 19:08:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 19:09:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 19:20:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 19:21:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 21:28:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 21:29:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 21:30:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 21:32:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 21:33:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 21:34:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 21:53:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 21:55:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 21:56:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 21:57:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 21:58:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:00:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:01:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:02:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:03:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:05:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:06:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:07:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:08:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:10:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:11:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:13:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:14:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:16:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:17:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:19:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:20:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:22:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:23:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:24:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:25:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:27:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:28:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:29:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:31:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:32:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:34:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:35:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:37:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:38:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:40:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:41:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:43:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:45:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:46:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:48:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:49:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:51:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:52:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:54:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:55:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:57:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 22:58:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:00:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:02:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:03:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:05:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:06:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:07:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:08:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:10:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:11:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:12:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:13:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:14:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:16:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:17:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:18:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:19:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:20:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:21:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:23:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:24:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:25:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:26:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:27:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:29:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:30:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:31:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:32:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:46:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:47:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:49:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:50:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:51:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:52:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:54:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Mar 28 23:55:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 00:18:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 00:19:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 00:21:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 00:22:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 00:23:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 00:25:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 00:26:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 00:28:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:14:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:15:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:17:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:18:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:19:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:20:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:22:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:23:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:24:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:25:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:27:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:28:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:29:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:30:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:31:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:33:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:34:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:35:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:37:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:38:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:39:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:40:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:41:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:42:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:43:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:45:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:46:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:47:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:48:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:49:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:51:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 01:52:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 02:11:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 02:29:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 02:46:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 02:48:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 02:49:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 02:50:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 02:52:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 02:53:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 02:54:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 06:48:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 06:49:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 07:00:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Mar 29 07:07:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 03:22:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 03:24:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 03:25:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 03:28:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 03:36:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 03:40:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 03:57:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 03:58:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 03:59:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:01:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:02:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:03:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:04:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:06:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:07:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:08:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:09:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:10:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:12:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:13:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:15:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:16:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:18:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:19:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:21:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:22:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:24:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:25:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:26:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:27:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:29:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:30:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:31:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:32:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:34:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:36:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:37:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:39:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:40:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:42:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:43:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:45:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:46:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:48:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:50:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:51:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:53:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:54:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:56:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:57:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 04:59:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:00:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:02:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:03:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:05:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:06:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:08:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:09:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:10:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:12:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:13:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:14:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:15:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:16:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:18:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:19:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:20:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:21:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:22:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:23:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:25:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:26:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:27:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:28:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:29:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:31:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:32:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:33:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:34:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:35:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:48:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:49:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:50:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:51:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:53:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:54:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:55:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 05:57:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:20:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:21:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:23:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:24:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:25:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:27:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:28:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 06:30:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:15:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:16:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:18:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:19:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:20:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:21:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:23:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:24:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:25:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:26:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:27:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:29:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:30:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:31:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:32:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:34:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:35:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:36:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:37:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:39:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:39:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:40:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:42:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:43:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:44:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:45:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:46:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:48:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:49:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:50:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:51:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:52:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:53:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:55:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:56:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:57:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:58:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 07:59:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:00:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:02:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Apr 01 08:03:18 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -1726,10 +2596,10 @@
     </row>
     <row ht="28.8" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>583</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1767,7 +2637,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>584</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -1844,10 +2714,10 @@
     </row>
     <row ht="28.8" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>585</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -1924,10 +2794,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>586</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -1995,7 +2865,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>587</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -2033,7 +2903,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>588</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -2110,10 +2980,10 @@
     </row>
     <row ht="28.8" r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>589</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -2190,10 +3060,10 @@
     </row>
     <row ht="43.2" r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -2366,7 +3236,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>607</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -2450,7 +3320,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>608</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -2632,10 +3502,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>615</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -2717,7 +3587,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>616</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -2903,7 +3773,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>611</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -2987,7 +3857,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>612</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -3175,7 +4045,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>619</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -3259,7 +4129,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>620</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -3441,10 +4311,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>549</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -3525,7 +4395,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>550</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -3578,7 +4448,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>551</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -3656,10 +4526,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>552</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -3815,10 +4685,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>563</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3872,7 +4742,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>564</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -3954,7 +4824,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>565</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -4008,7 +4878,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>566</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -4194,10 +5064,10 @@
     </row>
     <row ht="72" r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>571</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -4284,7 +5154,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>572</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -4342,10 +5212,10 @@
     </row>
     <row ht="72" r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>573</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -4429,10 +5299,10 @@
     </row>
     <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>574</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -4600,7 +5470,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>575</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -4684,10 +5554,10 @@
     </row>
     <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>576</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -4748,7 +5618,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>577</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -4832,10 +5702,10 @@
     </row>
     <row ht="86.4" r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>578</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -4997,7 +5867,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>559</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5048,10 +5918,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>560</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -5130,10 +6000,10 @@
     </row>
     <row ht="72" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>561</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -5187,7 +6057,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>562</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -5367,10 +6237,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>545</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -5451,7 +6321,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>546</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -5501,10 +6371,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>547</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -5582,10 +6452,10 @@
     </row>
     <row ht="43.2" r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>548</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -5766,10 +6636,10 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>533</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -5852,7 +6722,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>534</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -5890,7 +6760,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>535</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -5958,10 +6828,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>536</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -6044,7 +6914,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>537</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -6082,7 +6952,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>538</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -6261,7 +7131,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>579</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -6345,10 +7215,10 @@
     </row>
     <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -6409,7 +7279,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>581</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -6496,7 +7366,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>582</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -7118,7 +7988,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>627</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -7301,7 +8171,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>628</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7382,7 +8252,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>629</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -7578,7 +8448,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>630</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7668,7 +8538,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>631</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -7859,7 +8729,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>632</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7949,7 +8819,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
+        <v>633</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -8140,7 +9010,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>638</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8230,7 +9100,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>639</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -8416,7 +9286,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>344</v>
+        <v>634</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -8498,7 +9368,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>635</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -8680,7 +9550,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>636</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8761,7 +9631,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>637</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -8957,7 +9827,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>640</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9047,7 +9917,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>641</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -9251,10 +10121,10 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>539</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -9334,10 +10204,10 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>540</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -9372,10 +10242,10 @@
     </row>
     <row ht="28.8" r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>541</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -9443,10 +10313,10 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>542</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -9526,10 +10396,10 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>543</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -9564,10 +10434,10 @@
     </row>
     <row ht="28.8" r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>544</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -9740,7 +10610,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>595</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9793,10 +10663,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>596</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -9849,10 +10719,10 @@
     </row>
     <row ht="72" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>597</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -9908,7 +10778,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>598</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -10074,7 +10944,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>599</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10137,10 +11007,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>600</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10206,7 +11076,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>601</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -10272,7 +11142,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>602</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10445,10 +11315,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>603</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10511,10 +11381,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>604</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10580,7 +11450,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>605</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -10643,10 +11513,10 @@
     </row>
     <row ht="72" r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>606</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10810,10 +11680,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>591</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -10870,7 +11740,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>592</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10924,10 +11794,10 @@
     </row>
     <row ht="43.2" r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>593</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -10984,7 +11854,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>594</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -11144,10 +12014,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>658</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -11198,7 +12068,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>659</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11356,10 +12226,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>660</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -11419,7 +12289,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>661</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11589,7 +12459,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>662</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -11646,10 +12516,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>663</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11810,7 +12680,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>656</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11857,10 +12727,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>657</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12013,7 +12883,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>644</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -12073,7 +12943,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>645</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -12245,7 +13115,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>648</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12311,7 +13181,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>649</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -12500,10 +13370,10 @@
     </row>
     <row ht="28.8" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>553</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12583,7 +13453,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>554</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12621,7 +13491,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>555</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>69</v>
@@ -12686,7 +13556,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>556</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
@@ -12766,7 +13636,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>557</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -12804,7 +13674,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>558</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>69</v>
@@ -12971,7 +13841,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>646</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13028,7 +13898,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>647</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13200,7 +14070,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>650</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13266,7 +14136,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>651</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13442,7 +14312,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>655</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13618,7 +14488,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>654</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13785,7 +14655,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>652</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -13946,7 +14816,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>653</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -14109,7 +14979,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>623</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -14191,7 +15061,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>624</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -14377,7 +15247,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>625</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -14459,7 +15329,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>626</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -14643,7 +15513,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>352</v>
+        <v>642</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -14696,7 +15566,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>643</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -14855,7 +15725,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>609</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -14926,7 +15796,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>610</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -15095,10 +15965,10 @@
     </row>
     <row ht="115.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>617</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -15166,10 +16036,10 @@
     </row>
     <row ht="115.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>618</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -15344,7 +16214,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>613</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -15428,7 +16298,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>614</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -15613,10 +16483,10 @@
     </row>
     <row ht="57.6" r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>621</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -15700,7 +16570,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>622</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5375" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6939" uniqueCount="1055">
   <si>
     <t>Result</t>
   </si>
@@ -2063,6 +2063,1179 @@
   </si>
   <si>
     <t>Tue Apr 01 08:03:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:43:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:45:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:46:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:47:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:48:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:49:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:50:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:52:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:53:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:54:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:55:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:56:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:57:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 04 23:59:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:00:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:02:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:03:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:05:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:06:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:08:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:09:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:11:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:12:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:13:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:14:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:15:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:16:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:18:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:19:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:21:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:22:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:23:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:25:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:26:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:28:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:29:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:31:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:32:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:34:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:35:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:36:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:38:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:39:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:41:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:42:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:44:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:45:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:47:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:48:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:49:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:51:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:52:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:53:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:54:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:56:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:57:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:58:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 00:59:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:00:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:01:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:03:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:04:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:05:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:06:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:07:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:08:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:09:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:10:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:12:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:13:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:14:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:15:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:16:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:18:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:30:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:31:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:33:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:34:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:35:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:36:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:37:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 01:39:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:01:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:02:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:03:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:04:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:05:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:07:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:08:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:10:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:55:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:56:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:58:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 02:59:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:00:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:02:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:03:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:04:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:05:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:06:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:07:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:09:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:10:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:11:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:12:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:13:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:15:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:16:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:17:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:18:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:19:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:20:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:21:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:22:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:23:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:25:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:26:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:27:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:28:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:29:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:30:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:31:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:32:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:34:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:35:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:36:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:37:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:38:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:39:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:40:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 03:41:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 07:38:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 07:39:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 07:40:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 07:41:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 07:43:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Sat Apr 05 07:44:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:07:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:08:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:08:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:09:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:10:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:11:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:12:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:12:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:13:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:14:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:15:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:16:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:16:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:17:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:18:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:19:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:20:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:21:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:22:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:24:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:25:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:25:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:26:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:27:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:28:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:29:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:29:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:31:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:32:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:33:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:34:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:35:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:36:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:37:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:38:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:39:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:40:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:41:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:42:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:43:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:44:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:45:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:47:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:48:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:49:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:50:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:51:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:52:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:53:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:54:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:55:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:56:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:56:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:57:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:58:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:59:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 12:59:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:00:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:01:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:02:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:02:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:03:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:04:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:05:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:06:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:06:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:07:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:08:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:09:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:10:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:10:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:11:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:12:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:13:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:20:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:21:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:21:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:22:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:23:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:23:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:24:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:25:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:39:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:39:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:40:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:41:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:42:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:43:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:43:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 13:44:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:15:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:15:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:16:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:17:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:18:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:19:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:19:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:20:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:21:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:22:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:23:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:24:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:24:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:25:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:26:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:27:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:28:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:28:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:29:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:30:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:31:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:32:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:33:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:33:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:34:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:35:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:36:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:37:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:37:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:38:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:39:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:40:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:41:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:41:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:42:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:43:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:44:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:45:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:46:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:46:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Apr 23 14:47:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 24 21:53:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Apr 24 22:04:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:22:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:23:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:24:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:24:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:25:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:26:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:27:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:28:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:29:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:30:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:31:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:32:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:33:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:34:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:35:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:36:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:37:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:38:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:39:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:40:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:41:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:43:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:44:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:45:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:46:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:47:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:48:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:49:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:50:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:51:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:52:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:53:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:54:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:55:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:56:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:57:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 06:58:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:00:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:01:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:02:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:03:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:03:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:04:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:05:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:06:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:07:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:08:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:08:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:09:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:10:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:11:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:12:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:13:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:13:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:14:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:15:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:16:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:17:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:17:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:18:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:19:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:20:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:21:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:22:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:29:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:29:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:30:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:31:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:31:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:32:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:33:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:34:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:48:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:48:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:49:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:50:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:51:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:52:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:53:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 07:54:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:23:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:24:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:25:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:26:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:27:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:28:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:29:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:30:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:30:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:31:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:32:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:33:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:34:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:35:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:36:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:36:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:37:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:38:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:39:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:40:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:40:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:41:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:42:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:43:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:44:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:44:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:45:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:46:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:47:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:48:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:49:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:50:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:50:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:51:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:52:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:53:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:54:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:55:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:55:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:56:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Apr 25 08:57:33 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -2599,7 +3772,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>583</v>
+        <v>974</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2637,7 +3810,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>584</v>
+        <v>975</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -2717,7 +3890,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>585</v>
+        <v>976</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -2797,7 +3970,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>586</v>
+        <v>977</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -2865,7 +4038,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>587</v>
+        <v>978</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -2903,7 +4076,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>588</v>
+        <v>979</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -2983,7 +4156,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>589</v>
+        <v>980</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -3063,7 +4236,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>590</v>
+        <v>981</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -3236,7 +4409,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>607</v>
+        <v>998</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -3320,7 +4493,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>608</v>
+        <v>999</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -3502,10 +4675,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>615</v>
+        <v>1006</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -3587,7 +4760,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>616</v>
+        <v>1007</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -3773,7 +4946,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>611</v>
+        <v>1002</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -3857,7 +5030,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>612</v>
+        <v>1003</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -4045,7 +5218,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>619</v>
+        <v>1010</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -4129,7 +5302,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>620</v>
+        <v>1011</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -4314,7 +5487,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>945</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -4395,7 +5568,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>550</v>
+        <v>946</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -4448,7 +5621,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>551</v>
+        <v>947</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -4529,7 +5702,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>552</v>
+        <v>948</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -4688,7 +5861,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>954</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4742,7 +5915,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>564</v>
+        <v>955</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -4824,7 +5997,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>565</v>
+        <v>956</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -4878,7 +6051,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>566</v>
+        <v>957</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -5067,7 +6240,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>571</v>
+        <v>962</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -5154,7 +6327,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>572</v>
+        <v>963</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -5215,7 +6388,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>573</v>
+        <v>964</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -5302,7 +6475,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>574</v>
+        <v>965</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -5470,7 +6643,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>575</v>
+        <v>966</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -5557,7 +6730,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>576</v>
+        <v>967</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -5618,7 +6791,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>577</v>
+        <v>968</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -5705,7 +6878,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>578</v>
+        <v>969</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -5867,7 +7040,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>559</v>
+        <v>950</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5921,7 +7094,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>560</v>
+        <v>951</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -6003,7 +7176,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>561</v>
+        <v>952</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -6057,7 +7230,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>562</v>
+        <v>953</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -6240,7 +7413,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>545</v>
+        <v>941</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -6321,7 +7494,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>546</v>
+        <v>942</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -6374,7 +7547,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
+        <v>943</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -6455,7 +7628,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>548</v>
+        <v>944</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -6639,7 +7812,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>934</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -6722,7 +7895,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>534</v>
+        <v>802</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -6760,7 +7933,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>535</v>
+        <v>803</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -6831,7 +8004,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>536</v>
+        <v>804</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -6914,7 +8087,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>537</v>
+        <v>805</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -6952,7 +8125,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>538</v>
+        <v>806</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -7131,7 +8304,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>579</v>
+        <v>970</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -7218,7 +8391,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>580</v>
+        <v>971</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -7279,7 +8452,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>581</v>
+        <v>972</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -7366,7 +8539,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>582</v>
+        <v>973</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -7988,7 +9161,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>627</v>
+        <v>1018</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -8171,7 +9344,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>628</v>
+        <v>1019</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8252,7 +9425,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>629</v>
+        <v>1020</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -8448,7 +9621,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>630</v>
+        <v>1021</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8538,7 +9711,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>631</v>
+        <v>1022</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -8729,7 +9902,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>632</v>
+        <v>1023</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8819,7 +9992,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>633</v>
+        <v>1024</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -9010,7 +10183,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>638</v>
+        <v>1029</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9100,7 +10273,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>639</v>
+        <v>1030</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -9286,7 +10459,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>634</v>
+        <v>1025</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -9368,7 +10541,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>635</v>
+        <v>1026</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -9550,7 +10723,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>636</v>
+        <v>1027</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9631,7 +10804,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>637</v>
+        <v>1028</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -9827,7 +11000,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>640</v>
+        <v>1031</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9917,7 +11090,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>641</v>
+        <v>1032</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -10124,7 +11297,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>539</v>
+        <v>935</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -10207,7 +11380,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>936</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -10245,7 +11418,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>541</v>
+        <v>937</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -10316,7 +11489,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>542</v>
+        <v>938</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -10399,7 +11572,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>543</v>
+        <v>939</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -10437,7 +11610,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>544</v>
+        <v>940</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -10610,7 +11783,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>595</v>
+        <v>986</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10666,7 +11839,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>596</v>
+        <v>987</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -10722,7 +11895,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>597</v>
+        <v>988</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -10778,7 +11951,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>598</v>
+        <v>989</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -10944,7 +12117,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>599</v>
+        <v>990</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11010,7 +12183,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>600</v>
+        <v>991</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11076,7 +12249,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>601</v>
+        <v>992</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -11142,7 +12315,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>602</v>
+        <v>993</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -11318,7 +12491,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>603</v>
+        <v>994</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11384,7 +12557,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>604</v>
+        <v>995</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11450,7 +12623,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>605</v>
+        <v>996</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -11516,7 +12689,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>606</v>
+        <v>997</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -11683,7 +12856,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>591</v>
+        <v>982</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -11740,7 +12913,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>592</v>
+        <v>983</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11797,7 +12970,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>593</v>
+        <v>984</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -11854,7 +13027,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>985</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -12017,7 +13190,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>658</v>
+        <v>1049</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -12068,7 +13241,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>659</v>
+        <v>1050</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12229,7 +13402,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>660</v>
+        <v>1051</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -12289,7 +13462,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>661</v>
+        <v>1052</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12459,7 +13632,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>662</v>
+        <v>1053</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -12519,7 +13692,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>663</v>
+        <v>1054</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12680,7 +13853,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>656</v>
+        <v>1047</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -12730,7 +13903,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>657</v>
+        <v>1048</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12883,7 +14056,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>644</v>
+        <v>1035</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -12943,7 +14116,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>645</v>
+        <v>1036</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -13115,7 +14288,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
+        <v>1039</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13181,7 +14354,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>649</v>
+        <v>1040</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13373,7 +14546,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>949</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13453,7 +14626,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>554</v>
+        <v>822</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13491,7 +14664,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>555</v>
+        <v>823</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>69</v>
@@ -13556,7 +14729,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>556</v>
+        <v>824</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
@@ -13636,7 +14809,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>557</v>
+        <v>825</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -13674,7 +14847,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>558</v>
+        <v>826</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>69</v>
@@ -13841,7 +15014,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>646</v>
+        <v>1037</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13898,7 +15071,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>647</v>
+        <v>1038</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -14070,7 +15243,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>650</v>
+        <v>1041</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -14136,7 +15309,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>651</v>
+        <v>1042</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -14312,7 +15485,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>655</v>
+        <v>1046</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -14488,7 +15661,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>654</v>
+        <v>1045</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -14655,7 +15828,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>652</v>
+        <v>1043</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -14816,7 +15989,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>653</v>
+        <v>1044</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -14979,7 +16152,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>623</v>
+        <v>1014</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -15061,7 +16234,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>624</v>
+        <v>1015</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -15247,7 +16420,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>625</v>
+        <v>1016</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -15329,7 +16502,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>626</v>
+        <v>1017</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -15513,7 +16686,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>642</v>
+        <v>1033</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -15566,7 +16739,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>643</v>
+        <v>1034</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -15725,7 +16898,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>609</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -15796,7 +16969,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>610</v>
+        <v>1001</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -15968,7 +17141,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>617</v>
+        <v>1008</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -16039,7 +17212,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>618</v>
+        <v>1009</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -16214,7 +17387,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>613</v>
+        <v>1004</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -16298,7 +17471,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>614</v>
+        <v>1005</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -16486,7 +17659,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>621</v>
+        <v>1012</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -16570,7 +17743,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>622</v>
+        <v>1013</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6939" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7423" uniqueCount="1176">
   <si>
     <t>Result</t>
   </si>
@@ -3236,6 +3236,369 @@
   </si>
   <si>
     <t>Fri Apr 25 08:57:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 19:56:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 19:58:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 19:59:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:00:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:01:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:01:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:02:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:03:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:04:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:05:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:06:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:07:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:08:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:09:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:10:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:11:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:12:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:13:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:14:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:15:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:16:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:17:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:18:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:19:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:20:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:22:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:23:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:24:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:25:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:26:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:27:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:28:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:29:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:30:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:31:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:32:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:33:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:34:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:35:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:36:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:37:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:38:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:39:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:39:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:40:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:41:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:42:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:43:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:44:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:44:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:45:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:46:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:47:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:48:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:48:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:49:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:50:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:51:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:52:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:52:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:53:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:54:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:55:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:55:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:06:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:07:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:08:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:08:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:09:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:10:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:10:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:11:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:36:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:37:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:38:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:38:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:39:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:40:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:41:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:42:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:27:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:28:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:28:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:29:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:30:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:31:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:31:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:32:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:33:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:34:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:34:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:35:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:36:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:37:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:38:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:38:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:39:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:40:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:41:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:41:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:42:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:43:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:44:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:45:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:45:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:46:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:47:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:48:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:48:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:49:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:50:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:51:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:51:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:52:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:53:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:54:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:54:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:55:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:56:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:57:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:57:52 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -3772,7 +4135,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>974</v>
+        <v>1095</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3810,7 +4173,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>975</v>
+        <v>1096</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -3890,7 +4253,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>976</v>
+        <v>1097</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -3970,7 +4333,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>977</v>
+        <v>1098</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -4038,7 +4401,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>978</v>
+        <v>1099</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -4076,7 +4439,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>979</v>
+        <v>1100</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -4156,7 +4519,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>980</v>
+        <v>1101</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -4236,7 +4599,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>981</v>
+        <v>1102</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -4409,7 +4772,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>998</v>
+        <v>1119</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -4493,7 +4856,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>999</v>
+        <v>1120</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -4678,7 +5041,7 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>1006</v>
+        <v>1127</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -4757,10 +5120,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>1007</v>
+        <v>1128</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -4946,7 +5309,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1002</v>
+        <v>1123</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -5030,7 +5393,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1003</v>
+        <v>1124</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -5218,7 +5581,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1010</v>
+        <v>1131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -5302,7 +5665,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1011</v>
+        <v>1132</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -5487,7 +5850,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>945</v>
+        <v>1066</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -5568,7 +5931,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>946</v>
+        <v>1067</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -5621,7 +5984,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>947</v>
+        <v>1068</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -5702,7 +6065,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>948</v>
+        <v>1069</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -5861,7 +6224,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>954</v>
+        <v>1075</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5915,7 +6278,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>955</v>
+        <v>1076</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -5997,7 +6360,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>956</v>
+        <v>1077</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -6051,7 +6414,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>957</v>
+        <v>1078</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -6240,7 +6603,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>962</v>
+        <v>1083</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -6327,7 +6690,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>963</v>
+        <v>1084</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -6388,7 +6751,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>964</v>
+        <v>1085</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -6475,7 +6838,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>965</v>
+        <v>1086</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -6643,7 +7006,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>966</v>
+        <v>1087</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -6730,7 +7093,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>967</v>
+        <v>1088</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -6791,7 +7154,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>968</v>
+        <v>1089</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -6878,7 +7241,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>969</v>
+        <v>1090</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -7040,7 +7403,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>950</v>
+        <v>1071</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7094,7 +7457,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>951</v>
+        <v>1072</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -7176,7 +7539,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>952</v>
+        <v>1073</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -7230,7 +7593,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>953</v>
+        <v>1074</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -7413,7 +7776,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>941</v>
+        <v>1062</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7494,7 +7857,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>942</v>
+        <v>1063</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -7547,7 +7910,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>943</v>
+        <v>1064</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -7628,7 +7991,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>944</v>
+        <v>1065</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -7812,7 +8175,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>934</v>
+        <v>1055</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -8304,7 +8667,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>970</v>
+        <v>1091</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -8391,7 +8754,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>971</v>
+        <v>1092</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -8452,7 +8815,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>972</v>
+        <v>1093</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -8539,7 +8902,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>973</v>
+        <v>1094</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -9161,7 +9524,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1018</v>
+        <v>1139</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -9344,7 +9707,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1019</v>
+        <v>1140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9425,7 +9788,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1020</v>
+        <v>1141</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -9621,7 +9984,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1021</v>
+        <v>1142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9711,7 +10074,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1022</v>
+        <v>1143</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -9902,7 +10265,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1023</v>
+        <v>1144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9992,7 +10355,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1024</v>
+        <v>1145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -10183,7 +10546,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1029</v>
+        <v>1150</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10273,7 +10636,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1030</v>
+        <v>1151</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -10459,7 +10822,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1025</v>
+        <v>1146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -10541,7 +10904,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1026</v>
+        <v>1147</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -10723,7 +11086,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1027</v>
+        <v>1148</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10804,7 +11167,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1028</v>
+        <v>1149</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -11000,7 +11363,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1031</v>
+        <v>1152</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11090,7 +11453,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1032</v>
+        <v>1153</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -11297,7 +11660,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>935</v>
+        <v>1056</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -11380,7 +11743,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>936</v>
+        <v>1057</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -11418,7 +11781,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>937</v>
+        <v>1058</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -11489,7 +11852,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>938</v>
+        <v>1059</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -11572,7 +11935,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>939</v>
+        <v>1060</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -11610,7 +11973,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>940</v>
+        <v>1061</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -11783,7 +12146,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>986</v>
+        <v>1107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11839,7 +12202,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>987</v>
+        <v>1108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11895,7 +12258,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>988</v>
+        <v>1109</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -11951,7 +12314,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>989</v>
+        <v>1110</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -12117,7 +12480,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>990</v>
+        <v>1111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12183,7 +12546,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>991</v>
+        <v>1112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12249,7 +12612,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>992</v>
+        <v>1113</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -12315,7 +12678,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>993</v>
+        <v>1114</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -12491,7 +12854,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>994</v>
+        <v>1115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12557,7 +12920,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>995</v>
+        <v>1116</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12623,7 +12986,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>996</v>
+        <v>1117</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -12689,7 +13052,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>997</v>
+        <v>1118</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -12856,7 +13219,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>982</v>
+        <v>1103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -12913,7 +13276,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>983</v>
+        <v>1104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12970,7 +13333,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>984</v>
+        <v>1105</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -13027,7 +13390,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>985</v>
+        <v>1106</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -13190,7 +13553,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1049</v>
+        <v>1170</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -13241,7 +13604,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1050</v>
+        <v>1171</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13402,7 +13765,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1051</v>
+        <v>1172</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -13462,7 +13825,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1052</v>
+        <v>1173</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13632,7 +13995,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1053</v>
+        <v>1174</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -13692,7 +14055,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1054</v>
+        <v>1175</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13853,7 +14216,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1047</v>
+        <v>1168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -13903,7 +14266,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1048</v>
+        <v>1169</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -14056,7 +14419,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1035</v>
+        <v>1156</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -14116,7 +14479,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1036</v>
+        <v>1157</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -14288,7 +14651,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1039</v>
+        <v>1160</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -14354,7 +14717,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1040</v>
+        <v>1161</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -14546,7 +14909,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>949</v>
+        <v>1070</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15014,7 +15377,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1037</v>
+        <v>1158</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15071,7 +15434,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1038</v>
+        <v>1159</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -15243,7 +15606,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1041</v>
+        <v>1162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15309,7 +15672,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1042</v>
+        <v>1163</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -15485,7 +15848,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1046</v>
+        <v>1167</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15661,7 +16024,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1045</v>
+        <v>1166</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15828,7 +16191,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1043</v>
+        <v>1164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -15989,7 +16352,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1044</v>
+        <v>1165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -16152,7 +16515,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1014</v>
+        <v>1135</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -16234,7 +16597,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1015</v>
+        <v>1136</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -16420,7 +16783,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1016</v>
+        <v>1137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -16502,7 +16865,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1017</v>
+        <v>1138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -16686,7 +17049,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1033</v>
+        <v>1154</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -16739,7 +17102,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1034</v>
+        <v>1155</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -16898,7 +17261,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1000</v>
+        <v>1121</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -16969,7 +17332,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1001</v>
+        <v>1122</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -17141,7 +17504,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1008</v>
+        <v>1129</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -17212,7 +17575,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1009</v>
+        <v>1130</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -17387,7 +17750,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1004</v>
+        <v>1125</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -17471,7 +17834,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1005</v>
+        <v>1126</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -17659,7 +18022,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1012</v>
+        <v>1133</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -17743,7 +18106,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1013</v>
+        <v>1134</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6939" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7955" uniqueCount="1309">
   <si>
     <t>Result</t>
   </si>
@@ -3236,6 +3236,768 @@
   </si>
   <si>
     <t>Fri Apr 25 08:57:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 19:56:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 19:58:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 19:59:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:00:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:01:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:01:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:02:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:03:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:04:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:05:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:06:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:07:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:08:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:09:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:10:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:11:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:12:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:13:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:14:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:15:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:16:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:17:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:18:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:19:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:20:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:22:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:23:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:24:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:25:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:26:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:27:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:28:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:29:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:30:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:31:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:32:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:33:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:34:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:35:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:36:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:37:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:38:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:39:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:39:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:40:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:41:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:42:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:43:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:44:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:44:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:45:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:46:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:47:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:48:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:48:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:49:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:50:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:51:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:52:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:52:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:53:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:54:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:55:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 20:55:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:06:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:07:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:08:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:08:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:09:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:10:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:10:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:11:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:36:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:37:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:38:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:38:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:39:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:40:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:41:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 21:42:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:27:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:28:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:28:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:29:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:30:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:31:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:31:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:32:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:33:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:34:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:34:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:35:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:36:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:37:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:38:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:38:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:39:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:40:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:41:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:41:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:42:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:43:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:44:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:45:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:45:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:46:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:47:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:48:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:48:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:49:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:50:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:51:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:51:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:52:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:53:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:54:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:54:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:55:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:56:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:57:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jun 03 22:57:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:10:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:11:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:12:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:13:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:14:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:15:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:15:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:16:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:17:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:18:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:20:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:21:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:22:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:23:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:24:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:25:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:26:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:27:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:28:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:29:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:30:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:31:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:32:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:33:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:34:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:35:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:37:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:38:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:39:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:40:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:41:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:42:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:43:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:44:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:45:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:46:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:48:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:49:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:50:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:51:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:52:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:53:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:53:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:54:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:55:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:56:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:56:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:57:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:58:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Aug 04 23:59:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:00:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:01:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:02:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:02:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:03:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:04:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:05:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:05:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:06:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:07:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:08:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:09:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:10:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:10:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:20:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:20:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:21:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:22:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:23:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:23:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:24:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:25:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:40:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:41:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:42:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:43:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:44:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:45:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:46:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 00:47:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:22:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:23:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:24:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:25:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:26:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:26:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:27:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:28:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:29:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:30:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:31:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:31:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:32:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:33:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:34:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:34:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:35:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:36:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:37:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:38:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:39:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:39:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:40:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:41:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:42:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:43:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:43:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:44:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:45:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:46:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:46:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:47:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:48:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:49:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:50:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:51:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:51:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:52:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:53:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:53:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 01:54:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:02:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:03:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:05:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:07:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:10:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Aug 05 22:11:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:31:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:32:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:34:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:35:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:37:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Aug 06 00:38:00 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -3772,7 +4534,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>974</v>
+        <v>1216</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -3810,7 +4572,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>975</v>
+        <v>1217</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -3890,7 +4652,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>976</v>
+        <v>1218</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -3970,7 +4732,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>977</v>
+        <v>1219</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -4038,7 +4800,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>978</v>
+        <v>1220</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -4076,7 +4838,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>979</v>
+        <v>1221</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -4156,7 +4918,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>980</v>
+        <v>1222</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -4236,7 +4998,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>981</v>
+        <v>1223</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -4409,7 +5171,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>998</v>
+        <v>1240</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -4493,7 +5255,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>999</v>
+        <v>1241</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -4675,10 +5437,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1006</v>
+        <v>1300</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -4760,7 +5522,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1007</v>
+        <v>1298</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -4946,7 +5708,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1002</v>
+        <v>1244</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -5030,7 +5792,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1003</v>
+        <v>1245</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -5218,7 +5980,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1010</v>
+        <v>1252</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -5302,7 +6064,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1011</v>
+        <v>1253</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -5487,7 +6249,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>945</v>
+        <v>1187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -5568,7 +6330,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>946</v>
+        <v>1188</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -5621,7 +6383,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>947</v>
+        <v>1189</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -5702,7 +6464,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>948</v>
+        <v>1190</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -5861,7 +6623,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>954</v>
+        <v>1196</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5915,7 +6677,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>955</v>
+        <v>1197</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -5997,7 +6759,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>956</v>
+        <v>1198</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -6051,7 +6813,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>957</v>
+        <v>1199</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -6240,7 +7002,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>962</v>
+        <v>1204</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -6327,7 +7089,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>963</v>
+        <v>1205</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -6388,7 +7150,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>964</v>
+        <v>1206</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -6475,7 +7237,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>965</v>
+        <v>1207</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -6643,7 +7405,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>966</v>
+        <v>1208</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -6730,7 +7492,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>967</v>
+        <v>1209</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -6791,7 +7553,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>968</v>
+        <v>1210</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -6878,7 +7640,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>969</v>
+        <v>1211</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -7040,7 +7802,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>950</v>
+        <v>1192</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7094,7 +7856,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>951</v>
+        <v>1193</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -7176,7 +7938,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>952</v>
+        <v>1194</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -7230,7 +7992,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>953</v>
+        <v>1195</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -7413,7 +8175,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>941</v>
+        <v>1183</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7494,7 +8256,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>942</v>
+        <v>1184</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -7547,7 +8309,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>943</v>
+        <v>1185</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -7628,7 +8390,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>944</v>
+        <v>1186</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -7812,7 +8574,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>934</v>
+        <v>1176</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -8304,7 +9066,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>970</v>
+        <v>1212</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -8391,7 +9153,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>971</v>
+        <v>1213</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -8452,7 +9214,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>972</v>
+        <v>1214</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -8539,7 +9301,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>973</v>
+        <v>1215</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -9161,7 +9923,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1018</v>
+        <v>1260</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -9344,7 +10106,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1019</v>
+        <v>1261</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9425,7 +10187,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1020</v>
+        <v>1262</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -9621,7 +10383,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1021</v>
+        <v>1263</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9711,7 +10473,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1022</v>
+        <v>1264</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -9902,7 +10664,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1023</v>
+        <v>1265</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9992,7 +10754,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1024</v>
+        <v>1266</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -10183,7 +10945,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1029</v>
+        <v>1271</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10273,7 +11035,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1030</v>
+        <v>1272</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -10459,7 +11221,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1025</v>
+        <v>1267</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -10541,7 +11303,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1026</v>
+        <v>1268</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -10723,7 +11485,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1027</v>
+        <v>1269</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10804,7 +11566,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1028</v>
+        <v>1270</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -11000,7 +11762,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1031</v>
+        <v>1273</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11090,7 +11852,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1032</v>
+        <v>1274</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -11297,7 +12059,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>935</v>
+        <v>1177</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -11380,7 +12142,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>936</v>
+        <v>1178</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -11418,7 +12180,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>937</v>
+        <v>1179</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -11489,7 +12251,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>938</v>
+        <v>1180</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -11572,7 +12334,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>939</v>
+        <v>1181</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -11610,7 +12372,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>940</v>
+        <v>1182</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -11783,7 +12545,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>986</v>
+        <v>1228</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -11839,7 +12601,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>987</v>
+        <v>1229</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -11895,7 +12657,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>988</v>
+        <v>1230</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -11951,7 +12713,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>989</v>
+        <v>1231</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -12117,7 +12879,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>990</v>
+        <v>1232</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12183,7 +12945,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>991</v>
+        <v>1233</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12249,7 +13011,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>992</v>
+        <v>1234</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -12315,7 +13077,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>993</v>
+        <v>1235</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -12491,7 +13253,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>994</v>
+        <v>1236</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12557,7 +13319,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>995</v>
+        <v>1237</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12623,7 +13385,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>996</v>
+        <v>1238</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -12689,7 +13451,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>997</v>
+        <v>1239</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -12856,7 +13618,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>982</v>
+        <v>1224</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -12913,7 +13675,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>983</v>
+        <v>1225</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -12970,7 +13732,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>984</v>
+        <v>1226</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -13027,7 +13789,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>985</v>
+        <v>1227</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -13190,7 +13952,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1049</v>
+        <v>1303</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -13241,7 +14003,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1050</v>
+        <v>1304</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13402,7 +14164,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1051</v>
+        <v>1305</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -13462,7 +14224,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1052</v>
+        <v>1306</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13632,7 +14394,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1053</v>
+        <v>1307</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -13692,7 +14454,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1054</v>
+        <v>1308</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13853,7 +14615,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1047</v>
+        <v>1289</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -13903,7 +14665,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1048</v>
+        <v>1290</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -14056,7 +14818,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1035</v>
+        <v>1277</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -14116,7 +14878,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1036</v>
+        <v>1278</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -14288,7 +15050,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1039</v>
+        <v>1281</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -14354,7 +15116,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1040</v>
+        <v>1282</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -14546,7 +15308,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>949</v>
+        <v>1191</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15014,7 +15776,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1037</v>
+        <v>1279</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15071,7 +15833,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1038</v>
+        <v>1280</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -15243,7 +16005,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1041</v>
+        <v>1283</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15309,7 +16071,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1042</v>
+        <v>1284</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -15485,7 +16247,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1046</v>
+        <v>1288</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15661,7 +16423,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1045</v>
+        <v>1287</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15828,7 +16590,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1043</v>
+        <v>1285</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -15989,7 +16751,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1044</v>
+        <v>1286</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -16152,7 +16914,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1014</v>
+        <v>1256</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -16234,7 +16996,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1015</v>
+        <v>1257</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -16420,7 +17182,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1016</v>
+        <v>1258</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -16502,7 +17264,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1017</v>
+        <v>1259</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -16686,7 +17448,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1033</v>
+        <v>1275</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -16739,7 +17501,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1034</v>
+        <v>1276</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -16898,7 +17660,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1000</v>
+        <v>1242</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -16969,7 +17731,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1001</v>
+        <v>1243</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -17141,7 +17903,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1008</v>
+        <v>1301</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -17212,7 +17974,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1009</v>
+        <v>1302</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -17387,7 +18149,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1004</v>
+        <v>1246</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -17471,7 +18233,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1005</v>
+        <v>1247</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -17659,7 +18421,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1012</v>
+        <v>1254</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -17743,7 +18505,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1013</v>
+        <v>1255</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7955" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8439" uniqueCount="1430">
   <si>
     <t>Result</t>
   </si>
@@ -3998,6 +3998,369 @@
   </si>
   <si>
     <t>Wed Aug 06 00:38:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:48:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:49:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:50:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:51:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:52:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:53:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:54:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:55:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:56:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:57:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:58:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 01:59:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:00:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:01:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:02:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:03:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:04:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:05:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:06:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:07:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:08:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:09:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:10:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:11:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:12:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:14:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:15:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:16:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:17:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:18:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:19:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:20:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:21:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:22:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:23:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:24:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:25:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:27:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:28:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:29:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:30:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:31:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:31:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:32:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:33:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:34:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:34:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:35:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:36:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:37:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:37:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:38:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:39:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:40:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:41:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:42:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:42:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:43:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:44:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:45:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:46:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:46:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:47:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:48:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:52:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:52:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:53:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:54:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:55:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:56:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:56:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 02:57:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:07:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:08:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:08:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:09:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:10:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:11:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:12:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:13:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:46:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:47:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:48:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:48:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:49:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:50:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:51:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:52:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:53:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:54:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:54:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:55:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:56:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:57:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:58:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:59:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 03:59:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:00:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:01:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:02:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:02:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:03:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:04:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:05:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:05:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:06:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:07:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:08:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:08:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:09:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:10:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:11:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:12:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:12:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:13:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:14:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:15:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:15:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:16:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:16:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 08 04:17:11 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -4534,7 +4897,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1216</v>
+        <v>1349</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4572,7 +4935,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1217</v>
+        <v>1350</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -4652,7 +5015,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1218</v>
+        <v>1351</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -4732,7 +5095,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1219</v>
+        <v>1352</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -4800,7 +5163,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>1220</v>
+        <v>1353</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -4838,7 +5201,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>1221</v>
+        <v>1354</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -4918,7 +5281,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>1222</v>
+        <v>1355</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -4998,7 +5361,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>1223</v>
+        <v>1356</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -5171,7 +5534,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1240</v>
+        <v>1373</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -5255,7 +5618,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1241</v>
+        <v>1374</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -5440,7 +5803,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1300</v>
+        <v>1381</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -5522,7 +5885,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1298</v>
+        <v>1382</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -5708,7 +6071,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1244</v>
+        <v>1377</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -5792,7 +6155,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1245</v>
+        <v>1378</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -5980,7 +6343,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1252</v>
+        <v>1385</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -6064,7 +6427,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1253</v>
+        <v>1386</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -6249,7 +6612,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1187</v>
+        <v>1320</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -6330,7 +6693,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1188</v>
+        <v>1321</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -6383,7 +6746,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1189</v>
+        <v>1322</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -6464,7 +6827,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1190</v>
+        <v>1323</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -6623,7 +6986,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1196</v>
+        <v>1329</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6677,7 +7040,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1197</v>
+        <v>1330</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -6759,7 +7122,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1198</v>
+        <v>1331</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -6813,7 +7176,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1199</v>
+        <v>1332</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -7002,7 +7365,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1204</v>
+        <v>1337</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -7089,7 +7452,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1205</v>
+        <v>1338</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -7150,7 +7513,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1206</v>
+        <v>1339</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -7237,7 +7600,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1207</v>
+        <v>1340</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -7405,7 +7768,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1208</v>
+        <v>1341</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -7492,7 +7855,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1209</v>
+        <v>1342</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -7553,7 +7916,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1210</v>
+        <v>1343</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -7640,7 +8003,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1211</v>
+        <v>1344</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -7802,7 +8165,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1192</v>
+        <v>1325</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7856,7 +8219,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1193</v>
+        <v>1326</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -7938,7 +8301,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1194</v>
+        <v>1327</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -7992,7 +8355,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1195</v>
+        <v>1328</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -8175,7 +8538,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1183</v>
+        <v>1316</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8256,7 +8619,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1184</v>
+        <v>1317</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -8309,7 +8672,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1185</v>
+        <v>1318</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -8390,7 +8753,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1186</v>
+        <v>1319</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -8574,7 +8937,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1176</v>
+        <v>1309</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -9066,7 +9429,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1212</v>
+        <v>1345</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -9153,7 +9516,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1213</v>
+        <v>1346</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -9214,7 +9577,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1214</v>
+        <v>1347</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -9301,7 +9664,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1215</v>
+        <v>1348</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -9923,7 +10286,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1260</v>
+        <v>1393</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -10106,7 +10469,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1261</v>
+        <v>1394</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10187,7 +10550,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1262</v>
+        <v>1395</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -10383,7 +10746,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1263</v>
+        <v>1396</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10473,7 +10836,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1264</v>
+        <v>1397</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -10664,7 +11027,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1265</v>
+        <v>1398</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10754,7 +11117,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1266</v>
+        <v>1399</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -10945,7 +11308,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1271</v>
+        <v>1404</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11035,7 +11398,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1272</v>
+        <v>1405</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -11221,7 +11584,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1267</v>
+        <v>1400</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -11303,7 +11666,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1268</v>
+        <v>1401</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -11485,7 +11848,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1269</v>
+        <v>1402</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11566,7 +11929,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1270</v>
+        <v>1403</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -11762,7 +12125,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1273</v>
+        <v>1406</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11852,7 +12215,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1274</v>
+        <v>1407</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -12059,7 +12422,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1177</v>
+        <v>1310</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -12142,7 +12505,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1178</v>
+        <v>1311</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -12180,7 +12543,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1179</v>
+        <v>1312</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -12251,7 +12614,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1180</v>
+        <v>1313</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -12334,7 +12697,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>1181</v>
+        <v>1314</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -12372,7 +12735,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>1182</v>
+        <v>1315</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -12545,7 +12908,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1228</v>
+        <v>1361</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -12601,7 +12964,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1229</v>
+        <v>1362</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -12657,7 +13020,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1230</v>
+        <v>1363</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -12713,7 +13076,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1231</v>
+        <v>1364</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -12879,7 +13242,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1232</v>
+        <v>1365</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12945,7 +13308,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1233</v>
+        <v>1366</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13011,7 +13374,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1234</v>
+        <v>1367</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -13077,7 +13440,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1235</v>
+        <v>1368</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -13253,7 +13616,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1236</v>
+        <v>1369</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13319,7 +13682,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1237</v>
+        <v>1370</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13385,7 +13748,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1238</v>
+        <v>1371</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -13451,7 +13814,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1239</v>
+        <v>1372</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -13618,7 +13981,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1224</v>
+        <v>1357</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -13675,7 +14038,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1225</v>
+        <v>1358</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13732,7 +14095,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1226</v>
+        <v>1359</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -13789,7 +14152,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1227</v>
+        <v>1360</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -13952,7 +14315,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1303</v>
+        <v>1424</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -14000,10 +14363,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>1304</v>
+        <v>1425</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -14161,10 +14524,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>1305</v>
+        <v>1426</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -14221,10 +14584,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>1306</v>
+        <v>1427</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -14391,10 +14754,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>1307</v>
+        <v>1428</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -14451,10 +14814,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>1308</v>
+        <v>1429</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -14615,7 +14978,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1289</v>
+        <v>1422</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -14662,10 +15025,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>1290</v>
+        <v>1423</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -14818,7 +15181,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1277</v>
+        <v>1410</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -14878,7 +15241,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1278</v>
+        <v>1411</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -15050,7 +15413,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1281</v>
+        <v>1414</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15116,7 +15479,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1282</v>
+        <v>1415</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -15308,7 +15671,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1191</v>
+        <v>1324</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15776,7 +16139,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1279</v>
+        <v>1412</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15833,7 +16196,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1280</v>
+        <v>1413</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -16005,7 +16368,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1283</v>
+        <v>1416</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -16071,7 +16434,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1284</v>
+        <v>1417</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -16247,7 +16610,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1288</v>
+        <v>1421</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -16423,7 +16786,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1287</v>
+        <v>1420</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -16590,7 +16953,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1285</v>
+        <v>1418</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -16751,7 +17114,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1286</v>
+        <v>1419</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -16914,7 +17277,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1256</v>
+        <v>1389</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -16996,7 +17359,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1257</v>
+        <v>1390</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -17182,7 +17545,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1258</v>
+        <v>1391</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -17264,7 +17627,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1259</v>
+        <v>1392</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -17448,7 +17811,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1275</v>
+        <v>1408</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -17501,7 +17864,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1276</v>
+        <v>1409</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -17660,7 +18023,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1242</v>
+        <v>1375</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -17731,7 +18094,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1243</v>
+        <v>1376</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -17903,7 +18266,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1301</v>
+        <v>1383</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -17974,7 +18337,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1302</v>
+        <v>1384</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -18149,7 +18512,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1246</v>
+        <v>1379</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -18233,7 +18596,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1247</v>
+        <v>1380</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -18421,7 +18784,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1254</v>
+        <v>1387</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -18505,7 +18868,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1255</v>
+        <v>1388</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8439" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9663" uniqueCount="1736">
   <si>
     <t>Result</t>
   </si>
@@ -4361,6 +4361,924 @@
   </si>
   <si>
     <t>Fri Aug 08 04:17:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:33:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:34:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:35:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:37:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:38:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:38:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:39:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:40:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:41:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:42:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:43:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:44:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:45:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:48:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:49:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:50:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:50:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:52:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:53:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:54:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:55:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:57:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:58:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:59:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:00:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:01:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:03:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:04:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:05:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:06:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:08:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:09:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:10:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:11:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:13:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:14:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:15:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:16:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:17:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:18:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:19:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:20:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:21:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:22:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:22:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:23:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:24:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:25:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:26:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:27:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:28:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:28:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:29:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:30:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:31:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:32:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:33:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:33:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:34:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:35:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:36:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:37:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:38:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:38:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:45:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:46:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:47:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:47:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:48:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:49:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:50:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:51:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:03:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:04:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:05:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:06:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:07:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:08:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:09:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:10:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:44:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:45:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:46:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:47:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:48:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:48:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:49:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:50:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:51:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:52:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:52:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:53:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:54:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:55:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:56:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:57:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:58:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 04:59:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:00:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:00:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:01:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:02:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:08:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:12:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:18:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:22:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:29:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:33:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:39:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:43:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:49:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 05:55:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:02:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:08:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:14:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:17:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:23:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:26:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:32:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:36:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 06:41:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 19:29:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 19:31:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 19:32:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 19:33:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 19:34:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 19:35:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 19:52:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 19:57:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 19:58:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:00:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:01:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:09:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:11:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:12:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:14:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:22:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:27:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:28:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:31:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:32:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:36:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:37:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:39:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 20:41:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 23:57:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:17:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:18:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:19:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:20:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:21:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:22:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:23:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:24:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:25:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:27:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:28:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:29:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:30:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:31:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:32:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:33:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:34:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:36:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:37:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:38:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:39:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:41:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:43:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:44:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:45:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:46:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:47:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:48:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:49:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:50:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:52:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:53:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:54:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:55:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:57:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:58:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 00:59:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:00:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:01:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:02:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:04:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:04:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:05:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:06:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:07:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:08:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:08:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:09:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:10:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:11:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:12:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:13:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:14:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:15:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:15:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:16:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:17:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:18:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:19:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:20:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:21:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:21:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:22:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:23:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:30:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:30:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:31:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:32:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:33:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:33:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:34:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:35:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:47:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:48:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:49:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:50:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:51:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:52:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:53:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 01:54:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:29:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:30:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:31:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:31:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:32:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:33:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:34:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:35:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:36:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:37:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:38:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:38:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:39:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:40:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:41:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:42:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:42:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:43:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:44:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:45:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:46:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:46:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:47:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:52:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:53:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:57:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 02:58:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:02:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:03:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:07:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:08:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:08:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:09:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:10:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:11:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:14:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:16:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:19:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:19:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:23:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 03:24:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:19:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:26:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:27:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:29:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:30:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:33:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:34:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:36:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:37:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:42:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:43:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:06:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:07:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:26:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:27:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:29:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:31:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:32:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:33:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:40:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:45:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:46:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:48:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:49:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:54:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 19:58:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 20:00:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 20:01:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 20:03:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 20:05:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 20:07:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 20:08:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 20:09:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 20:15:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 20:16:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 20:19:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 20:20:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 20:52:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 20:59:06 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -4897,7 +5815,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1349</v>
+        <v>1616</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4935,7 +5853,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1350</v>
+        <v>1617</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -5015,7 +5933,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1351</v>
+        <v>1618</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -5095,7 +6013,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1352</v>
+        <v>1619</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -5163,7 +6081,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>1353</v>
+        <v>1620</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -5201,7 +6119,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>1354</v>
+        <v>1621</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -5281,7 +6199,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>1355</v>
+        <v>1622</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -5361,7 +6279,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>1356</v>
+        <v>1623</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -5534,7 +6452,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1373</v>
+        <v>1640</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -5618,7 +6536,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1374</v>
+        <v>1641</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -5803,7 +6721,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1381</v>
+        <v>1648</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -5885,7 +6803,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1382</v>
+        <v>1649</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -6071,7 +6989,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1377</v>
+        <v>1644</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -6155,7 +7073,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1378</v>
+        <v>1645</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -6343,7 +7261,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1385</v>
+        <v>1652</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -6427,7 +7345,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1386</v>
+        <v>1653</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -6612,7 +7530,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1320</v>
+        <v>1587</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -6693,7 +7611,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1321</v>
+        <v>1588</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -6746,7 +7664,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1322</v>
+        <v>1589</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -6827,7 +7745,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1323</v>
+        <v>1590</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -6986,7 +7904,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1329</v>
+        <v>1726</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7040,7 +7958,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1330</v>
+        <v>1727</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -7122,7 +8040,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1331</v>
+        <v>1728</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -7176,7 +8094,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1332</v>
+        <v>1729</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -7365,7 +8283,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1337</v>
+        <v>1604</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -7452,7 +8370,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1338</v>
+        <v>1605</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -7513,7 +8431,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1339</v>
+        <v>1606</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -7600,7 +8518,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1340</v>
+        <v>1607</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -7768,7 +8686,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1341</v>
+        <v>1730</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -7852,10 +8770,10 @@
     </row>
     <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>1342</v>
+        <v>1731</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -7916,7 +8834,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1343</v>
+        <v>1732</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -8003,7 +8921,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1344</v>
+        <v>1733</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -8165,7 +9083,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1325</v>
+        <v>1722</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8219,7 +9137,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1326</v>
+        <v>1723</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -8301,7 +9219,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1327</v>
+        <v>1724</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -8355,7 +9273,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1328</v>
+        <v>1725</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -8538,7 +9456,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1316</v>
+        <v>1717</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8619,7 +9537,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1317</v>
+        <v>1718</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -8672,7 +9590,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1318</v>
+        <v>1719</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -8753,7 +9671,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1319</v>
+        <v>1720</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -8937,7 +9855,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1309</v>
+        <v>1576</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -9429,7 +10347,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1345</v>
+        <v>1612</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -9516,7 +10434,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1346</v>
+        <v>1613</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -9577,7 +10495,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1347</v>
+        <v>1614</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -9664,7 +10582,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1348</v>
+        <v>1615</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -10286,7 +11204,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1393</v>
+        <v>1660</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -10469,7 +11387,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1394</v>
+        <v>1661</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10550,7 +11468,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1395</v>
+        <v>1662</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -10746,7 +11664,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1396</v>
+        <v>1663</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10836,7 +11754,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1397</v>
+        <v>1664</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -11027,7 +11945,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1398</v>
+        <v>1665</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11117,7 +12035,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1399</v>
+        <v>1666</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -11308,7 +12226,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1404</v>
+        <v>1671</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11398,7 +12316,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1405</v>
+        <v>1672</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -11584,7 +12502,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1400</v>
+        <v>1667</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -11666,7 +12584,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1401</v>
+        <v>1668</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -11848,7 +12766,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1402</v>
+        <v>1669</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11929,7 +12847,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1403</v>
+        <v>1670</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -12125,7 +13043,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1406</v>
+        <v>1673</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12215,7 +13133,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1407</v>
+        <v>1674</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -12422,7 +13340,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1310</v>
+        <v>1577</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -12505,7 +13423,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1311</v>
+        <v>1578</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -12543,7 +13461,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1312</v>
+        <v>1579</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -12614,7 +13532,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1313</v>
+        <v>1580</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -12697,7 +13615,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>1314</v>
+        <v>1581</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -12735,7 +13653,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>1315</v>
+        <v>1582</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -12908,7 +13826,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1361</v>
+        <v>1628</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -12964,7 +13882,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1362</v>
+        <v>1629</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -13020,7 +13938,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1363</v>
+        <v>1630</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -13076,7 +13994,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1364</v>
+        <v>1631</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -13242,7 +14160,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1365</v>
+        <v>1632</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13308,7 +14226,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1366</v>
+        <v>1633</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13374,7 +14292,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1367</v>
+        <v>1634</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -13440,7 +14358,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1368</v>
+        <v>1635</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -13613,10 +14531,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>1369</v>
+        <v>1735</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13682,7 +14600,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1370</v>
+        <v>1637</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13748,7 +14666,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1371</v>
+        <v>1638</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -13814,7 +14732,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1372</v>
+        <v>1639</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -13978,10 +14896,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>1357</v>
+        <v>1734</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -14038,7 +14956,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1358</v>
+        <v>1625</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -14095,7 +15013,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1359</v>
+        <v>1626</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -14152,7 +15070,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1360</v>
+        <v>1627</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -14315,7 +15233,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1424</v>
+        <v>1710</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -14363,10 +15281,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1425</v>
+        <v>1711</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -14524,10 +15442,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1426</v>
+        <v>1712</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -14584,10 +15502,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1427</v>
+        <v>1713</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -14754,10 +15672,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1428</v>
+        <v>1714</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -14814,10 +15732,10 @@
     </row>
     <row ht="72" r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1429</v>
+        <v>1715</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -14978,7 +15896,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1422</v>
+        <v>1708</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -15025,10 +15943,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1423</v>
+        <v>1709</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -15181,7 +16099,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1410</v>
+        <v>1698</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -15241,7 +16159,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1411</v>
+        <v>1699</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -15413,7 +16331,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1414</v>
+        <v>1702</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15479,7 +16397,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1415</v>
+        <v>1703</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -15671,7 +16589,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1324</v>
+        <v>1591</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -16139,7 +17057,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1412</v>
+        <v>1700</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -16196,7 +17114,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1413</v>
+        <v>1701</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -16368,7 +17286,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1416</v>
+        <v>1706</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -16434,7 +17352,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1417</v>
+        <v>1707</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -16610,7 +17528,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1421</v>
+        <v>1688</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -16786,7 +17704,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1420</v>
+        <v>1687</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -16953,7 +17871,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1418</v>
+        <v>1685</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -17114,7 +18032,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1419</v>
+        <v>1686</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -17277,7 +18195,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1389</v>
+        <v>1656</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -17359,7 +18277,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1390</v>
+        <v>1657</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -17545,7 +18463,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1391</v>
+        <v>1658</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -17627,7 +18545,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1392</v>
+        <v>1659</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -17811,7 +18729,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1408</v>
+        <v>1675</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -17864,7 +18782,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1409</v>
+        <v>1676</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -18023,7 +18941,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1375</v>
+        <v>1642</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -18094,7 +19012,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1376</v>
+        <v>1643</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -18266,7 +19184,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1383</v>
+        <v>1650</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -18337,7 +19255,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1384</v>
+        <v>1651</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -18512,7 +19430,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1379</v>
+        <v>1646</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -18596,7 +19514,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1380</v>
+        <v>1647</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -18784,7 +19702,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1387</v>
+        <v>1654</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -18868,7 +19786,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1388</v>
+        <v>1655</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8439" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8735" uniqueCount="1504">
   <si>
     <t>Result</t>
   </si>
@@ -4361,6 +4361,228 @@
   </si>
   <si>
     <t>Fri Aug 08 04:17:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 20:35:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 20:36:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 20:36:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 20:36:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 20:37:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 20:37:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 20:38:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 20:38:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:40:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:41:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:41:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:42:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:42:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:43:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:43:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:44:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:44:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:45:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:45:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:46:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:46:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:46:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:47:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:47:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:48:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:48:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:49:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:50:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:51:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:51:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:52:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:52:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:53:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:54:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:55:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:55:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:56:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:57:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:57:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:58:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:59:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 21:59:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:00:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:01:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:01:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:02:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:03:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:03:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:04:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:05:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:05:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:06:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:07:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:08:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:08:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:09:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:10:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:10:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:11:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:11:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:12:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:12:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:13:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:13:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:14:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:15:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:15:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:16:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:16:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:16:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:17:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:17:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:18:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 28 22:18:37 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -4894,10 +5116,10 @@
     </row>
     <row ht="28.8" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>1349</v>
+        <v>1494</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4935,7 +5157,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1350</v>
+        <v>1495</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -5015,7 +5237,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1351</v>
+        <v>1496</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -5095,7 +5317,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1352</v>
+        <v>1497</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -5163,7 +5385,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>1353</v>
+        <v>1498</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -5201,7 +5423,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>1354</v>
+        <v>1499</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -5281,7 +5503,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>1355</v>
+        <v>1500</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -5361,7 +5583,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>1356</v>
+        <v>1501</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -6612,7 +6834,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1320</v>
+        <v>1459</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -6693,7 +6915,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1321</v>
+        <v>1460</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -6746,7 +6968,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1322</v>
+        <v>1461</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -6827,7 +7049,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1323</v>
+        <v>1462</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -6986,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1329</v>
+        <v>1467</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7040,7 +7262,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1330</v>
+        <v>1468</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -7122,7 +7344,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1331</v>
+        <v>1469</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -7176,7 +7398,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1332</v>
+        <v>1470</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -7365,7 +7587,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1337</v>
+        <v>1476</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -7452,7 +7674,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1338</v>
+        <v>1477</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -7513,7 +7735,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1339</v>
+        <v>1478</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -7600,7 +7822,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1340</v>
+        <v>1479</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -7768,7 +7990,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1341</v>
+        <v>1484</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -7855,7 +8077,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1342</v>
+        <v>1485</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -7916,7 +8138,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1343</v>
+        <v>1486</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -8003,7 +8225,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1344</v>
+        <v>1487</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -8165,7 +8387,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1325</v>
+        <v>1463</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -8219,7 +8441,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1326</v>
+        <v>1464</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -8301,7 +8523,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1327</v>
+        <v>1465</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -8355,7 +8577,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1328</v>
+        <v>1466</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -8538,7 +8760,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1316</v>
+        <v>1454</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8619,7 +8841,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1317</v>
+        <v>1455</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -8672,7 +8894,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1318</v>
+        <v>1456</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -8753,7 +8975,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1319</v>
+        <v>1457</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -8937,7 +9159,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1309</v>
+        <v>1471</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -9429,7 +9651,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1345</v>
+        <v>1480</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -9516,7 +9738,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1346</v>
+        <v>1481</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -9577,7 +9799,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1347</v>
+        <v>1482</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -9664,7 +9886,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1348</v>
+        <v>1483</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -12422,7 +12644,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1310</v>
+        <v>1488</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -12505,7 +12727,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1311</v>
+        <v>1489</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -12543,7 +12765,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1312</v>
+        <v>1490</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -12614,7 +12836,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1313</v>
+        <v>1491</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -12697,7 +12919,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>1314</v>
+        <v>1492</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -12735,7 +12957,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>1315</v>
+        <v>1493</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -12905,10 +13127,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>1361</v>
+        <v>1442</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -12964,7 +13186,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1362</v>
+        <v>1443</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -13020,7 +13242,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1363</v>
+        <v>1444</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -13076,7 +13298,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1364</v>
+        <v>1445</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -13242,7 +13464,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1365</v>
+        <v>1446</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13308,7 +13530,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1366</v>
+        <v>1447</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13374,7 +13596,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1367</v>
+        <v>1448</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -13440,7 +13662,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1368</v>
+        <v>1449</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -13616,7 +13838,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1369</v>
+        <v>1450</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13682,7 +13904,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1370</v>
+        <v>1451</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -13748,7 +13970,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1371</v>
+        <v>1452</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -13814,7 +14036,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1372</v>
+        <v>1453</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -13978,10 +14200,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>1357</v>
+        <v>1438</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -14038,7 +14260,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1358</v>
+        <v>1439</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -14095,7 +14317,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1359</v>
+        <v>1440</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -14152,7 +14374,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1360</v>
+        <v>1441</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -15671,7 +15893,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1324</v>
+        <v>1458</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -17545,7 +17767,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1391</v>
+        <v>1502</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -17627,7 +17849,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1392</v>
+        <v>1503</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9663" uniqueCount="1736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11151" uniqueCount="2108">
   <si>
     <t>Result</t>
   </si>
@@ -5279,6 +5279,1122 @@
   </si>
   <si>
     <t>Fri Aug 22 20:59:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:00:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:02:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:03:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:04:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:05:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:06:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:06:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:07:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:09:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:10:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:11:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:12:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:13:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:14:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:15:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:17:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:17:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:19:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:20:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:21:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:22:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:23:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:25:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:26:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:27:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:28:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:29:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:31:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:32:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:33:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:34:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:35:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:37:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:38:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:39:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:40:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:41:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:43:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:44:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:45:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:46:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:47:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:47:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:48:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:49:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:50:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:51:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:52:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:52:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:53:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:54:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:55:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:56:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:56:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:57:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:58:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Tue Sep 02 23:59:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:00:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:00:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:01:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:02:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:03:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:04:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:04:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:11:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:12:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:13:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:13:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:14:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:15:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:16:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:17:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:29:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:30:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:31:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:32:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:33:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:34:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:35:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 00:36:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:06:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:07:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:08:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:09:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:10:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:11:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:11:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:12:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:13:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:14:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:15:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:16:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:17:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:18:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:19:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:20:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:21:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:21:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:22:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:23:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:24:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:25:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:26:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:27:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:27:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:28:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:29:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:30:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:31:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:32:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:32:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:33:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:34:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:35:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:36:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:37:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:38:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:38:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:39:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:40:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 01:41:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 19:48:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 19:49:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 19:51:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 19:52:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 20:41:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 20:42:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 03 21:20:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:15:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:16:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:18:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:19:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:20:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:20:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:21:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:22:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:24:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:25:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:26:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:27:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:28:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:29:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:31:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:32:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:33:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:34:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:35:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:36:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:38:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:39:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:40:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:41:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:42:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:43:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:44:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:46:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:47:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:48:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:49:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:50:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:52:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:53:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:54:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:55:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:56:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:58:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 01:59:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:00:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:01:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:02:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:02:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:03:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:04:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:05:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:06:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:07:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:07:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:08:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:09:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:10:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:11:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:12:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:12:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:13:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:14:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:15:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:16:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:17:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:18:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:18:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:19:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:20:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:29:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:30:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:30:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:31:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:32:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:33:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:34:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:35:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:50:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:51:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:52:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:53:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:54:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:55:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:56:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 02:57:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:33:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:34:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:35:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:36:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:37:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:38:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:38:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:39:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:40:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:41:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:42:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:43:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:43:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:44:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:45:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:46:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:47:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:48:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:49:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:49:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:50:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:51:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:52:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:53:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:54:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:54:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:55:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:56:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:57:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:58:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 03:59:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:00:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:00:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:01:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:02:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:03:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:04:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:04:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:05:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:06:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 04:07:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:40:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:41:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:42:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:43:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:44:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:45:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:46:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:47:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:48:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:49:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:50:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:52:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:53:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:54:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:55:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:56:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:57:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 22:59:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:00:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:01:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:02:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:04:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:05:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:06:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:07:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:08:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:10:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:11:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:12:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:13:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:14:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:16:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:17:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:18:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:20:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:21:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:22:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:23:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:24:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:26:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:27:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:28:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:28:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:29:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:30:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:31:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:32:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:33:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:34:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:35:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:36:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:36:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:37:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:38:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:39:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:40:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:41:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:41:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:42:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:43:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:44:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:45:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:46:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:47:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:57:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:57:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:58:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Sep 04 23:59:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:00:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:01:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:01:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:02:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:18:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:19:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:20:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:21:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:23:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:24:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:25:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 00:28:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:16:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:17:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:18:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:19:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:20:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:21:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:22:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:23:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:24:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:25:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:25:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:26:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:27:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:28:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:29:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:30:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:31:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:31:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:32:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:33:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:34:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:35:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:36:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:36:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:37:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:38:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:39:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:40:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:41:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:41:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:42:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:43:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:44:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:45:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:45:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:46:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:47:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:48:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:49:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:50:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 01:51:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 03:40:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Sep 05 03:41:27 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -5815,7 +6931,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1616</v>
+        <v>2025</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -5853,7 +6969,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1617</v>
+        <v>2026</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -5933,7 +7049,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1618</v>
+        <v>2027</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -6013,7 +7129,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1619</v>
+        <v>2028</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -6081,7 +7197,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>1620</v>
+        <v>2029</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -6119,7 +7235,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>1621</v>
+        <v>2030</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -6199,7 +7315,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>1622</v>
+        <v>2031</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -6279,7 +7395,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>1623</v>
+        <v>2032</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -6452,7 +7568,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1640</v>
+        <v>2049</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -6536,7 +7652,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1641</v>
+        <v>2050</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -6721,7 +7837,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1648</v>
+        <v>2057</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -6803,7 +7919,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1649</v>
+        <v>2058</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -6989,7 +8105,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1644</v>
+        <v>2053</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -7073,7 +8189,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1645</v>
+        <v>2054</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -7261,7 +8377,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1652</v>
+        <v>2061</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -7345,7 +8461,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1653</v>
+        <v>2062</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -7530,7 +8646,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1587</v>
+        <v>1996</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -7611,7 +8727,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1588</v>
+        <v>1997</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -7664,7 +8780,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1589</v>
+        <v>1998</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -7745,7 +8861,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1590</v>
+        <v>1999</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -7904,7 +9020,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1726</v>
+        <v>2005</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7958,7 +9074,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1727</v>
+        <v>2006</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -8040,7 +9156,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1728</v>
+        <v>2007</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -8094,7 +9210,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1729</v>
+        <v>2008</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -8283,7 +9399,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1604</v>
+        <v>2013</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -8370,7 +9486,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1605</v>
+        <v>2014</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -8431,7 +9547,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1606</v>
+        <v>2015</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -8518,7 +9634,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1607</v>
+        <v>2016</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -8686,7 +9802,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1730</v>
+        <v>2017</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -8770,10 +9886,10 @@
     </row>
     <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1731</v>
+        <v>2018</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -8834,7 +9950,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1732</v>
+        <v>2019</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -8921,7 +10037,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1733</v>
+        <v>2020</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -9083,7 +10199,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1722</v>
+        <v>2001</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9137,7 +10253,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1723</v>
+        <v>2002</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -9219,7 +10335,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1724</v>
+        <v>2003</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -9273,7 +10389,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1725</v>
+        <v>2004</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -9456,7 +10572,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1717</v>
+        <v>1992</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9537,7 +10653,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1718</v>
+        <v>1993</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -9590,7 +10706,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1719</v>
+        <v>1994</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -9671,7 +10787,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1720</v>
+        <v>1995</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -9855,7 +10971,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1576</v>
+        <v>1985</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -10347,7 +11463,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1612</v>
+        <v>2021</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -10434,7 +11550,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1613</v>
+        <v>2022</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -10495,7 +11611,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1614</v>
+        <v>2023</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -10582,7 +11698,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1615</v>
+        <v>2024</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -11204,7 +12320,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1660</v>
+        <v>2069</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -11387,7 +12503,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1661</v>
+        <v>2070</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11468,7 +12584,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1662</v>
+        <v>2071</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -11664,7 +12780,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1663</v>
+        <v>2072</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11754,7 +12870,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1664</v>
+        <v>2073</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -11945,7 +13061,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1665</v>
+        <v>2074</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12035,7 +13151,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1666</v>
+        <v>2075</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -12226,7 +13342,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1671</v>
+        <v>2080</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12316,7 +13432,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1672</v>
+        <v>2081</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -12502,7 +13618,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1667</v>
+        <v>2076</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -12584,7 +13700,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1668</v>
+        <v>2077</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -12766,7 +13882,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1669</v>
+        <v>2078</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12847,7 +13963,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1670</v>
+        <v>2079</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13043,7 +14159,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1673</v>
+        <v>2082</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13133,7 +14249,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1674</v>
+        <v>2083</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13340,7 +14456,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1577</v>
+        <v>1986</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -13423,7 +14539,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1578</v>
+        <v>1987</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -13461,7 +14577,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1579</v>
+        <v>1988</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -13532,7 +14648,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1580</v>
+        <v>1989</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -13615,7 +14731,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>1581</v>
+        <v>1990</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -13653,7 +14769,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>1582</v>
+        <v>1991</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -13826,7 +14942,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1628</v>
+        <v>2037</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -13882,7 +14998,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1629</v>
+        <v>2038</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -13938,7 +15054,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1630</v>
+        <v>2039</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -13994,7 +15110,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1631</v>
+        <v>2040</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -14160,7 +15276,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1632</v>
+        <v>2041</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -14226,7 +15342,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1633</v>
+        <v>2042</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -14292,7 +15408,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1634</v>
+        <v>2043</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -14358,7 +15474,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1635</v>
+        <v>2044</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -14531,10 +15647,10 @@
     </row>
     <row ht="72" r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1735</v>
+        <v>2045</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -14600,7 +15716,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1637</v>
+        <v>2046</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -14666,7 +15782,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1638</v>
+        <v>2047</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -14732,7 +15848,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1639</v>
+        <v>2048</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -14896,10 +16012,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1734</v>
+        <v>2033</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -14956,7 +16072,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1625</v>
+        <v>2034</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -15013,7 +16129,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1626</v>
+        <v>2035</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -15070,7 +16186,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1627</v>
+        <v>2036</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -15233,7 +16349,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1710</v>
+        <v>2100</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -15284,7 +16400,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1711</v>
+        <v>2101</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -15445,7 +16561,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1712</v>
+        <v>2102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -15505,7 +16621,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1713</v>
+        <v>2103</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -15675,7 +16791,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1714</v>
+        <v>2104</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -15735,7 +16851,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1715</v>
+        <v>2105</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -15896,7 +17012,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1708</v>
+        <v>2098</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -15946,7 +17062,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1709</v>
+        <v>2099</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -16099,7 +17215,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1698</v>
+        <v>2086</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -16159,7 +17275,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1699</v>
+        <v>2087</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -16331,7 +17447,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1702</v>
+        <v>2090</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -16397,7 +17513,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1703</v>
+        <v>2091</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -16589,7 +17705,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1591</v>
+        <v>2000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -17057,7 +18173,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1700</v>
+        <v>2088</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -17114,7 +18230,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1701</v>
+        <v>2089</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -17286,7 +18402,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1706</v>
+        <v>2092</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -17352,7 +18468,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1707</v>
+        <v>2093</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -17528,7 +18644,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1688</v>
+        <v>2097</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -17704,7 +18820,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1687</v>
+        <v>2096</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -17871,7 +18987,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1685</v>
+        <v>2094</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -18032,7 +19148,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1686</v>
+        <v>2095</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -18195,7 +19311,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1656</v>
+        <v>2065</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -18277,7 +19393,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1657</v>
+        <v>2066</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -18463,7 +19579,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1658</v>
+        <v>2067</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -18545,7 +19661,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1659</v>
+        <v>2068</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -18729,7 +19845,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1675</v>
+        <v>2084</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -18782,7 +19898,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1676</v>
+        <v>2085</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -18941,7 +20057,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1642</v>
+        <v>2051</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -19012,7 +20128,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1643</v>
+        <v>2052</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -19184,7 +20300,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1650</v>
+        <v>2059</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -19255,7 +20371,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1651</v>
+        <v>2060</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -19430,7 +20546,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1646</v>
+        <v>2055</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -19514,7 +20630,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1647</v>
+        <v>2056</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -19702,7 +20818,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1654</v>
+        <v>2106</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -19786,7 +20902,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1655</v>
+        <v>2107</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11151" uniqueCount="2108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11167" uniqueCount="2112">
   <si>
     <t>Result</t>
   </si>
@@ -6395,6 +6395,18 @@
   </si>
   <si>
     <t>Fri Sep 05 03:41:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 00:54:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 01:00:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 01:00:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Sep 10 15:14:09 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -19308,10 +19320,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>2065</v>
+        <v>2111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -19390,10 +19402,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>2066</v>
+        <v>2110</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11167" uniqueCount="2112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11663" uniqueCount="2236">
   <si>
     <t>Result</t>
   </si>
@@ -6407,6 +6407,378 @@
   </si>
   <si>
     <t>Wed Sep 10 15:14:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:34:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:36:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:37:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:39:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:40:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:41:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:41:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:42:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:43:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:45:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:46:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:47:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:48:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:51:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:52:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:53:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:54:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:55:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:56:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:58:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 22:59:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:01:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:02:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:04:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:05:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:06:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:07:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:09:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:10:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:11:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:12:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:14:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:15:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:16:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:19:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:20:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:21:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:22:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:23:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:24:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:26:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:27:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:27:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:28:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:29:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:30:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:31:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:32:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:33:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:34:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:36:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:37:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:38:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:39:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:41:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:41:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:42:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:43:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:44:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:45:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:46:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:47:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:48:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:49:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Wed Nov 05 23:59:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:01:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:02:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:03:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:03:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:05:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:06:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:07:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:26:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:27:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:28:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:29:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:30:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:31:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:33:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 00:34:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:14:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:15:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:16:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:17:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:18:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:19:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:20:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:21:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:22:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:23:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:24:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:25:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:26:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:27:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:28:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:29:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:30:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:31:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:32:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:32:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:33:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:34:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:35:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:36:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:37:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:38:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:39:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:40:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:41:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:42:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:42:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:44:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:44:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:45:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:46:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:47:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:48:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:50:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:51:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:52:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:53:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 01:54:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 21:35:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 21:43:14 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -6943,7 +7315,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2025</v>
+        <v>2152</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -6981,7 +7353,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2026</v>
+        <v>2153</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -7061,7 +7433,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2027</v>
+        <v>2154</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -7141,7 +7513,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2028</v>
+        <v>2155</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -7209,7 +7581,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>2029</v>
+        <v>2156</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -7247,7 +7619,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>2030</v>
+        <v>2157</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -7327,7 +7699,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>2031</v>
+        <v>2158</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -7407,7 +7779,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>2032</v>
+        <v>2159</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -7580,7 +7952,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2049</v>
+        <v>2176</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -7664,7 +8036,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2050</v>
+        <v>2177</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -7849,7 +8221,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2057</v>
+        <v>2184</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -7931,7 +8303,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2058</v>
+        <v>2185</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -8117,7 +8489,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2053</v>
+        <v>2180</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -8201,7 +8573,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2054</v>
+        <v>2181</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -8389,7 +8761,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2061</v>
+        <v>2188</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -8473,7 +8845,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2062</v>
+        <v>2189</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -8658,7 +9030,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1996</v>
+        <v>2123</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -8736,10 +9108,10 @@
     </row>
     <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>1997</v>
+        <v>2124</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -8792,7 +9164,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1998</v>
+        <v>2125</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -8873,7 +9245,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1999</v>
+        <v>2126</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -9029,10 +9401,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>2005</v>
+        <v>2132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9086,7 +9458,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2006</v>
+        <v>2133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -9168,7 +9540,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2007</v>
+        <v>2134</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -9222,7 +9594,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2008</v>
+        <v>2135</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -9411,7 +9783,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2013</v>
+        <v>2140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -9498,7 +9870,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2014</v>
+        <v>2141</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -9559,7 +9931,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2015</v>
+        <v>2142</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -9646,7 +10018,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2016</v>
+        <v>2143</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -9814,7 +10186,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2017</v>
+        <v>2144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -9898,10 +10270,10 @@
     </row>
     <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>2018</v>
+        <v>2145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -9962,7 +10334,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2019</v>
+        <v>2146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -10049,7 +10421,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2020</v>
+        <v>2147</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -10211,7 +10583,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2001</v>
+        <v>2128</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10265,7 +10637,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2002</v>
+        <v>2129</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -10347,7 +10719,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2003</v>
+        <v>2130</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -10401,7 +10773,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2004</v>
+        <v>2131</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -10584,7 +10956,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1992</v>
+        <v>2119</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -10665,7 +11037,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>1993</v>
+        <v>2120</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -10718,7 +11090,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1994</v>
+        <v>2121</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -10799,7 +11171,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1995</v>
+        <v>2122</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -10983,7 +11355,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1985</v>
+        <v>2234</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -11475,7 +11847,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2021</v>
+        <v>2148</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -11562,7 +11934,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2022</v>
+        <v>2149</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -11623,7 +11995,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2023</v>
+        <v>2150</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -11710,7 +12082,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2024</v>
+        <v>2151</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -12250,7 +12622,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>2196</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -12332,7 +12704,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2069</v>
+        <v>2197</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -12515,7 +12887,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2070</v>
+        <v>2198</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12596,7 +12968,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2071</v>
+        <v>2199</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -12792,7 +13164,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2072</v>
+        <v>2200</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12882,7 +13254,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2073</v>
+        <v>2201</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13073,7 +13445,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2074</v>
+        <v>2202</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13163,7 +13535,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2075</v>
+        <v>2203</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13354,7 +13726,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2080</v>
+        <v>2208</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13444,7 +13816,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2081</v>
+        <v>2209</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13630,7 +14002,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2076</v>
+        <v>2204</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -13712,7 +14084,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2077</v>
+        <v>2205</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13894,7 +14266,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2078</v>
+        <v>2206</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13975,7 +14347,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2079</v>
+        <v>2207</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -14171,7 +14543,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2082</v>
+        <v>2210</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -14261,7 +14633,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2083</v>
+        <v>2211</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -14468,7 +14840,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>1986</v>
+        <v>2235</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -14548,10 +14920,10 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>1987</v>
+        <v>2114</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -14589,7 +14961,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>1988</v>
+        <v>2115</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -14660,7 +15032,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>1989</v>
+        <v>2116</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -14743,7 +15115,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>1990</v>
+        <v>2117</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -14781,7 +15153,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>1991</v>
+        <v>2118</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -14951,10 +15323,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>2037</v>
+        <v>2164</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -15007,10 +15379,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>2038</v>
+        <v>2165</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -15066,7 +15438,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2039</v>
+        <v>2166</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -15122,7 +15494,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2040</v>
+        <v>2167</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -15288,7 +15660,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2041</v>
+        <v>2168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15354,7 +15726,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2042</v>
+        <v>2169</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -15420,7 +15792,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2043</v>
+        <v>2170</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -15486,7 +15858,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2044</v>
+        <v>2171</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -15662,7 +16034,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2045</v>
+        <v>2172</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15728,7 +16100,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2046</v>
+        <v>2173</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -15794,7 +16166,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2047</v>
+        <v>2174</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -15860,7 +16232,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2048</v>
+        <v>2175</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -16024,10 +16396,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>2033</v>
+        <v>2160</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -16081,10 +16453,10 @@
     </row>
     <row ht="43.2" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>2034</v>
+        <v>2161</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -16141,7 +16513,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2035</v>
+        <v>2162</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -16198,7 +16570,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2036</v>
+        <v>2163</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -16358,10 +16730,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>2100</v>
+        <v>2228</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -16412,7 +16784,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2101</v>
+        <v>2229</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -16573,7 +16945,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2102</v>
+        <v>2230</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -16633,7 +17005,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2103</v>
+        <v>2231</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -16803,7 +17175,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2104</v>
+        <v>2232</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -16863,7 +17235,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2105</v>
+        <v>2233</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -17024,7 +17396,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2098</v>
+        <v>2226</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -17074,7 +17446,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2099</v>
+        <v>2227</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -17227,7 +17599,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2086</v>
+        <v>2214</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -17287,7 +17659,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2087</v>
+        <v>2215</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -17459,7 +17831,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2090</v>
+        <v>2218</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -17525,7 +17897,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2091</v>
+        <v>2219</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -17717,7 +18089,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2000</v>
+        <v>2127</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -18185,7 +18557,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2088</v>
+        <v>2216</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -18242,7 +18614,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2089</v>
+        <v>2217</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -18414,7 +18786,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2092</v>
+        <v>2220</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -18480,7 +18852,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2093</v>
+        <v>2221</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -18656,7 +19028,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2097</v>
+        <v>2225</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -18832,7 +19204,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2096</v>
+        <v>2224</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -18999,7 +19371,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2094</v>
+        <v>2222</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -19160,7 +19532,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2095</v>
+        <v>2223</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -19320,10 +19692,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2111</v>
+        <v>2192</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -19402,10 +19774,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2110</v>
+        <v>2193</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -19591,7 +19963,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2067</v>
+        <v>2194</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -19673,7 +20045,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2068</v>
+        <v>2195</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -19857,7 +20229,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2084</v>
+        <v>2212</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -19910,7 +20282,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2085</v>
+        <v>2213</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -20069,7 +20441,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2051</v>
+        <v>2178</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -20140,7 +20512,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2052</v>
+        <v>2179</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -20312,7 +20684,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2059</v>
+        <v>2186</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -20383,7 +20755,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2060</v>
+        <v>2187</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -20558,7 +20930,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2055</v>
+        <v>2182</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -20642,7 +21014,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2056</v>
+        <v>2183</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -20830,7 +21202,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2106</v>
+        <v>2190</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -20914,7 +21286,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2107</v>
+        <v>2191</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>

--- a/KatalonData/IWPTestData/VRelay25Payments.xlsx
+++ b/KatalonData/IWPTestData/VRelay25Payments.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11663" uniqueCount="2236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13243" uniqueCount="2631">
   <si>
     <t>Result</t>
   </si>
@@ -6779,6 +6779,1191 @@
   </si>
   <si>
     <t>Thu Nov 06 21:43:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:19:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:20:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:22:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:23:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:24:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:24:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:25:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:26:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:27:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:28:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:30:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:31:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:32:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:34:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:35:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:37:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:37:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:40:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:41:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:42:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:43:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:46:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:47:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:48:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:49:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:50:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:52:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:53:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:54:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:55:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:56:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:58:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 00:59:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:00:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:01:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:03:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:04:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:05:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:06:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:07:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:08:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:09:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:10:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:11:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:11:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:12:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:13:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:14:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:15:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:16:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:16:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:17:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:18:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:19:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:20:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:21:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:22:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:23:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:24:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:24:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:25:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:26:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:27:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:28:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:37:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:37:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:38:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:39:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:40:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:41:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:41:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:42:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 01:59:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:00:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:01:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:01:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:02:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:03:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:05:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:06:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:38:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:39:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:40:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:41:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:41:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:42:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:43:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:44:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:45:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:46:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:47:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:47:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:48:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:49:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:50:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:51:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:52:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:53:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:54:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:54:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:55:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:56:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:57:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:58:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:58:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 02:59:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:00:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:01:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:02:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:03:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:03:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:04:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:05:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:06:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:07:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:08:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:09:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:09:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:10:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:11:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:12:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 03:13:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 19:31:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 19:33:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 19:36:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 19:37:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 19:41:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 19:44:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 19:46:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 19:47:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 19:49:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 19:51:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 19:52:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 19:54:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 19:55:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 20:00:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 20:02:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 20:04:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 20:05:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 20:16:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 20:17:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 20:38:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 20:40:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:20:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:21:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:22:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:24:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:25:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:26:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:27:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:27:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:29:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:31:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:32:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:33:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:35:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:37:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:38:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:39:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:40:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:43:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:44:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:45:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:46:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:49:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:50:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:51:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:53:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:54:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:55:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:56:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:57:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 21:58:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:00:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:01:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:02:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:03:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:05:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:06:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:07:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:09:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:11:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:12:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:13:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:14:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:15:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:16:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:17:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:18:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:19:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:19:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:20:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:22:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:23:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:24:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:24:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:25:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:26:40 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:27:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:28:27 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:29:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:30:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:31:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:31:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:32:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:33:46 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:34:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:44:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:45:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:46:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:46:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:47:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:48:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:49:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 22:50:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:07:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:08:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:09:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:10:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:11:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:12:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:13:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:14:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:52:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:53:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:54:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:55:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:56:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:57:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:58:13 IST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 16 23:59:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:00:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:00:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:01:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:02:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:03:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:04:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:05:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:06:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:07:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:08:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:09:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:10:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:10:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:11:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:12:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:13:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:14:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:15:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:16:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:17:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:18:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:19:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:19:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:20:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:21:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:22:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:23:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:24:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:25:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:26:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:26:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:27:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:28:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 00:29:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:04:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:05:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:06:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:07:51 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:08:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:09:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:10:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:12:02 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:19:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:22:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:23:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:25:07 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:26:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:26:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:27:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:28:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:29:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:31:00 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:32:15 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:33:33 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:34:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:37:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:38:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:39:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:40:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:41:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:43:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:44:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:45:39 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:47:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:49:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:50:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:51:42 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:52:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:54:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:55:10 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:56:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:57:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 01:59:05 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:00:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:01:34 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:02:55 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:04:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:05:23 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:06:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:07:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:08:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:09:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:10:59 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:11:53 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:12:43 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:13:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:14:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:15:22 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:16:19 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:17:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:18:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:19:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:20:25 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:21:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:22:09 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:23:06 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:23:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:24:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:25:45 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:26:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:27:28 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:28:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:29:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:30:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:30:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:31:49 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:40:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:41:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:42:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:43:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:44:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:45:48 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:46:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 02:47:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:04:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:05:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:06:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:07:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:08:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:09:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:10:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:11:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:50:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:51:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:51:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:52:54 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:53:47 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:54:36 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:55:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:56:38 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:57:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:58:29 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 03:59:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:00:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:01:11 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:02:03 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:02:57 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:03:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:04:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:05:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:06:26 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:07:20 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:08:17 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:09:08 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:09:56 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:10:50 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:11:41 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:12:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:13:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:14:24 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:15:16 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:16:14 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:17:12 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:18:04 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:18:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:19:52 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:20:44 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:21:37 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:22:35 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:23:31 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:24:21 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:25:18 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:26:32 IST 2025</t>
+  </si>
+  <si>
+    <t>Mon Nov 17 04:27:23 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -7315,7 +8500,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2152</v>
+        <v>2549</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -7353,7 +8538,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2153</v>
+        <v>2550</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -7433,7 +8618,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2154</v>
+        <v>2551</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -7513,7 +8698,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2155</v>
+        <v>2552</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
@@ -7581,7 +8766,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>2156</v>
+        <v>2553</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -7619,7 +8804,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>2157</v>
+        <v>2554</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -7699,7 +8884,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>2158</v>
+        <v>2555</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -7779,7 +8964,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>2159</v>
+        <v>2556</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -7952,7 +9137,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2176</v>
+        <v>2573</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -8036,7 +9221,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2177</v>
+        <v>2574</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -8221,7 +9406,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2184</v>
+        <v>2581</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -8303,7 +9488,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2185</v>
+        <v>2582</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -8489,7 +9674,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2180</v>
+        <v>2577</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -8573,7 +9758,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2181</v>
+        <v>2578</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -8761,7 +9946,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2188</v>
+        <v>2585</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -8845,7 +10030,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2189</v>
+        <v>2586</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -9030,7 +10215,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2123</v>
+        <v>2520</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -9111,7 +10296,7 @@
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>2124</v>
+        <v>2521</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -9164,7 +10349,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2125</v>
+        <v>2522</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -9245,7 +10430,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2126</v>
+        <v>2523</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -9404,7 +10589,7 @@
         <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>2132</v>
+        <v>2529</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -9458,7 +10643,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2133</v>
+        <v>2530</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -9540,7 +10725,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2134</v>
+        <v>2531</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -9594,7 +10779,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2135</v>
+        <v>2532</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -9783,7 +10968,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2140</v>
+        <v>2537</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -9870,7 +11055,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2141</v>
+        <v>2538</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -9931,7 +11116,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2142</v>
+        <v>2539</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -10018,7 +11203,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2143</v>
+        <v>2540</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -10186,7 +11371,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2144</v>
+        <v>2541</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -10270,10 +11455,10 @@
     </row>
     <row ht="86.4" r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2145</v>
+        <v>2542</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -10334,7 +11519,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2146</v>
+        <v>2543</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -10421,7 +11606,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2147</v>
+        <v>2544</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -10583,7 +11768,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2128</v>
+        <v>2525</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -10637,7 +11822,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2129</v>
+        <v>2526</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -10719,7 +11904,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2130</v>
+        <v>2527</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -10773,7 +11958,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2131</v>
+        <v>2528</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -10956,7 +12141,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2119</v>
+        <v>2516</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -11037,7 +12222,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2120</v>
+        <v>2517</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -11090,7 +12275,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2121</v>
+        <v>2518</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -11171,7 +12356,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2122</v>
+        <v>2519</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -11355,7 +12540,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2234</v>
+        <v>2509</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -11847,7 +13032,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2148</v>
+        <v>2545</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>82</v>
@@ -11934,7 +13119,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2149</v>
+        <v>2546</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>83</v>
@@ -11995,7 +13180,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2150</v>
+        <v>2547</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>82</v>
@@ -12082,7 +13267,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2151</v>
+        <v>2548</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>83</v>
@@ -12622,7 +13807,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2196</v>
+        <v>2593</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -12704,7 +13889,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2197</v>
+        <v>2594</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -12887,7 +14072,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2198</v>
+        <v>2595</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -12968,7 +14153,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2199</v>
+        <v>2596</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13164,7 +14349,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2200</v>
+        <v>2597</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13254,7 +14439,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2201</v>
+        <v>2598</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13445,7 +14630,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2202</v>
+        <v>2599</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13535,7 +14720,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2203</v>
+        <v>2600</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -13726,7 +14911,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2208</v>
+        <v>2605</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -13816,7 +15001,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2209</v>
+        <v>2606</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -14002,7 +15187,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2204</v>
+        <v>2601</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -14084,7 +15269,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2205</v>
+        <v>2602</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -14266,7 +15451,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2206</v>
+        <v>2603</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -14347,7 +15532,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2207</v>
+        <v>2604</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -14543,7 +15728,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2210</v>
+        <v>2607</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -14633,7 +15818,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2211</v>
+        <v>2608</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -14840,7 +16025,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2235</v>
+        <v>2510</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -14923,7 +16108,7 @@
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>2114</v>
+        <v>2511</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>61</v>
@@ -14961,7 +16146,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2115</v>
+        <v>2512</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -15032,7 +16217,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2116</v>
+        <v>2513</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
@@ -15115,7 +16300,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>2117</v>
+        <v>2514</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -15153,7 +16338,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>2118</v>
+        <v>2515</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -15323,10 +16508,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2164</v>
+        <v>2561</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -15379,10 +16564,10 @@
     </row>
     <row ht="72" r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2165</v>
+        <v>2562</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -15438,7 +16623,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2166</v>
+        <v>2563</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -15494,7 +16679,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2167</v>
+        <v>2564</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -15660,7 +16845,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2168</v>
+        <v>2565</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -15726,7 +16911,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2169</v>
+        <v>2566</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -15792,7 +16977,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2170</v>
+        <v>2567</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -15858,7 +17043,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2171</v>
+        <v>2568</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -16034,7 +17219,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2172</v>
+        <v>2569</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -16100,7 +17285,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2173</v>
+        <v>2570</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -16166,7 +17351,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2174</v>
+        <v>2571</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
@@ -16232,7 +17417,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2175</v>
+        <v>2572</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -16396,10 +17581,10 @@
     </row>
     <row ht="43.2" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2160</v>
+        <v>2557</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -16456,7 +17641,7 @@
         <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>2161</v>
+        <v>2558</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -16513,7 +17698,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>2162</v>
+        <v>2559</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>68</v>
@@ -16570,7 +17755,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>2163</v>
+        <v>2560</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
@@ -16730,10 +17915,10 @@
     </row>
     <row ht="72" r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2228</v>
+        <v>2625</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -16784,7 +17969,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2229</v>
+        <v>2626</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -16945,7 +18130,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2230</v>
+        <v>2627</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -17005,7 +18190,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2231</v>
+        <v>2628</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -17175,7 +18360,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2232</v>
+        <v>2629</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -17235,7 +18420,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2233</v>
+        <v>2630</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -17396,7 +18581,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2226</v>
+        <v>2623</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -17446,7 +18631,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2227</v>
+        <v>2624</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -17599,7 +18784,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2214</v>
+        <v>2611</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -17659,7 +18844,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2215</v>
+        <v>2612</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -17831,7 +19016,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2218</v>
+        <v>2615</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -17897,7 +19082,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2219</v>
+        <v>2616</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -18089,7 +19274,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2127</v>
+        <v>2524</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -18557,7 +19742,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2216</v>
+        <v>2613</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -18614,7 +19799,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2217</v>
+        <v>2614</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -18786,7 +19971,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2220</v>
+        <v>2617</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -18852,7 +20037,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2221</v>
+        <v>2618</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
@@ -19028,7 +20213,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2225</v>
+        <v>2622</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -19204,7 +20389,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2224</v>
+        <v>2621</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -19371,7 +20556,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2222</v>
+        <v>2619</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -19532,7 +20717,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2223</v>
+        <v>2620</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
@@ -19695,7 +20880,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2192</v>
+        <v>2589</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -19777,7 +20962,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2193</v>
+        <v>2590</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -19963,7 +21148,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2194</v>
+        <v>2591</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -20045,7 +21230,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2195</v>
+        <v>2592</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
@@ -20229,7 +21414,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2212</v>
+        <v>2609</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -20282,7 +21467,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2213</v>
+        <v>2610</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>68</v>
@@ -20441,7 +21626,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2178</v>
+        <v>2575</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -20512,7 +21697,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2179</v>
+        <v>2576</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -20684,7 +21869,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2186</v>
+        <v>2583</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>69</v>
@@ -20755,7 +21940,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2187</v>
+        <v>2584</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>69</v>
@@ -20930,7 +22115,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2182</v>
+        <v>2579</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -21014,7 +22199,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2183</v>
+        <v>2580</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
@@ -21202,7 +22387,7 @@
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>2190</v>
+        <v>2587</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>59</v>
@@ -21286,7 +22471,7 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2191</v>
+        <v>2588</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>59</v>
